--- a/InstallOptions/Localization/CustomLocalization-RU/Localization/RogueTech/RU/MissionControl/LocalizationDef.xlsx
+++ b/InstallOptions/Localization/CustomLocalization-RU/Localization/RogueTech/RU/MissionControl/LocalizationDef.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1976" uniqueCount="1082">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1976" uniqueCount="1115">
   <si>
     <t>Blackout_DugInDeep.contractName</t>
   </si>
@@ -165,7 +165,7 @@
     <t>"We've got contacts! Incoming!"</t>
   </si>
   <si>
-    <t>"У нас контакт! Наступают!"</t>
+    <t>"Множество контактов! Сближаются!"</t>
   </si>
   <si>
     <t>Blackout_DugInDeep.longDescription</t>
@@ -222,7 +222,7 @@
     <t>"Destroy the lance that is invading"</t>
   </si>
   <si>
-    <t>"Уничтожьте вторгающиеся силы врага"</t>
+    <t>"Уничтожьте отряд вторжения"</t>
   </si>
   <si>
     <t>Blackout_DugInDeep.objectiveList3.title</t>
@@ -231,9 +231,6 @@
     <t>"Destroy invading lance"</t>
   </si>
   <si>
-    <t>"Уничтожьте отряд вторжения"</t>
-  </si>
-  <si>
     <t>Blackout_DugInDeep.objectiveList4.description</t>
   </si>
   <si>
@@ -318,9 +315,6 @@
     <t>Blackout_HeavyStatic.dialogueList11.dialogueContent2.words</t>
   </si>
   <si>
-    <t>"Множество контактов! Сближаются!"</t>
-  </si>
-  <si>
     <t>Blackout_HeavyStatic.dialogueList2.dialogueContent0.words</t>
   </si>
   <si>
@@ -486,7 +480,7 @@
     <t>"Survive the turret trap in alpha base"</t>
   </si>
   <si>
-    <t>"Выжить в ловушке на базе альфа"</t>
+    <t>"Выжить в западне на базе «альфа»"</t>
   </si>
   <si>
     <t>Blackout_HeavyStatic.objectiveList1.title</t>
@@ -576,7 +570,7 @@
     <t>"We've been informed there's two main bases for the Biolab. Let's head to the first one and scout it out. And... try not to take any deep breaths out there, Commander."</t>
   </si>
   <si>
-    <t>"Нам сообщили, что у Биолаборатории есть две основные базы. Давайте отправимся к первому и разведем его. И ... постарайтесь не делать глубоких вдохов, командир."</t>
+    <t>"Нам сообщили, что у биолаборатории есть две основные базы. Давайте отправимся к первой, разведаем обстановку. И... постарайтесь там дышать по-меньше, командир."</t>
   </si>
   <si>
     <t>Blackout_UnknownCause.dialogueList1.dialogueContent0.words</t>
@@ -903,9 +897,6 @@
     <t>"Ready up, Commander."</t>
   </si>
   <si>
-    <t>"Закончили, командир."</t>
-  </si>
-  <si>
     <t>DuoDuel_DoubleTrouble.dialogueList0.dialogueContent1.words</t>
   </si>
   <si>
@@ -1128,7 +1119,7 @@
     <t>"There we go. Issue settled. Back to the dropship, Commander."</t>
   </si>
   <si>
-    <t>"Ну вот. Вопрос решен. Возвращайтесь к десантному кораблю, командир."</t>
+    <t>"Ну вот. Вопрос решен. Возвращайтесь к дропшипу, командир."</t>
   </si>
   <si>
     <t>DuoDuel_WordsHurt.dialogueList2.dialogueContent0.words</t>
@@ -1320,7 +1311,7 @@
     <t>"A Taste For War"</t>
   </si>
   <si>
-    <t>"Вкус войны"</t>
+    <t>"Пристрастие к войне"</t>
   </si>
   <si>
     <t>SoloDuel_ATasteForWar.dialogueList0.dialogueContent0.words</t>
@@ -1404,7 +1395,7 @@
     <t>"Done and done. Great job, Commander. Let's go home."</t>
   </si>
   <si>
-    <t>"Сделано и сделано. Отличная работа, командир. Давай пойдем домой."</t>
+    <t>"Раз-два и готово. Отличная работа, командир. Давайте домой."</t>
   </si>
   <si>
     <t>SoloDuel_ChallengeAccepted.dialogueList2.dialogueContent0.words</t>
@@ -1701,6 +1692,9 @@
     <t>"Zeta"</t>
   </si>
   <si>
+    <t>"Зета"</t>
+  </si>
+  <si>
     <t>castDef_MC_DishonoredWarrior.callsign</t>
   </si>
   <si>
@@ -1866,6 +1860,9 @@
     <t>"BattleMech Trial of Position. Ready! GO!"</t>
   </si>
   <si>
+    <t>"Испытание положения на боевых мехах. Приготовиться! НАЧАЛИ!"</t>
+  </si>
+  <si>
     <t>DuoDuel_LastMinuteReplacementsC.contractName</t>
   </si>
   <si>
@@ -1896,6 +1893,9 @@
     <t>"And down they go!"</t>
   </si>
   <si>
+    <t>"И им пришёл конец."</t>
+  </si>
+  <si>
     <t>DuoDuel_LastMinuteReplacementsC.dialogueList2.dialogueContent0.words</t>
   </si>
   <si>
@@ -1986,9 +1986,15 @@
     <t>"Zellbrigen"</t>
   </si>
   <si>
+    <t>"Зеллбриген"</t>
+  </si>
+  <si>
     <t>SoloDuel_AllEyesOnC.dialogueList0.dialogueContent0.words</t>
   </si>
   <si>
+    <t>"Ну, поехали, командир."</t>
+  </si>
+  <si>
     <t>SoloDuel_AllEyesOnC.dialogueList0.dialogueContent1.words</t>
   </si>
   <si>
@@ -2397,6 +2403,9 @@
     <t>"Absent Witness"</t>
   </si>
   <si>
+    <t>"Отсутствующий свидетель"</t>
+  </si>
+  <si>
     <t>Blackout_AbsentWitness.shortDescription</t>
   </si>
   <si>
@@ -2415,6 +2424,9 @@
     <t>Blackout_AbsentWitness.objectiveList1.title</t>
   </si>
   <si>
+    <t>"Выжить в западне"</t>
+  </si>
+  <si>
     <t>Blackout_AbsentWitness.objectiveList2.title</t>
   </si>
   <si>
@@ -2598,6 +2610,9 @@
     <t>"A Minor Royal Pain"</t>
   </si>
   <si>
+    <t>"Небольшая большая боль"</t>
+  </si>
+  <si>
     <t>Blackout_AMinorRoyalPain.shortDescription</t>
   </si>
   <si>
@@ -3141,6 +3156,9 @@
     <t>"Ah shit, I'm being targetted!"</t>
   </si>
   <si>
+    <t>"От дерьмо, меня просветили!"</t>
+  </si>
+  <si>
     <t>Blackout_PreparedGrounds.dialogueList4.dialogueContent4.words</t>
   </si>
   <si>
@@ -3216,6 +3234,9 @@
     <t>"Ambush! Take them out!"</t>
   </si>
   <si>
+    <t>"Засада! Разберитесь с ними!"</t>
+  </si>
+  <si>
     <t>Blackout_PreparedGrounds.dialogueList9.dialogueContent0.words</t>
   </si>
   <si>
@@ -3265,6 +3286,84 @@
   </si>
   <si>
     <t>"Time to earn your paycheques people. Light 'em up."</t>
+  </si>
+  <si>
+    <t>"Уничтожьте турели захваченной базы"</t>
+  </si>
+  <si>
+    <t>"Наши базы на {TGT_SYSTEM.name} подверглись нападению со стороны {TEAM_TAR.FactionDef.ShortName}. Мы вызвали их на испытание отказа и надеемся изгнать их из системы раз и навсегда."</t>
+  </si>
+  <si>
+    <t>"Вчера вечером несколько членов вашей команды позволили себе некоторые вольности в местном баре {TEAM_TAR.FactionDef.Name}. Были сказаны некоторые слова, и теперь вам предстоит дуэль с оскорбленными воинами из {TEAM_TAR.FactionDef.Name}."</t>
+  </si>
+  <si>
+    <t>"Commander, Those guys we ran into from {TEAM_EMP.FactionDef.Name} are pretty hot headed {TEAM_TAR.FactionDef.Name} Warriors. Looks like we've got ourselves a duel."</t>
+  </si>
+  <si>
+    <t>"It's unfortunate how this has turned out but we can't back down now. Sort these {TEAM_TAR.FactionDef.Name} Warriors out then let's get out of here."</t>
+  </si>
+  <si>
+    <t>"Каждый год примерно в это время на {TGT_SYSTEM.name} мы проводим испытание положения для сибко. В этом году мы хотели бы, чтобы вы участвовали на открытии. Дуэльный дуэт будет против {TEAM_TAR.FactionDef.ShortName}. Не дайте нашим молодым воинам избить вас слишком сильно."</t>
+  </si>
+  <si>
+    <t>"Defeat the {TEAM_TAR.FactionDef.Name} team"</t>
+  </si>
+  <si>
+    <t>"Два наших воина-сиба вызвали на поединок двух многолетних воинов {TEAM_TAR.FactionDef.Name}. Поскольку они ещё не прошли испытание положения, мы не можем позволить им сразиться в этом поединке. Мы хотели бы, чтобы вы приняли участие в поединке в качестве их защитников, сберегая честь {TEAM_EMP.FactionDef.Name} и одновременно показывая нашим сибко, что значит быть воином."</t>
+  </si>
+  <si>
+    <t>"Лидер тринария {TEAM_TAR.FactionDef.Name} выразила несогласие с недавно опубликованным отчетом о неэффективности военных. Она потребовала дуэли, оспаривая обвинения. Мы хотели бы нанять вас для защиты наших доводов, командир."</t>
+  </si>
+  <si>
+    <t>"I just don't know, Commander. When people say they want to 'fight' allegations, it's not meant to be a real fight. These {TEAM_TAR.FactionDef.Name} Clanners are crazy. Everything is a fight for them."</t>
+  </si>
+  <si>
+    <t>"Каждый год {TEAM_EMP.FactionDef.Name} на {TGT_SYSTEM.name} продолжает историческую традицию с {TEAM_TAR.FactionDef.Name}. Мы оба выставляем наемников на испытание владения, и тот, кто побеждает, получает на год хорошую еду и хорошие вина. Наши обычные наемники, которые нам помогали, недавно неожиданно скончались из-за кривого прыжка, поэтому мы обратились к вам за помощью."</t>
+  </si>
+  <si>
+    <t>"Командир, {TEAM_TAR.FactionDef.Name} всегда досаждали нам, постоянно заявляя о своем превосходстве над нами. Поэтому мы устроили испытание обиды против {TEAM_TAR.FactionDef.Name} и сторговались, чтобы вы сражались от нашего имени, чтобы уязвить их. Они в ярости от подтекста этого, а мы с радостью воспользуемся этим в своих интересах. Во славу нашего клана, покажите {TEAM_TAR.FactionDef.Name}, что даже наши наемники сильнее их."</t>
+  </si>
+  <si>
+    <t>"Воин {TEAM_TAR.FactionDef.Name} через нас объявляет вам испытание обиды, командир. Это хорошая возможность показать нашим сибко, как сражаются наемники. Мы заплатим вам, если вы победите. Итак, запомнят ли {COMPANY.CompanyName} за славный бой или же предадут забвению?"</t>
+  </si>
+  <si>
+    <t>"The {TEAM_TAR.FactionDef.Name} Warrior awaits yor advance."</t>
+  </si>
+  <si>
+    <t>"Наши сражения с {TEAM_TAR.FactionDef.ShortName} в окрестностях {TGT_SYSTEM.name} были пустой растратой ресурсов. {TEAM_TAR.FactionDef.Name} объявили нам испытание владения за небольшой участок земли. Это будет битва один на один в круге равных, где вы займете наше место, как говорится, для экономии ресурсов."</t>
+  </si>
+  <si>
+    <t>"На {TGT_SYSTEM.name} есть воин, который отказывается отступить, пока вы, командир, не явитесь и не сразитесь с ним в круге равных. Поскольку он носит кровное имя, мы считаем, что вы не можете отмахнуться от него, как от какого-нибудь пьяницы в баре. Для нашего клана будет большой честью, если вы явитесь и продемонстрируете всем свою силу."</t>
+  </si>
+  <si>
+    <t>"{TEAM_EMP.FactionDef.Name} обратились к нам с просьбой провести полевые испытания нового пилота из их сибгруппы Альфа. {COMPANY.CompanyName} были ценным союзником, и мы хотели бы, чтобы наше новое поколение подчерпнуло от вас ряд навыков. Не сдерживайте сил, пилот выложится на полную и покажет всё, чему его учили. Клан хочет преподать ему и его сибко пару уроков из реальной жизни."</t>
+  </si>
+  <si>
+    <t>"{TGT_SYSTEM.name} была вызвана на испытание владения {TEAM_TAR.FactionDef.Name}. Мы хотели бы, чтобы вы представляли нас в этом испытании, так как все наши войска задействованы в других местах. Если вы проиграете, мы будем отрицать, что подобное соглашение когда-либо существовало или скажем, что вы представляли не нас."</t>
+  </si>
+  <si>
+    <t>"Defeat the {TEAM_TAR.FactionDef.Name} Warrior"</t>
+  </si>
+  <si>
+    <t>"Я не имею права сообщать вам всех подробностей по этому деликатному вопросу. Но что я могу сказать, так это то, что вчера вечером мы потеряли связь с объектом в системе {TGT_SYSTEM.name}, где находился очень ценный свидетель, которого охраняли. Если это как-то связано с тем, почему его изначально защищали, то я ожидаю, что в дело будут вовлечены группы из {TEAM_TAR.FactionDef.Name}. Отправляйтесь туда и выясните, что происходит."</t>
+  </si>
+  <si>
+    <t>"{TEAM_TAR.FactionDef.Name} force, you're out gunned and out matched. Release your captive and surrender or we'll be forced to fire on your position."</t>
+  </si>
+  <si>
+    <t>"{TGT_SYSTEM.name} settlement. We're a {TEAM_EMP.FactionDef.Name} aligned force attempting to offer aid and support. What's the current situation here?"</t>
+  </si>
+  <si>
+    <t>"Командир, вы срочно нужны нам в системе {TGT_SYSTEM.name}. Мы потеряли связь с одной из влиятельных королевских особ этого региона - Генриеттой Бош. Она часто закидывала нас постоянным потоком просьб, но с некоторых пор мы ничего не слышим о ней.\r\n\r\nПожалуйста, проведайте её и доложите нам."</t>
+  </si>
+  <si>
+    <t>"{MC.If.Encounter.HasNoTag.mc_met_bosh_in_phase1}[MC.Format.ToUpperFirst.{TEAM_EMP.FactionDef.Name}] settlement, Commander {MC.Commander.DisplayName} here. We've been sent to check-in on Henriette Bosh."</t>
+  </si>
+  <si>
+    <t>"{MC.If.Encounter.HasTag.mc_met_bosh_in_phase1}{TEAM_EMP.FactionDef.Name} settlement, we're here to pick up Henriette Bosh's dog."</t>
+  </si>
+  <si>
+    <t>"Командир, нам нужно, чтобы вы проверили состояние тайника со снабжением в системе {TGT_SYSTEM.name}, который мы создали на случай проведения местных операций. Ваша группа будет патрулировать регион, проходя вдоль свалок. Поддерживайте связь только по узконаправленному лучу.\r\n\r\nНе пытайтесь связаться с тайником по радио и не высвечивайте, осторожность в этой операции имеет первостепенное значение."</t>
   </si>
 </sst>
 </file>
@@ -3612,16 +3711,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E494"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A479" workbookViewId="0">
-      <selection activeCell="C497" sqref="C497"/>
+    <sheetView tabSelected="1" topLeftCell="A477" workbookViewId="0">
+      <selection activeCell="C499" sqref="C499"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="3" width="78.85546875" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.28515625" style="1" customWidth="1"/>
-    <col min="5" max="17" width="9.140625" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="5" max="19" width="9.140625" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -4023,7 +4122,7 @@
         <v>69</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D24" s="1">
         <v>24</v>
@@ -4034,13 +4133,13 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="C25" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>73</v>
       </c>
       <c r="D25" s="1">
         <v>25</v>
@@ -4051,13 +4150,13 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="C26" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>76</v>
       </c>
       <c r="D26" s="1">
         <v>26</v>
@@ -4068,13 +4167,13 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="C27" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>79</v>
       </c>
       <c r="D27" s="1">
         <v>27</v>
@@ -4085,13 +4184,13 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="C28" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>82</v>
       </c>
       <c r="D28" s="1">
         <v>28</v>
@@ -4102,13 +4201,13 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="C29" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>85</v>
       </c>
       <c r="D29" s="1">
         <v>29</v>
@@ -4119,13 +4218,13 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="C30" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>88</v>
       </c>
       <c r="D30" s="1">
         <v>30</v>
@@ -4136,13 +4235,13 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="C31" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>91</v>
       </c>
       <c r="D31" s="1">
         <v>31</v>
@@ -4153,13 +4252,13 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="C32" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>94</v>
       </c>
       <c r="D32" s="1">
         <v>32</v>
@@ -4170,13 +4269,13 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="C33" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>97</v>
       </c>
       <c r="D33" s="1">
         <v>33</v>
@@ -4187,13 +4286,13 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>47</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>99</v>
+        <v>48</v>
       </c>
       <c r="D34" s="1">
         <v>34</v>
@@ -4204,13 +4303,13 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>100</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>102</v>
       </c>
       <c r="D35" s="1">
         <v>35</v>
@@ -4221,13 +4320,13 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C36" s="1" t="s">
         <v>103</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>105</v>
       </c>
       <c r="D36" s="1">
         <v>36</v>
@@ -4238,13 +4337,13 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>106</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>108</v>
       </c>
       <c r="D37" s="1">
         <v>37</v>
@@ -4255,13 +4354,13 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C38" s="1" t="s">
         <v>109</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>111</v>
       </c>
       <c r="D38" s="1">
         <v>38</v>
@@ -4272,13 +4371,13 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C39" s="1" t="s">
         <v>112</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>114</v>
       </c>
       <c r="D39" s="1">
         <v>39</v>
@@ -4289,13 +4388,13 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C40" s="1" t="s">
         <v>115</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>117</v>
       </c>
       <c r="D40" s="1">
         <v>40</v>
@@ -4306,13 +4405,13 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>32</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D41" s="1">
         <v>41</v>
@@ -4323,13 +4422,13 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C42" s="1" t="s">
         <v>120</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>122</v>
       </c>
       <c r="D42" s="1">
         <v>42</v>
@@ -4340,13 +4439,13 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C43" s="1" t="s">
         <v>123</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>125</v>
       </c>
       <c r="D43" s="1">
         <v>43</v>
@@ -4357,13 +4456,13 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C44" s="1" t="s">
         <v>126</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>128</v>
       </c>
       <c r="D44" s="1">
         <v>44</v>
@@ -4374,13 +4473,13 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C45" s="1" t="s">
         <v>129</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>131</v>
       </c>
       <c r="D45" s="1">
         <v>45</v>
@@ -4391,13 +4490,13 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C46" s="1" t="s">
         <v>132</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>134</v>
       </c>
       <c r="D46" s="1">
         <v>46</v>
@@ -4408,13 +4507,13 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C47" s="1" t="s">
         <v>135</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>137</v>
       </c>
       <c r="D47" s="1">
         <v>47</v>
@@ -4425,13 +4524,13 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C48" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>140</v>
       </c>
       <c r="D48" s="1">
         <v>48</v>
@@ -4442,13 +4541,13 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C49" s="1" t="s">
         <v>141</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>143</v>
       </c>
       <c r="D49" s="1">
         <v>49</v>
@@ -4459,13 +4558,13 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C50" s="1" t="s">
         <v>144</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>146</v>
       </c>
       <c r="D50" s="1">
         <v>50</v>
@@ -4476,13 +4575,13 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C51" s="1" t="s">
         <v>147</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>149</v>
       </c>
       <c r="D51" s="1">
         <v>51</v>
@@ -4493,13 +4592,13 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C52" s="1" t="s">
         <v>150</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>152</v>
       </c>
       <c r="D52" s="1">
         <v>52</v>
@@ -4510,13 +4609,13 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C53" s="1" t="s">
         <v>153</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>155</v>
       </c>
       <c r="D53" s="1">
         <v>53</v>
@@ -4527,13 +4626,13 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C54" s="1" t="s">
         <v>156</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>158</v>
       </c>
       <c r="D54" s="1">
         <v>54</v>
@@ -4544,13 +4643,13 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C55" s="1" t="s">
         <v>159</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>161</v>
       </c>
       <c r="D55" s="1">
         <v>55</v>
@@ -4561,13 +4660,13 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C56" s="1" t="s">
         <v>162</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>164</v>
       </c>
       <c r="D56" s="1">
         <v>56</v>
@@ -4578,7 +4677,7 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>66</v>
@@ -4595,13 +4694,13 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>69</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D58" s="1">
         <v>58</v>
@@ -4612,13 +4711,13 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C59" s="1" t="s">
         <v>168</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>170</v>
       </c>
       <c r="D59" s="1">
         <v>59</v>
@@ -4629,13 +4728,13 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C60" s="1" t="s">
         <v>171</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>173</v>
       </c>
       <c r="D60" s="1">
         <v>60</v>
@@ -4646,13 +4745,13 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D61" s="1">
         <v>61</v>
@@ -4663,13 +4762,13 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B62" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C62" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>76</v>
       </c>
       <c r="D62" s="1">
         <v>62</v>
@@ -4680,13 +4779,13 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C63" s="1" t="s">
         <v>177</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>179</v>
       </c>
       <c r="D63" s="1">
         <v>63</v>
@@ -4697,13 +4796,13 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C64" s="1" t="s">
         <v>180</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>182</v>
       </c>
       <c r="D64" s="1">
         <v>64</v>
@@ -4714,13 +4813,13 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C65" s="1" t="s">
         <v>183</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>185</v>
       </c>
       <c r="D65" s="1">
         <v>65</v>
@@ -4731,13 +4830,13 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C66" s="1" t="s">
         <v>186</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>188</v>
       </c>
       <c r="D66" s="1">
         <v>66</v>
@@ -4748,13 +4847,13 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C67" s="1" t="s">
         <v>189</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>191</v>
       </c>
       <c r="D67" s="1">
         <v>67</v>
@@ -4765,13 +4864,13 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C68" s="1" t="s">
         <v>192</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>194</v>
       </c>
       <c r="D68" s="1">
         <v>68</v>
@@ -4782,13 +4881,13 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C69" s="1" t="s">
         <v>195</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>197</v>
       </c>
       <c r="D69" s="1">
         <v>69</v>
@@ -4799,13 +4898,13 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>47</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>99</v>
+        <v>48</v>
       </c>
       <c r="D70" s="1">
         <v>70</v>
@@ -4816,13 +4915,13 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C71" s="1" t="s">
         <v>199</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>201</v>
       </c>
       <c r="D71" s="1">
         <v>71</v>
@@ -4833,13 +4932,13 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C72" s="1" t="s">
         <v>202</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>204</v>
       </c>
       <c r="D72" s="1">
         <v>72</v>
@@ -4850,13 +4949,13 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C73" s="1" t="s">
         <v>205</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>207</v>
       </c>
       <c r="D73" s="1">
         <v>73</v>
@@ -4867,13 +4966,13 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C74" s="1" t="s">
         <v>208</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>210</v>
       </c>
       <c r="D74" s="1">
         <v>74</v>
@@ -4884,13 +4983,13 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C75" s="1" t="s">
         <v>211</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>213</v>
       </c>
       <c r="D75" s="1">
         <v>75</v>
@@ -4901,13 +5000,13 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C76" s="1" t="s">
         <v>214</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>216</v>
       </c>
       <c r="D76" s="1">
         <v>76</v>
@@ -4918,13 +5017,13 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C77" s="1" t="s">
         <v>217</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>219</v>
       </c>
       <c r="D77" s="1">
         <v>77</v>
@@ -4935,13 +5034,13 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C78" s="1" t="s">
         <v>220</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>222</v>
       </c>
       <c r="D78" s="1">
         <v>78</v>
@@ -4952,13 +5051,13 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C79" s="1" t="s">
         <v>223</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>225</v>
       </c>
       <c r="D79" s="1">
         <v>79</v>
@@ -4969,13 +5068,13 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C80" s="1" t="s">
         <v>226</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>228</v>
       </c>
       <c r="D80" s="1">
         <v>80</v>
@@ -4986,13 +5085,13 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C81" s="1" t="s">
         <v>229</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>231</v>
       </c>
       <c r="D81" s="1">
         <v>81</v>
@@ -5003,13 +5102,13 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C82" s="1" t="s">
         <v>232</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>234</v>
       </c>
       <c r="D82" s="1">
         <v>82</v>
@@ -5020,13 +5119,13 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C83" s="1" t="s">
         <v>235</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>237</v>
       </c>
       <c r="D83" s="1">
         <v>83</v>
@@ -5037,13 +5136,13 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C84" s="1" t="s">
         <v>238</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>240</v>
       </c>
       <c r="D84" s="1">
         <v>84</v>
@@ -5054,13 +5153,13 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C85" s="1" t="s">
         <v>241</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>243</v>
       </c>
       <c r="D85" s="1">
         <v>85</v>
@@ -5071,13 +5170,13 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C86" s="1" t="s">
         <v>244</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>246</v>
       </c>
       <c r="D86" s="1">
         <v>86</v>
@@ -5088,13 +5187,13 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="C87" s="1" t="s">
         <v>247</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="C87" s="1" t="s">
-        <v>249</v>
       </c>
       <c r="D87" s="1">
         <v>87</v>
@@ -5105,13 +5204,13 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C88" s="1" t="s">
         <v>250</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>252</v>
       </c>
       <c r="D88" s="1">
         <v>88</v>
@@ -5122,13 +5221,13 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="C89" s="1" t="s">
         <v>253</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>255</v>
       </c>
       <c r="D89" s="1">
         <v>89</v>
@@ -5139,7 +5238,7 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>66</v>
@@ -5156,13 +5255,13 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>69</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D91" s="1">
         <v>91</v>
@@ -5173,13 +5272,13 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D92" s="1">
         <v>92</v>
@@ -5190,13 +5289,13 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D93" s="1">
         <v>93</v>
@@ -5207,13 +5306,13 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D94" s="1">
         <v>94</v>
@@ -5224,13 +5323,13 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B95" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C95" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="C95" s="1" t="s">
-        <v>76</v>
       </c>
       <c r="D95" s="1">
         <v>95</v>
@@ -5241,13 +5340,13 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="C96" s="1" t="s">
         <v>262</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="C96" s="1" t="s">
-        <v>264</v>
       </c>
       <c r="D96" s="1">
         <v>96</v>
@@ -5258,13 +5357,13 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C97" s="1" t="s">
         <v>265</v>
-      </c>
-      <c r="B97" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="C97" s="1" t="s">
-        <v>267</v>
       </c>
       <c r="D97" s="1">
         <v>97</v>
@@ -5275,13 +5374,13 @@
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="C98" s="1" t="s">
         <v>268</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="C98" s="1" t="s">
-        <v>270</v>
       </c>
       <c r="D98" s="1">
         <v>98</v>
@@ -5292,13 +5391,13 @@
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C99" s="1" t="s">
         <v>271</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="C99" s="1" t="s">
-        <v>273</v>
       </c>
       <c r="D99" s="1">
         <v>99</v>
@@ -5309,13 +5408,13 @@
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="C100" s="1" t="s">
         <v>274</v>
-      </c>
-      <c r="B100" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="C100" s="1" t="s">
-        <v>276</v>
       </c>
       <c r="D100" s="1">
         <v>100</v>
@@ -5326,13 +5425,13 @@
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C101" s="1" t="s">
         <v>277</v>
-      </c>
-      <c r="B101" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="C101" s="1" t="s">
-        <v>279</v>
       </c>
       <c r="D101" s="1">
         <v>101</v>
@@ -5343,13 +5442,13 @@
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="C102" s="1" t="s">
         <v>280</v>
-      </c>
-      <c r="B102" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="C102" s="1" t="s">
-        <v>282</v>
       </c>
       <c r="D102" s="1">
         <v>102</v>
@@ -5360,13 +5459,13 @@
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="C103" s="1" t="s">
         <v>283</v>
-      </c>
-      <c r="B103" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="C103" s="1" t="s">
-        <v>285</v>
       </c>
       <c r="D103" s="1">
         <v>103</v>
@@ -5377,13 +5476,13 @@
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="C104" s="1" t="s">
         <v>286</v>
-      </c>
-      <c r="B104" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="C104" s="1" t="s">
-        <v>288</v>
       </c>
       <c r="D104" s="1">
         <v>104</v>
@@ -5394,13 +5493,13 @@
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C105" s="1" t="s">
         <v>289</v>
-      </c>
-      <c r="B105" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="C105" s="1" t="s">
-        <v>291</v>
       </c>
       <c r="D105" s="1">
         <v>105</v>
@@ -5411,13 +5510,13 @@
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="D106" s="1">
         <v>106</v>
@@ -5428,13 +5527,13 @@
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="D107" s="1">
         <v>107</v>
@@ -5445,13 +5544,13 @@
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="D108" s="1">
         <v>108</v>
@@ -5462,13 +5561,13 @@
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="D109" s="1">
         <v>109</v>
@@ -5479,13 +5578,13 @@
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="D110" s="1">
         <v>110</v>
@@ -5496,13 +5595,13 @@
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="D111" s="1">
         <v>111</v>
@@ -5513,13 +5612,13 @@
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="D112" s="1">
         <v>112</v>
@@ -5530,13 +5629,13 @@
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="D113" s="1">
         <v>113</v>
@@ -5547,13 +5646,13 @@
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="D114" s="1">
         <v>114</v>
@@ -5564,13 +5663,13 @@
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="D115" s="1">
         <v>115</v>
@@ -5581,13 +5680,13 @@
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="D116" s="1">
         <v>116</v>
@@ -5598,13 +5697,13 @@
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="D117" s="1">
         <v>117</v>
@@ -5615,13 +5714,13 @@
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="D118" s="1">
         <v>118</v>
@@ -5632,13 +5731,13 @@
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="D119" s="1">
         <v>119</v>
@@ -5649,13 +5748,13 @@
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="D120" s="1">
         <v>120</v>
@@ -5666,13 +5765,13 @@
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="D121" s="1">
         <v>121</v>
@@ -5683,13 +5782,13 @@
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D122" s="1">
         <v>122</v>
@@ -5700,13 +5799,13 @@
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="D123" s="1">
         <v>123</v>
@@ -5717,13 +5816,13 @@
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="D124" s="1">
         <v>124</v>
@@ -5734,13 +5833,13 @@
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="D125" s="1">
         <v>125</v>
@@ -5751,13 +5850,13 @@
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="D126" s="1">
         <v>126</v>
@@ -5768,13 +5867,13 @@
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D127" s="1">
         <v>127</v>
@@ -5785,13 +5884,13 @@
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="D128" s="1">
         <v>128</v>
@@ -5802,13 +5901,13 @@
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="D129" s="1">
         <v>129</v>
@@ -5819,13 +5918,13 @@
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="D130" s="1">
         <v>130</v>
@@ -5836,13 +5935,13 @@
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="D131" s="1">
         <v>131</v>
@@ -5853,13 +5952,13 @@
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="D132" s="1">
         <v>132</v>
@@ -5870,13 +5969,13 @@
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="D133" s="1">
         <v>133</v>
@@ -5887,13 +5986,13 @@
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="D134" s="1">
         <v>134</v>
@@ -5904,13 +6003,13 @@
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D135" s="1">
         <v>135</v>
@@ -5921,13 +6020,13 @@
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="D136" s="1">
         <v>136</v>
@@ -5938,13 +6037,13 @@
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="D137" s="1">
         <v>137</v>
@@ -5955,13 +6054,13 @@
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="D138" s="1">
         <v>138</v>
@@ -5972,13 +6071,13 @@
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="D139" s="1">
         <v>139</v>
@@ -5989,13 +6088,13 @@
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="D140" s="1">
         <v>140</v>
@@ -6006,13 +6105,13 @@
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="D141" s="1">
         <v>141</v>
@@ -6023,13 +6122,13 @@
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="D142" s="1">
         <v>142</v>
@@ -6040,13 +6139,13 @@
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="D143" s="1">
         <v>143</v>
@@ -6057,13 +6156,13 @@
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="D144" s="1">
         <v>144</v>
@@ -6074,13 +6173,13 @@
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="D145" s="1">
         <v>145</v>
@@ -6091,13 +6190,13 @@
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="D146" s="1">
         <v>146</v>
@@ -6108,13 +6207,13 @@
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="D147" s="1">
         <v>147</v>
@@ -6125,13 +6224,13 @@
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="D148" s="1">
         <v>148</v>
@@ -6142,13 +6241,13 @@
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="D149" s="1">
         <v>149</v>
@@ -6159,13 +6258,13 @@
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="D150" s="1">
         <v>150</v>
@@ -6176,13 +6275,13 @@
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="D151" s="1">
         <v>151</v>
@@ -6193,13 +6292,13 @@
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="D152" s="1">
         <v>152</v>
@@ -6210,13 +6309,13 @@
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="D153" s="1">
         <v>153</v>
@@ -6227,13 +6326,13 @@
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="D154" s="1">
         <v>154</v>
@@ -6244,13 +6343,13 @@
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="D155" s="1">
         <v>155</v>
@@ -6261,13 +6360,13 @@
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="D156" s="1">
         <v>156</v>
@@ -6278,13 +6377,13 @@
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="D157" s="1">
         <v>157</v>
@@ -6295,13 +6394,13 @@
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="D158" s="1">
         <v>158</v>
@@ -6312,13 +6411,13 @@
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="D159" s="1">
         <v>159</v>
@@ -6329,13 +6428,13 @@
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="D160" s="1">
         <v>160</v>
@@ -6346,13 +6445,13 @@
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="D161" s="1">
         <v>161</v>
@@ -6363,13 +6462,13 @@
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="D162" s="1">
         <v>162</v>
@@ -6380,13 +6479,13 @@
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="D163" s="1">
         <v>163</v>
@@ -6397,13 +6496,13 @@
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="D164" s="1">
         <v>164</v>
@@ -6414,13 +6513,13 @@
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="D165" s="1">
         <v>165</v>
@@ -6431,13 +6530,13 @@
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="D166" s="1">
         <v>166</v>
@@ -6448,13 +6547,13 @@
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="D167" s="1">
         <v>167</v>
@@ -6465,13 +6564,13 @@
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="D168" s="1">
         <v>168</v>
@@ -6482,13 +6581,13 @@
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="D169" s="1">
         <v>169</v>
@@ -6499,13 +6598,13 @@
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D170" s="1">
         <v>170</v>
@@ -6516,13 +6615,13 @@
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="D171" s="1">
         <v>171</v>
@@ -6533,13 +6632,13 @@
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="D172" s="1">
         <v>172</v>
@@ -6550,13 +6649,13 @@
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="D173" s="1">
         <v>173</v>
@@ -6567,13 +6666,13 @@
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="D174" s="1">
         <v>174</v>
@@ -6584,13 +6683,13 @@
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="D175" s="1">
         <v>175</v>
@@ -6601,13 +6700,13 @@
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="D176" s="1">
         <v>176</v>
@@ -6618,13 +6717,13 @@
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="D177" s="1">
         <v>177</v>
@@ -6635,13 +6734,13 @@
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="D178" s="1">
         <v>178</v>
@@ -6652,13 +6751,13 @@
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="D179" s="1">
         <v>179</v>
@@ -6669,13 +6768,13 @@
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="D180" s="1">
         <v>180</v>
@@ -6686,13 +6785,13 @@
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="D181" s="1">
         <v>181</v>
@@ -6703,13 +6802,13 @@
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="D182" s="1">
         <v>182</v>
@@ -6720,13 +6819,13 @@
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="D183" s="1">
         <v>183</v>
@@ -6737,13 +6836,13 @@
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="D184" s="1">
         <v>184</v>
@@ -6754,13 +6853,13 @@
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="D185" s="1">
         <v>185</v>
@@ -6771,13 +6870,13 @@
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="D186" s="1">
         <v>186</v>
@@ -6788,13 +6887,13 @@
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="D187" s="1">
         <v>187</v>
@@ -6805,13 +6904,13 @@
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="D188" s="1">
         <v>188</v>
@@ -6822,13 +6921,13 @@
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="D189" s="1">
         <v>189</v>
@@ -6839,13 +6938,13 @@
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="D190" s="1">
         <v>190</v>
@@ -6856,13 +6955,13 @@
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="D191" s="1">
         <v>191</v>
@@ -6873,13 +6972,13 @@
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="D192" s="1">
         <v>192</v>
@@ -6890,13 +6989,13 @@
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="D193" s="1">
         <v>193</v>
@@ -6907,13 +7006,13 @@
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="D194" s="1">
         <v>194</v>
@@ -6924,13 +7023,13 @@
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="D195" s="1">
         <v>195</v>
@@ -6941,13 +7040,13 @@
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="D196" s="1">
         <v>196</v>
@@ -6958,13 +7057,13 @@
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="D197" s="1">
         <v>197</v>
@@ -6975,13 +7074,13 @@
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="D198" s="1">
         <v>198</v>
@@ -6992,13 +7091,13 @@
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="D199" s="1">
         <v>199</v>
@@ -7009,13 +7108,13 @@
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="D200" s="1">
         <v>200</v>
@@ -7026,13 +7125,13 @@
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="D201" s="1">
         <v>201</v>
@@ -7043,13 +7142,13 @@
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="D202" s="1">
         <v>202</v>
@@ -7060,13 +7159,13 @@
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="D203" s="1">
         <v>203</v>
@@ -7077,13 +7176,13 @@
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="D204" s="1">
         <v>204</v>
@@ -7094,13 +7193,13 @@
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="D205" s="1">
         <v>205</v>
@@ -7111,13 +7210,13 @@
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D206" s="1">
         <v>206</v>
@@ -7128,13 +7227,13 @@
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>576</v>
+        <v>1090</v>
       </c>
       <c r="D207" s="1">
         <v>207</v>
@@ -7145,13 +7244,13 @@
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="D208" s="1">
         <v>208</v>
@@ -7162,13 +7261,13 @@
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="D209" s="1">
         <v>209</v>
@@ -7179,13 +7278,13 @@
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="D210" s="1">
         <v>210</v>
@@ -7196,13 +7295,13 @@
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="D211" s="1">
         <v>211</v>
@@ -7213,13 +7312,13 @@
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="D212" s="1">
         <v>212</v>
@@ -7230,13 +7329,13 @@
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="D213" s="1">
         <v>213</v>
@@ -7247,13 +7346,13 @@
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D214" s="1">
         <v>214</v>
@@ -7264,13 +7363,13 @@
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>591</v>
+        <v>1091</v>
       </c>
       <c r="D215" s="1">
         <v>215</v>
@@ -7281,13 +7380,13 @@
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>593</v>
+        <v>1092</v>
       </c>
       <c r="D216" s="1">
         <v>216</v>
@@ -7298,13 +7397,13 @@
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="D217" s="1">
         <v>217</v>
@@ -7315,13 +7414,13 @@
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D218" s="1">
         <v>218</v>
@@ -7332,13 +7431,13 @@
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>597</v>
+        <v>1093</v>
       </c>
       <c r="D219" s="1">
         <v>219</v>
@@ -7349,13 +7448,13 @@
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="D220" s="1">
         <v>220</v>
@@ -7366,13 +7465,13 @@
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="D221" s="1">
         <v>221</v>
@@ -7383,13 +7482,13 @@
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="D222" s="1">
         <v>222</v>
@@ -7400,13 +7499,13 @@
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>603</v>
+        <v>1094</v>
       </c>
       <c r="D223" s="1">
         <v>223</v>
@@ -7417,13 +7516,13 @@
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="D224" s="1">
         <v>224</v>
@@ -7434,13 +7533,13 @@
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>332</v>
+        <v>1095</v>
       </c>
       <c r="D225" s="1">
         <v>225</v>
@@ -7451,13 +7550,13 @@
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="D226" s="1">
         <v>226</v>
@@ -7468,13 +7567,13 @@
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="D227" s="1">
         <v>227</v>
@@ -7485,13 +7584,13 @@
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="D228" s="1">
         <v>228</v>
@@ -7502,13 +7601,13 @@
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="B229" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="C229" s="1" t="s">
         <v>613</v>
-      </c>
-      <c r="B229" s="1" t="s">
-        <v>614</v>
-      </c>
-      <c r="C229" s="1" t="s">
-        <v>614</v>
       </c>
       <c r="D229" s="1">
         <v>229</v>
@@ -7519,13 +7618,13 @@
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="D230" s="1">
         <v>230</v>
@@ -7536,13 +7635,13 @@
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="B231" s="1" t="s">
         <v>616</v>
       </c>
-      <c r="B231" s="1" t="s">
-        <v>617</v>
-      </c>
       <c r="C231" s="1" t="s">
-        <v>617</v>
+        <v>1096</v>
       </c>
       <c r="D231" s="1">
         <v>231</v>
@@ -7553,13 +7652,13 @@
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="B232" s="1" t="s">
         <v>618</v>
       </c>
-      <c r="B232" s="1" t="s">
-        <v>619</v>
-      </c>
       <c r="C232" s="1" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="D232" s="1">
         <v>232</v>
@@ -7570,13 +7669,13 @@
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D233" s="1">
         <v>233</v>
@@ -7587,13 +7686,13 @@
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="B234" s="1" t="s">
         <v>621</v>
       </c>
-      <c r="B234" s="1" t="s">
-        <v>622</v>
-      </c>
       <c r="C234" s="1" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="D234" s="1">
         <v>234</v>
@@ -7604,10 +7703,10 @@
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="B235" s="1" t="s">
         <v>623</v>
-      </c>
-      <c r="B235" s="1" t="s">
-        <v>624</v>
       </c>
       <c r="C235" s="1" t="s">
         <v>624</v>
@@ -7624,10 +7723,10 @@
         <v>625</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="D236" s="1">
         <v>236</v>
@@ -7641,10 +7740,10 @@
         <v>626</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="D237" s="1">
         <v>237</v>
@@ -7658,10 +7757,10 @@
         <v>627</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D238" s="1">
         <v>238</v>
@@ -7678,7 +7777,7 @@
         <v>629</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>629</v>
+        <v>1097</v>
       </c>
       <c r="D239" s="1">
         <v>239</v>
@@ -7695,7 +7794,7 @@
         <v>631</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>631</v>
+        <v>1098</v>
       </c>
       <c r="D240" s="1">
         <v>240</v>
@@ -7709,10 +7808,10 @@
         <v>632</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D241" s="1">
         <v>241</v>
@@ -7726,10 +7825,10 @@
         <v>633</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="D242" s="1">
         <v>242</v>
@@ -7743,10 +7842,10 @@
         <v>634</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="D243" s="1">
         <v>243</v>
@@ -7760,10 +7859,10 @@
         <v>635</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="D244" s="1">
         <v>244</v>
@@ -7794,10 +7893,10 @@
         <v>638</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="D246" s="1">
         <v>246</v>
@@ -7814,7 +7913,7 @@
         <v>640</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>640</v>
+        <v>1099</v>
       </c>
       <c r="D247" s="1">
         <v>247</v>
@@ -7828,10 +7927,10 @@
         <v>641</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="D248" s="1">
         <v>248</v>
@@ -7845,10 +7944,10 @@
         <v>642</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="D249" s="1">
         <v>249</v>
@@ -7862,10 +7961,10 @@
         <v>643</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="D250" s="1">
         <v>250</v>
@@ -7879,10 +7978,10 @@
         <v>644</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="D251" s="1">
         <v>251</v>
@@ -7896,10 +7995,10 @@
         <v>645</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="D252" s="1">
         <v>252</v>
@@ -7930,10 +8029,10 @@
         <v>648</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D254" s="1">
         <v>254</v>
@@ -7950,7 +8049,7 @@
         <v>650</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>650</v>
+        <v>1100</v>
       </c>
       <c r="D255" s="1">
         <v>255</v>
@@ -7984,7 +8083,7 @@
         <v>654</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="D257" s="1">
         <v>257</v>
@@ -7995,13 +8094,13 @@
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A258" s="1" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="C258" s="1" t="s">
-        <v>411</v>
+        <v>657</v>
       </c>
       <c r="D258" s="1">
         <v>258</v>
@@ -8012,13 +8111,13 @@
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="D259" s="1">
         <v>259</v>
@@ -8029,13 +8128,13 @@
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260" s="1" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="D260" s="1">
         <v>260</v>
@@ -8046,13 +8145,13 @@
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A261" s="1" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="C261" s="1" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="D261" s="1">
         <v>261</v>
@@ -8063,13 +8162,13 @@
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="C262" s="1" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="D262" s="1">
         <v>262</v>
@@ -8080,13 +8179,13 @@
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="C263" s="1" t="s">
-        <v>664</v>
+        <v>1101</v>
       </c>
       <c r="D263" s="1">
         <v>263</v>
@@ -8097,13 +8196,13 @@
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264" s="1" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="C264" s="1" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="D264" s="1">
         <v>264</v>
@@ -8114,13 +8213,13 @@
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A265" s="1" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="C265" s="1" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="D265" s="1">
         <v>265</v>
@@ -8131,13 +8230,13 @@
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="C266" s="1" t="s">
-        <v>411</v>
+        <v>657</v>
       </c>
       <c r="D266" s="1">
         <v>266</v>
@@ -8148,13 +8247,13 @@
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A267" s="1" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="C267" s="1" t="s">
-        <v>671</v>
+        <v>1102</v>
       </c>
       <c r="D267" s="1">
         <v>267</v>
@@ -8165,13 +8264,13 @@
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A268" s="1" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="C268" s="1" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="D268" s="1">
         <v>268</v>
@@ -8182,13 +8281,13 @@
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A269" s="1" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="C269" s="1" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="D269" s="1">
         <v>269</v>
@@ -8199,13 +8298,13 @@
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A270" s="1" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="C270" s="1" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="D270" s="1">
         <v>270</v>
@@ -8216,13 +8315,13 @@
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A271" s="1" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="C271" s="1" t="s">
-        <v>677</v>
+        <v>1103</v>
       </c>
       <c r="D271" s="1">
         <v>271</v>
@@ -8233,13 +8332,13 @@
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A272" s="1" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="C272" s="1" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="D272" s="1">
         <v>272</v>
@@ -8250,13 +8349,13 @@
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A273" s="1" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="C273" s="1" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="D273" s="1">
         <v>273</v>
@@ -8267,13 +8366,13 @@
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A274" s="1" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="C274" s="1" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="D274" s="1">
         <v>274</v>
@@ -8284,13 +8383,13 @@
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A275" s="1" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="C275" s="1" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="D275" s="1">
         <v>275</v>
@@ -8301,13 +8400,13 @@
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A276" s="1" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="C276" s="1" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="D276" s="1">
         <v>276</v>
@@ -8318,13 +8417,13 @@
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A277" s="1" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="C277" s="1" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="D277" s="1">
         <v>277</v>
@@ -8335,13 +8434,13 @@
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A278" s="1" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="C278" s="1" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="D278" s="1">
         <v>278</v>
@@ -8352,13 +8451,13 @@
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A279" s="1" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="C279" s="1" t="s">
-        <v>691</v>
+        <v>1104</v>
       </c>
       <c r="D279" s="1">
         <v>279</v>
@@ -8369,13 +8468,13 @@
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A280" s="1" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="C280" s="1" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="D280" s="1">
         <v>280</v>
@@ -8386,13 +8485,13 @@
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A281" s="1" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="C281" s="1" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="D281" s="1">
         <v>281</v>
@@ -8403,13 +8502,13 @@
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A282" s="1" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="C282" s="1" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="D282" s="1">
         <v>282</v>
@@ -8420,13 +8519,13 @@
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A283" s="1" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="C283" s="1" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="D283" s="1">
         <v>283</v>
@@ -8437,13 +8536,13 @@
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A284" s="1" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="C284" s="1" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="D284" s="1">
         <v>284</v>
@@ -8454,13 +8553,13 @@
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A285" s="1" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="C285" s="1" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="D285" s="1">
         <v>285</v>
@@ -8471,13 +8570,13 @@
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A286" s="1" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="C286" s="1" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D286" s="1">
         <v>286</v>
@@ -8488,13 +8587,13 @@
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A287" s="1" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="C287" s="1" t="s">
-        <v>706</v>
+        <v>1105</v>
       </c>
       <c r="D287" s="1">
         <v>287</v>
@@ -8505,13 +8604,13 @@
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A288" s="1" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="C288" s="1" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="D288" s="1">
         <v>288</v>
@@ -8522,13 +8621,13 @@
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A289" s="1" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="C289" s="1" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="D289" s="1">
         <v>289</v>
@@ -8539,13 +8638,13 @@
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A290" s="1" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="C290" s="1" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="D290" s="1">
         <v>290</v>
@@ -8556,13 +8655,13 @@
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A291" s="1" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="C291" s="1" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="D291" s="1">
         <v>291</v>
@@ -8573,13 +8672,13 @@
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A292" s="1" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="C292" s="1" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="D292" s="1">
         <v>292</v>
@@ -8590,13 +8689,13 @@
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A293" s="1" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="B293" s="1" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="C293" s="1" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="D293" s="1">
         <v>293</v>
@@ -8607,13 +8706,13 @@
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A294" s="1" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="C294" s="1" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="D294" s="1">
         <v>294</v>
@@ -8624,13 +8723,13 @@
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A295" s="1" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="C295" s="1" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="D295" s="1">
         <v>295</v>
@@ -8641,13 +8740,13 @@
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A296" s="1" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="C296" s="1" t="s">
-        <v>722</v>
+        <v>1106</v>
       </c>
       <c r="D296" s="1">
         <v>296</v>
@@ -8658,13 +8757,13 @@
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A297" s="1" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="C297" s="1" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="D297" s="1">
         <v>297</v>
@@ -8675,13 +8774,13 @@
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A298" s="1" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="C298" s="1" t="s">
-        <v>726</v>
+        <v>1107</v>
       </c>
       <c r="D298" s="1">
         <v>298</v>
@@ -8692,13 +8791,13 @@
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A299" s="1" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="B299" s="1" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="C299" s="1" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="D299" s="1">
         <v>299</v>
@@ -8709,13 +8808,13 @@
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A300" s="1" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="C300" s="1" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="D300" s="1">
         <v>300</v>
@@ -8726,13 +8825,13 @@
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A301" s="1" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="B301" s="1" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="C301" s="1" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="D301" s="1">
         <v>301</v>
@@ -8743,13 +8842,13 @@
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A302" s="1" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="C302" s="1" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="D302" s="1">
         <v>302</v>
@@ -8760,13 +8859,13 @@
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A303" s="1" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="B303" s="1" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="C303" s="1" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="D303" s="1">
         <v>303</v>
@@ -8777,13 +8876,13 @@
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A304" s="1" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="C304" s="1" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="D304" s="1">
         <v>304</v>
@@ -8794,13 +8893,13 @@
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A305" s="1" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="B305" s="1" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="C305" s="1" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="D305" s="1">
         <v>305</v>
@@ -8811,13 +8910,13 @@
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A306" s="1" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="B306" s="1" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="C306" s="1" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="D306" s="1">
         <v>306</v>
@@ -8828,13 +8927,13 @@
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A307" s="1" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="B307" s="1" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="C307" s="1" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="D307" s="1">
         <v>307</v>
@@ -8845,13 +8944,13 @@
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A308" s="1" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="C308" s="1" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="D308" s="1">
         <v>308</v>
@@ -8862,13 +8961,13 @@
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A309" s="1" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="B309" s="1" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="C309" s="1" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="D309" s="1">
         <v>309</v>
@@ -8879,13 +8978,13 @@
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A310" s="1" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="B310" s="1" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="C310" s="1" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="D310" s="1">
         <v>310</v>
@@ -8896,13 +8995,13 @@
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A311" s="1" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="B311" s="1" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="C311" s="1" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="D311" s="1">
         <v>311</v>
@@ -8913,13 +9012,13 @@
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A312" s="1" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="B312" s="1" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="C312" s="1" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="D312" s="1">
         <v>312</v>
@@ -8930,13 +9029,13 @@
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A313" s="1" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="B313" s="1" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="C313" s="1" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="D313" s="1">
         <v>313</v>
@@ -8947,13 +9046,13 @@
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A314" s="1" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="B314" s="1" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
       <c r="C314" s="1" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
       <c r="D314" s="1">
         <v>314</v>
@@ -8964,13 +9063,13 @@
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A315" s="1" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="B315" s="1" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="C315" s="1" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="D315" s="1">
         <v>315</v>
@@ -8981,13 +9080,13 @@
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A316" s="1" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="B316" s="1" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="C316" s="1" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="D316" s="1">
         <v>316</v>
@@ -8998,13 +9097,13 @@
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A317" s="1" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="B317" s="1" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="C317" s="1" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="D317" s="1">
         <v>317</v>
@@ -9015,13 +9114,13 @@
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A318" s="1" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="C318" s="1" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="D318" s="1">
         <v>318</v>
@@ -9032,13 +9131,13 @@
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A319" s="1" t="s">
-        <v>766</v>
+        <v>768</v>
       </c>
       <c r="B319" s="1" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
       <c r="C319" s="1" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
       <c r="D319" s="1">
         <v>319</v>
@@ -9049,13 +9148,13 @@
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A320" s="1" t="s">
-        <v>768</v>
+        <v>770</v>
       </c>
       <c r="B320" s="1" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="C320" s="1" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="D320" s="1">
         <v>320</v>
@@ -9066,13 +9165,13 @@
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A321" s="1" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="B321" s="1" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="C321" s="1" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="D321" s="1">
         <v>321</v>
@@ -9083,13 +9182,13 @@
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A322" s="1" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="B322" s="1" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="C322" s="1" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="D322" s="1">
         <v>322</v>
@@ -9100,13 +9199,13 @@
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A323" s="1" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
       <c r="B323" s="1" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="C323" s="1" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="D323" s="1">
         <v>323</v>
@@ -9117,13 +9216,13 @@
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A324" s="1" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
       <c r="B324" s="1" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="C324" s="1" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="D324" s="1">
         <v>324</v>
@@ -9134,13 +9233,13 @@
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A325" s="1" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="B325" s="1" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="C325" s="1" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="D325" s="1">
         <v>325</v>
@@ -9151,13 +9250,13 @@
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A326" s="1" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="B326" s="1" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="C326" s="1" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="D326" s="1">
         <v>326</v>
@@ -9168,13 +9267,13 @@
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A327" s="1" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="B327" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="C327" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D327" s="1">
         <v>327</v>
@@ -9185,13 +9284,13 @@
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A328" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="B328" s="1" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="C328" s="1" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="D328" s="1">
         <v>328</v>
@@ -9202,13 +9301,13 @@
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A329" s="1" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
       <c r="B329" s="1" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
       <c r="C329" s="1" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
       <c r="D329" s="1">
         <v>329</v>
@@ -9219,13 +9318,13 @@
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A330" s="1" t="s">
-        <v>788</v>
+        <v>790</v>
       </c>
       <c r="B330" s="1" t="s">
-        <v>789</v>
+        <v>791</v>
       </c>
       <c r="C330" s="1" t="s">
-        <v>789</v>
+        <v>791</v>
       </c>
       <c r="D330" s="1">
         <v>330</v>
@@ -9236,13 +9335,13 @@
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A331" s="1" t="s">
-        <v>790</v>
+        <v>792</v>
       </c>
       <c r="B331" s="1" t="s">
-        <v>791</v>
+        <v>793</v>
       </c>
       <c r="C331" s="1" t="s">
-        <v>791</v>
+        <v>794</v>
       </c>
       <c r="D331" s="1">
         <v>331</v>
@@ -9253,13 +9352,13 @@
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A332" s="1" t="s">
-        <v>792</v>
+        <v>795</v>
       </c>
       <c r="B332" s="1" t="s">
-        <v>793</v>
+        <v>796</v>
       </c>
       <c r="C332" s="1" t="s">
-        <v>793</v>
+        <v>1108</v>
       </c>
       <c r="D332" s="1">
         <v>332</v>
@@ -9270,13 +9369,13 @@
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A333" s="1" t="s">
-        <v>794</v>
+        <v>797</v>
       </c>
       <c r="B333" s="1" t="s">
-        <v>795</v>
+        <v>798</v>
       </c>
       <c r="C333" s="1" t="s">
-        <v>795</v>
+        <v>798</v>
       </c>
       <c r="D333" s="1">
         <v>333</v>
@@ -9287,13 +9386,13 @@
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A334" s="1" t="s">
-        <v>796</v>
+        <v>799</v>
       </c>
       <c r="B334" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C334" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D334" s="1">
         <v>334</v>
@@ -9304,13 +9403,13 @@
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A335" s="1" t="s">
-        <v>797</v>
+        <v>800</v>
       </c>
       <c r="B335" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C335" s="1" t="s">
-        <v>157</v>
+        <v>801</v>
       </c>
       <c r="D335" s="1">
         <v>335</v>
@@ -9321,13 +9420,13 @@
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A336" s="1" t="s">
-        <v>798</v>
+        <v>802</v>
       </c>
       <c r="B336" s="1" t="s">
-        <v>799</v>
+        <v>803</v>
       </c>
       <c r="C336" s="1" t="s">
-        <v>799</v>
+        <v>803</v>
       </c>
       <c r="D336" s="1">
         <v>336</v>
@@ -9338,13 +9437,13 @@
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A337" s="1" t="s">
-        <v>800</v>
+        <v>804</v>
       </c>
       <c r="B337" s="1" t="s">
         <v>69</v>
       </c>
       <c r="C337" s="1" t="s">
-        <v>69</v>
+        <v>165</v>
       </c>
       <c r="D337" s="1">
         <v>337</v>
@@ -9355,13 +9454,13 @@
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A338" s="1" t="s">
-        <v>801</v>
+        <v>805</v>
       </c>
       <c r="B338" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C338" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D338" s="1">
         <v>338</v>
@@ -9372,13 +9471,13 @@
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A339" s="1" t="s">
-        <v>802</v>
+        <v>806</v>
       </c>
       <c r="B339" s="1" t="s">
-        <v>803</v>
+        <v>807</v>
       </c>
       <c r="C339" s="1" t="s">
-        <v>803</v>
+        <v>1089</v>
       </c>
       <c r="D339" s="1">
         <v>339</v>
@@ -9389,13 +9488,13 @@
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A340" s="1" t="s">
-        <v>804</v>
+        <v>808</v>
       </c>
       <c r="B340" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C340" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D340" s="1">
         <v>340</v>
@@ -9406,13 +9505,13 @@
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A341" s="1" t="s">
-        <v>805</v>
+        <v>809</v>
       </c>
       <c r="B341" s="1" t="s">
-        <v>806</v>
+        <v>810</v>
       </c>
       <c r="C341" s="1" t="s">
-        <v>806</v>
+        <v>810</v>
       </c>
       <c r="D341" s="1">
         <v>341</v>
@@ -9423,13 +9522,13 @@
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A342" s="1" t="s">
-        <v>807</v>
+        <v>811</v>
       </c>
       <c r="B342" s="1" t="s">
         <v>66</v>
       </c>
       <c r="C342" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D342" s="1">
         <v>342</v>
@@ -9440,13 +9539,13 @@
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A343" s="1" t="s">
-        <v>808</v>
+        <v>812</v>
       </c>
       <c r="B343" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C343" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D343" s="1">
         <v>343</v>
@@ -9457,13 +9556,13 @@
     </row>
     <row r="344" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A344" s="1" t="s">
-        <v>809</v>
+        <v>813</v>
       </c>
       <c r="B344" s="1" t="s">
-        <v>810</v>
+        <v>814</v>
       </c>
       <c r="C344" s="1" t="s">
-        <v>810</v>
+        <v>814</v>
       </c>
       <c r="D344" s="1">
         <v>344</v>
@@ -9474,13 +9573,13 @@
     </row>
     <row r="345" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A345" s="1" t="s">
-        <v>811</v>
+        <v>815</v>
       </c>
       <c r="B345" s="1" t="s">
-        <v>812</v>
+        <v>816</v>
       </c>
       <c r="C345" s="1" t="s">
-        <v>812</v>
+        <v>816</v>
       </c>
       <c r="D345" s="1">
         <v>345</v>
@@ -9491,13 +9590,13 @@
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A346" s="1" t="s">
-        <v>813</v>
+        <v>817</v>
       </c>
       <c r="B346" s="1" t="s">
-        <v>814</v>
+        <v>818</v>
       </c>
       <c r="C346" s="1" t="s">
-        <v>814</v>
+        <v>818</v>
       </c>
       <c r="D346" s="1">
         <v>346</v>
@@ -9508,13 +9607,13 @@
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A347" s="1" t="s">
-        <v>815</v>
+        <v>819</v>
       </c>
       <c r="B347" s="1" t="s">
-        <v>816</v>
+        <v>820</v>
       </c>
       <c r="C347" s="1" t="s">
-        <v>816</v>
+        <v>820</v>
       </c>
       <c r="D347" s="1">
         <v>347</v>
@@ -9525,13 +9624,13 @@
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A348" s="1" t="s">
-        <v>817</v>
+        <v>821</v>
       </c>
       <c r="B348" s="1" t="s">
-        <v>818</v>
+        <v>822</v>
       </c>
       <c r="C348" s="1" t="s">
-        <v>818</v>
+        <v>822</v>
       </c>
       <c r="D348" s="1">
         <v>348</v>
@@ -9542,13 +9641,13 @@
     </row>
     <row r="349" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A349" s="1" t="s">
-        <v>819</v>
+        <v>823</v>
       </c>
       <c r="B349" s="1" t="s">
-        <v>820</v>
+        <v>824</v>
       </c>
       <c r="C349" s="1" t="s">
-        <v>820</v>
+        <v>824</v>
       </c>
       <c r="D349" s="1">
         <v>349</v>
@@ -9559,13 +9658,13 @@
     </row>
     <row r="350" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A350" s="1" t="s">
-        <v>821</v>
+        <v>825</v>
       </c>
       <c r="B350" s="1" t="s">
-        <v>822</v>
+        <v>826</v>
       </c>
       <c r="C350" s="1" t="s">
-        <v>822</v>
+        <v>826</v>
       </c>
       <c r="D350" s="1">
         <v>350</v>
@@ -9576,13 +9675,13 @@
     </row>
     <row r="351" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A351" s="1" t="s">
-        <v>823</v>
+        <v>827</v>
       </c>
       <c r="B351" s="1" t="s">
-        <v>824</v>
+        <v>828</v>
       </c>
       <c r="C351" s="1" t="s">
-        <v>824</v>
+        <v>828</v>
       </c>
       <c r="D351" s="1">
         <v>351</v>
@@ -9593,13 +9692,13 @@
     </row>
     <row r="352" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A352" s="1" t="s">
-        <v>825</v>
+        <v>829</v>
       </c>
       <c r="B352" s="1" t="s">
-        <v>826</v>
+        <v>830</v>
       </c>
       <c r="C352" s="1" t="s">
-        <v>826</v>
+        <v>830</v>
       </c>
       <c r="D352" s="1">
         <v>352</v>
@@ -9610,13 +9709,13 @@
     </row>
     <row r="353" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A353" s="1" t="s">
-        <v>827</v>
+        <v>831</v>
       </c>
       <c r="B353" s="1" t="s">
-        <v>828</v>
+        <v>832</v>
       </c>
       <c r="C353" s="1" t="s">
-        <v>828</v>
+        <v>832</v>
       </c>
       <c r="D353" s="1">
         <v>353</v>
@@ -9627,13 +9726,13 @@
     </row>
     <row r="354" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A354" s="1" t="s">
-        <v>829</v>
+        <v>833</v>
       </c>
       <c r="B354" s="1" t="s">
-        <v>830</v>
+        <v>834</v>
       </c>
       <c r="C354" s="1" t="s">
-        <v>830</v>
+        <v>834</v>
       </c>
       <c r="D354" s="1">
         <v>354</v>
@@ -9644,13 +9743,13 @@
     </row>
     <row r="355" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A355" s="1" t="s">
-        <v>831</v>
+        <v>835</v>
       </c>
       <c r="B355" s="1" t="s">
-        <v>832</v>
+        <v>836</v>
       </c>
       <c r="C355" s="1" t="s">
-        <v>832</v>
+        <v>836</v>
       </c>
       <c r="D355" s="1">
         <v>355</v>
@@ -9661,13 +9760,13 @@
     </row>
     <row r="356" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A356" s="1" t="s">
-        <v>833</v>
+        <v>837</v>
       </c>
       <c r="B356" s="1" t="s">
-        <v>834</v>
+        <v>838</v>
       </c>
       <c r="C356" s="1" t="s">
-        <v>834</v>
+        <v>838</v>
       </c>
       <c r="D356" s="1">
         <v>356</v>
@@ -9678,13 +9777,13 @@
     </row>
     <row r="357" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A357" s="1" t="s">
-        <v>835</v>
+        <v>839</v>
       </c>
       <c r="B357" s="1" t="s">
-        <v>836</v>
+        <v>840</v>
       </c>
       <c r="C357" s="1" t="s">
-        <v>836</v>
+        <v>840</v>
       </c>
       <c r="D357" s="1">
         <v>357</v>
@@ -9695,13 +9794,13 @@
     </row>
     <row r="358" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A358" s="1" t="s">
-        <v>837</v>
+        <v>841</v>
       </c>
       <c r="B358" s="1" t="s">
-        <v>838</v>
+        <v>842</v>
       </c>
       <c r="C358" s="1" t="s">
-        <v>838</v>
+        <v>842</v>
       </c>
       <c r="D358" s="1">
         <v>358</v>
@@ -9712,13 +9811,13 @@
     </row>
     <row r="359" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A359" s="1" t="s">
-        <v>839</v>
+        <v>843</v>
       </c>
       <c r="B359" s="1" t="s">
-        <v>840</v>
+        <v>844</v>
       </c>
       <c r="C359" s="1" t="s">
-        <v>840</v>
+        <v>1109</v>
       </c>
       <c r="D359" s="1">
         <v>359</v>
@@ -9729,13 +9828,13 @@
     </row>
     <row r="360" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A360" s="1" t="s">
-        <v>841</v>
+        <v>845</v>
       </c>
       <c r="B360" s="1" t="s">
-        <v>842</v>
+        <v>846</v>
       </c>
       <c r="C360" s="1" t="s">
-        <v>842</v>
+        <v>846</v>
       </c>
       <c r="D360" s="1">
         <v>360</v>
@@ -9746,13 +9845,13 @@
     </row>
     <row r="361" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A361" s="1" t="s">
-        <v>843</v>
+        <v>847</v>
       </c>
       <c r="B361" s="1" t="s">
-        <v>844</v>
+        <v>848</v>
       </c>
       <c r="C361" s="1" t="s">
-        <v>844</v>
+        <v>848</v>
       </c>
       <c r="D361" s="1">
         <v>361</v>
@@ -9763,13 +9862,13 @@
     </row>
     <row r="362" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A362" s="1" t="s">
-        <v>845</v>
+        <v>849</v>
       </c>
       <c r="B362" s="1" t="s">
-        <v>846</v>
+        <v>850</v>
       </c>
       <c r="C362" s="1" t="s">
-        <v>846</v>
+        <v>850</v>
       </c>
       <c r="D362" s="1">
         <v>362</v>
@@ -9780,13 +9879,13 @@
     </row>
     <row r="363" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A363" s="1" t="s">
-        <v>847</v>
+        <v>851</v>
       </c>
       <c r="B363" s="1" t="s">
-        <v>848</v>
+        <v>852</v>
       </c>
       <c r="C363" s="1" t="s">
-        <v>848</v>
+        <v>852</v>
       </c>
       <c r="D363" s="1">
         <v>363</v>
@@ -9797,13 +9896,13 @@
     </row>
     <row r="364" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A364" s="1" t="s">
-        <v>849</v>
+        <v>853</v>
       </c>
       <c r="B364" s="1" t="s">
-        <v>850</v>
+        <v>854</v>
       </c>
       <c r="C364" s="1" t="s">
-        <v>850</v>
+        <v>1110</v>
       </c>
       <c r="D364" s="1">
         <v>364</v>
@@ -9814,13 +9913,13 @@
     </row>
     <row r="365" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A365" s="1" t="s">
-        <v>851</v>
+        <v>855</v>
       </c>
       <c r="B365" s="1" t="s">
-        <v>852</v>
+        <v>856</v>
       </c>
       <c r="C365" s="1" t="s">
-        <v>852</v>
+        <v>856</v>
       </c>
       <c r="D365" s="1">
         <v>365</v>
@@ -9831,13 +9930,13 @@
     </row>
     <row r="366" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A366" s="1" t="s">
-        <v>853</v>
+        <v>857</v>
       </c>
       <c r="B366" s="1" t="s">
-        <v>854</v>
+        <v>858</v>
       </c>
       <c r="C366" s="1" t="s">
-        <v>854</v>
+        <v>858</v>
       </c>
       <c r="D366" s="1">
         <v>366</v>
@@ -9848,13 +9947,13 @@
     </row>
     <row r="367" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A367" s="1" t="s">
-        <v>855</v>
+        <v>859</v>
       </c>
       <c r="B367" s="1" t="s">
-        <v>856</v>
+        <v>860</v>
       </c>
       <c r="C367" s="1" t="s">
-        <v>856</v>
+        <v>860</v>
       </c>
       <c r="D367" s="1">
         <v>367</v>
@@ -9865,13 +9964,13 @@
     </row>
     <row r="368" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A368" s="1" t="s">
-        <v>857</v>
+        <v>861</v>
       </c>
       <c r="B368" s="1" t="s">
-        <v>858</v>
+        <v>862</v>
       </c>
       <c r="C368" s="1" t="s">
-        <v>858</v>
+        <v>863</v>
       </c>
       <c r="D368" s="1">
         <v>368</v>
@@ -9882,13 +9981,13 @@
     </row>
     <row r="369" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A369" s="1" t="s">
-        <v>859</v>
+        <v>864</v>
       </c>
       <c r="B369" s="1" t="s">
-        <v>860</v>
+        <v>865</v>
       </c>
       <c r="C369" s="1" t="s">
-        <v>860</v>
+        <v>1111</v>
       </c>
       <c r="D369" s="1">
         <v>369</v>
@@ -9899,13 +9998,13 @@
     </row>
     <row r="370" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A370" s="1" t="s">
-        <v>861</v>
+        <v>866</v>
       </c>
       <c r="B370" s="1" t="s">
-        <v>862</v>
+        <v>867</v>
       </c>
       <c r="C370" s="1" t="s">
-        <v>862</v>
+        <v>867</v>
       </c>
       <c r="D370" s="1">
         <v>370</v>
@@ -9916,13 +10015,13 @@
     </row>
     <row r="371" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A371" s="1" t="s">
-        <v>863</v>
+        <v>868</v>
       </c>
       <c r="B371" s="1" t="s">
-        <v>864</v>
+        <v>869</v>
       </c>
       <c r="C371" s="1" t="s">
-        <v>864</v>
+        <v>869</v>
       </c>
       <c r="D371" s="1">
         <v>371</v>
@@ -9933,13 +10032,13 @@
     </row>
     <row r="372" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A372" s="1" t="s">
-        <v>865</v>
+        <v>870</v>
       </c>
       <c r="B372" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C372" s="1" t="s">
-        <v>157</v>
+        <v>801</v>
       </c>
       <c r="D372" s="1">
         <v>372</v>
@@ -9950,13 +10049,13 @@
     </row>
     <row r="373" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A373" s="1" t="s">
-        <v>866</v>
+        <v>871</v>
       </c>
       <c r="B373" s="1" t="s">
-        <v>799</v>
+        <v>803</v>
       </c>
       <c r="C373" s="1" t="s">
-        <v>799</v>
+        <v>803</v>
       </c>
       <c r="D373" s="1">
         <v>373</v>
@@ -9967,13 +10066,13 @@
     </row>
     <row r="374" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A374" s="1" t="s">
-        <v>867</v>
+        <v>872</v>
       </c>
       <c r="B374" s="1" t="s">
         <v>69</v>
       </c>
       <c r="C374" s="1" t="s">
-        <v>69</v>
+        <v>165</v>
       </c>
       <c r="D374" s="1">
         <v>374</v>
@@ -9984,13 +10083,13 @@
     </row>
     <row r="375" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A375" s="1" t="s">
-        <v>868</v>
+        <v>873</v>
       </c>
       <c r="B375" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C375" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D375" s="1">
         <v>375</v>
@@ -10001,13 +10100,13 @@
     </row>
     <row r="376" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A376" s="1" t="s">
-        <v>869</v>
+        <v>874</v>
       </c>
       <c r="B376" s="1" t="s">
-        <v>803</v>
+        <v>807</v>
       </c>
       <c r="C376" s="1" t="s">
-        <v>803</v>
+        <v>1089</v>
       </c>
       <c r="D376" s="1">
         <v>376</v>
@@ -10018,13 +10117,13 @@
     </row>
     <row r="377" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A377" s="1" t="s">
-        <v>870</v>
+        <v>875</v>
       </c>
       <c r="B377" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C377" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D377" s="1">
         <v>377</v>
@@ -10035,13 +10134,13 @@
     </row>
     <row r="378" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A378" s="1" t="s">
-        <v>871</v>
+        <v>876</v>
       </c>
       <c r="B378" s="1" t="s">
-        <v>806</v>
+        <v>810</v>
       </c>
       <c r="C378" s="1" t="s">
-        <v>806</v>
+        <v>810</v>
       </c>
       <c r="D378" s="1">
         <v>378</v>
@@ -10052,13 +10151,13 @@
     </row>
     <row r="379" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A379" s="1" t="s">
-        <v>872</v>
+        <v>877</v>
       </c>
       <c r="B379" s="1" t="s">
         <v>66</v>
       </c>
       <c r="C379" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D379" s="1">
         <v>379</v>
@@ -10069,13 +10168,13 @@
     </row>
     <row r="380" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A380" s="1" t="s">
-        <v>873</v>
+        <v>878</v>
       </c>
       <c r="B380" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C380" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D380" s="1">
         <v>380</v>
@@ -10086,13 +10185,13 @@
     </row>
     <row r="381" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A381" s="1" t="s">
-        <v>874</v>
+        <v>879</v>
       </c>
       <c r="B381" s="1" t="s">
-        <v>810</v>
+        <v>814</v>
       </c>
       <c r="C381" s="1" t="s">
-        <v>810</v>
+        <v>814</v>
       </c>
       <c r="D381" s="1">
         <v>381</v>
@@ -10103,13 +10202,13 @@
     </row>
     <row r="382" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A382" s="1" t="s">
-        <v>875</v>
+        <v>880</v>
       </c>
       <c r="B382" s="1" t="s">
-        <v>876</v>
+        <v>881</v>
       </c>
       <c r="C382" s="1" t="s">
-        <v>876</v>
+        <v>881</v>
       </c>
       <c r="D382" s="1">
         <v>382</v>
@@ -10120,13 +10219,13 @@
     </row>
     <row r="383" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A383" s="1" t="s">
-        <v>877</v>
+        <v>882</v>
       </c>
       <c r="B383" s="1" t="s">
-        <v>878</v>
+        <v>883</v>
       </c>
       <c r="C383" s="1" t="s">
-        <v>878</v>
+        <v>883</v>
       </c>
       <c r="D383" s="1">
         <v>383</v>
@@ -10137,13 +10236,13 @@
     </row>
     <row r="384" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A384" s="1" t="s">
-        <v>879</v>
+        <v>884</v>
       </c>
       <c r="B384" s="1" t="s">
-        <v>880</v>
+        <v>885</v>
       </c>
       <c r="C384" s="1" t="s">
-        <v>880</v>
+        <v>885</v>
       </c>
       <c r="D384" s="1">
         <v>384</v>
@@ -10154,13 +10253,13 @@
     </row>
     <row r="385" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A385" s="1" t="s">
-        <v>881</v>
+        <v>886</v>
       </c>
       <c r="B385" s="1" t="s">
-        <v>882</v>
+        <v>887</v>
       </c>
       <c r="C385" s="1" t="s">
-        <v>882</v>
+        <v>887</v>
       </c>
       <c r="D385" s="1">
         <v>385</v>
@@ -10171,13 +10270,13 @@
     </row>
     <row r="386" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A386" s="1" t="s">
-        <v>883</v>
+        <v>888</v>
       </c>
       <c r="B386" s="1" t="s">
-        <v>884</v>
+        <v>889</v>
       </c>
       <c r="C386" s="1" t="s">
-        <v>884</v>
+        <v>889</v>
       </c>
       <c r="D386" s="1">
         <v>386</v>
@@ -10188,13 +10287,13 @@
     </row>
     <row r="387" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A387" s="1" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="B387" s="1" t="s">
-        <v>886</v>
+        <v>891</v>
       </c>
       <c r="C387" s="1" t="s">
-        <v>886</v>
+        <v>891</v>
       </c>
       <c r="D387" s="1">
         <v>387</v>
@@ -10205,13 +10304,13 @@
     </row>
     <row r="388" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A388" s="1" t="s">
-        <v>887</v>
+        <v>892</v>
       </c>
       <c r="B388" s="1" t="s">
-        <v>888</v>
+        <v>893</v>
       </c>
       <c r="C388" s="1" t="s">
-        <v>888</v>
+        <v>893</v>
       </c>
       <c r="D388" s="1">
         <v>388</v>
@@ -10222,13 +10321,13 @@
     </row>
     <row r="389" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A389" s="1" t="s">
-        <v>889</v>
+        <v>894</v>
       </c>
       <c r="B389" s="1" t="s">
-        <v>890</v>
+        <v>895</v>
       </c>
       <c r="C389" s="1" t="s">
-        <v>890</v>
+        <v>895</v>
       </c>
       <c r="D389" s="1">
         <v>389</v>
@@ -10239,13 +10338,13 @@
     </row>
     <row r="390" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A390" s="1" t="s">
-        <v>891</v>
+        <v>896</v>
       </c>
       <c r="B390" s="1" t="s">
-        <v>892</v>
+        <v>897</v>
       </c>
       <c r="C390" s="1" t="s">
-        <v>892</v>
+        <v>897</v>
       </c>
       <c r="D390" s="1">
         <v>390</v>
@@ -10256,13 +10355,13 @@
     </row>
     <row r="391" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A391" s="1" t="s">
-        <v>893</v>
+        <v>898</v>
       </c>
       <c r="B391" s="1" t="s">
-        <v>894</v>
+        <v>899</v>
       </c>
       <c r="C391" s="1" t="s">
-        <v>894</v>
+        <v>899</v>
       </c>
       <c r="D391" s="1">
         <v>391</v>
@@ -10273,13 +10372,13 @@
     </row>
     <row r="392" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A392" s="1" t="s">
-        <v>895</v>
+        <v>900</v>
       </c>
       <c r="B392" s="1" t="s">
-        <v>896</v>
+        <v>901</v>
       </c>
       <c r="C392" s="1" t="s">
-        <v>896</v>
+        <v>901</v>
       </c>
       <c r="D392" s="1">
         <v>392</v>
@@ -10290,13 +10389,13 @@
     </row>
     <row r="393" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A393" s="1" t="s">
-        <v>897</v>
+        <v>902</v>
       </c>
       <c r="B393" s="1" t="s">
-        <v>898</v>
+        <v>903</v>
       </c>
       <c r="C393" s="1" t="s">
-        <v>898</v>
+        <v>903</v>
       </c>
       <c r="D393" s="1">
         <v>393</v>
@@ -10307,13 +10406,13 @@
     </row>
     <row r="394" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A394" s="1" t="s">
-        <v>899</v>
+        <v>904</v>
       </c>
       <c r="B394" s="1" t="s">
-        <v>890</v>
+        <v>895</v>
       </c>
       <c r="C394" s="1" t="s">
-        <v>890</v>
+        <v>895</v>
       </c>
       <c r="D394" s="1">
         <v>394</v>
@@ -10324,13 +10423,13 @@
     </row>
     <row r="395" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A395" s="1" t="s">
-        <v>900</v>
+        <v>905</v>
       </c>
       <c r="B395" s="1" t="s">
-        <v>901</v>
+        <v>906</v>
       </c>
       <c r="C395" s="1" t="s">
-        <v>901</v>
+        <v>906</v>
       </c>
       <c r="D395" s="1">
         <v>395</v>
@@ -10341,13 +10440,13 @@
     </row>
     <row r="396" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A396" s="1" t="s">
-        <v>902</v>
+        <v>907</v>
       </c>
       <c r="B396" s="1" t="s">
-        <v>903</v>
+        <v>908</v>
       </c>
       <c r="C396" s="1" t="s">
-        <v>903</v>
+        <v>908</v>
       </c>
       <c r="D396" s="1">
         <v>396</v>
@@ -10358,13 +10457,13 @@
     </row>
     <row r="397" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A397" s="1" t="s">
-        <v>904</v>
+        <v>909</v>
       </c>
       <c r="B397" s="1" t="s">
-        <v>890</v>
+        <v>895</v>
       </c>
       <c r="C397" s="1" t="s">
-        <v>890</v>
+        <v>895</v>
       </c>
       <c r="D397" s="1">
         <v>397</v>
@@ -10375,13 +10474,13 @@
     </row>
     <row r="398" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A398" s="1" t="s">
-        <v>905</v>
+        <v>910</v>
       </c>
       <c r="B398" s="1" t="s">
-        <v>906</v>
+        <v>911</v>
       </c>
       <c r="C398" s="1" t="s">
-        <v>906</v>
+        <v>911</v>
       </c>
       <c r="D398" s="1">
         <v>398</v>
@@ -10392,13 +10491,13 @@
     </row>
     <row r="399" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A399" s="1" t="s">
-        <v>907</v>
+        <v>912</v>
       </c>
       <c r="B399" s="1" t="s">
-        <v>908</v>
+        <v>913</v>
       </c>
       <c r="C399" s="1" t="s">
-        <v>908</v>
+        <v>913</v>
       </c>
       <c r="D399" s="1">
         <v>399</v>
@@ -10409,13 +10508,13 @@
     </row>
     <row r="400" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A400" s="1" t="s">
-        <v>909</v>
+        <v>914</v>
       </c>
       <c r="B400" s="1" t="s">
-        <v>910</v>
+        <v>915</v>
       </c>
       <c r="C400" s="1" t="s">
-        <v>910</v>
+        <v>915</v>
       </c>
       <c r="D400" s="1">
         <v>400</v>
@@ -10426,13 +10525,13 @@
     </row>
     <row r="401" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A401" s="1" t="s">
-        <v>911</v>
+        <v>916</v>
       </c>
       <c r="B401" s="1" t="s">
-        <v>912</v>
+        <v>917</v>
       </c>
       <c r="C401" s="1" t="s">
-        <v>912</v>
+        <v>917</v>
       </c>
       <c r="D401" s="1">
         <v>401</v>
@@ -10443,13 +10542,13 @@
     </row>
     <row r="402" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A402" s="1" t="s">
-        <v>913</v>
+        <v>918</v>
       </c>
       <c r="B402" s="1" t="s">
-        <v>914</v>
+        <v>919</v>
       </c>
       <c r="C402" s="1" t="s">
-        <v>914</v>
+        <v>919</v>
       </c>
       <c r="D402" s="1">
         <v>402</v>
@@ -10460,13 +10559,13 @@
     </row>
     <row r="403" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A403" s="1" t="s">
-        <v>915</v>
+        <v>920</v>
       </c>
       <c r="B403" s="1" t="s">
-        <v>916</v>
+        <v>921</v>
       </c>
       <c r="C403" s="1" t="s">
-        <v>916</v>
+        <v>921</v>
       </c>
       <c r="D403" s="1">
         <v>403</v>
@@ -10477,13 +10576,13 @@
     </row>
     <row r="404" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A404" s="1" t="s">
-        <v>917</v>
+        <v>922</v>
       </c>
       <c r="B404" s="1" t="s">
-        <v>918</v>
+        <v>923</v>
       </c>
       <c r="C404" s="1" t="s">
-        <v>918</v>
+        <v>923</v>
       </c>
       <c r="D404" s="1">
         <v>404</v>
@@ -10494,13 +10593,13 @@
     </row>
     <row r="405" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A405" s="1" t="s">
-        <v>919</v>
+        <v>924</v>
       </c>
       <c r="B405" s="1" t="s">
-        <v>920</v>
+        <v>925</v>
       </c>
       <c r="C405" s="1" t="s">
-        <v>920</v>
+        <v>925</v>
       </c>
       <c r="D405" s="1">
         <v>405</v>
@@ -10511,13 +10610,13 @@
     </row>
     <row r="406" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A406" s="1" t="s">
-        <v>921</v>
+        <v>926</v>
       </c>
       <c r="B406" s="1" t="s">
-        <v>922</v>
+        <v>927</v>
       </c>
       <c r="C406" s="1" t="s">
-        <v>922</v>
+        <v>927</v>
       </c>
       <c r="D406" s="1">
         <v>406</v>
@@ -10528,13 +10627,13 @@
     </row>
     <row r="407" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A407" s="1" t="s">
-        <v>923</v>
+        <v>928</v>
       </c>
       <c r="B407" s="1" t="s">
-        <v>924</v>
+        <v>929</v>
       </c>
       <c r="C407" s="1" t="s">
-        <v>924</v>
+        <v>929</v>
       </c>
       <c r="D407" s="1">
         <v>407</v>
@@ -10545,13 +10644,13 @@
     </row>
     <row r="408" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A408" s="1" t="s">
-        <v>925</v>
+        <v>930</v>
       </c>
       <c r="B408" s="1" t="s">
-        <v>926</v>
+        <v>931</v>
       </c>
       <c r="C408" s="1" t="s">
-        <v>926</v>
+        <v>931</v>
       </c>
       <c r="D408" s="1">
         <v>408</v>
@@ -10562,13 +10661,13 @@
     </row>
     <row r="409" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A409" s="1" t="s">
-        <v>927</v>
+        <v>932</v>
       </c>
       <c r="B409" s="1" t="s">
-        <v>928</v>
+        <v>933</v>
       </c>
       <c r="C409" s="1" t="s">
-        <v>928</v>
+        <v>933</v>
       </c>
       <c r="D409" s="1">
         <v>409</v>
@@ -10579,13 +10678,13 @@
     </row>
     <row r="410" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A410" s="1" t="s">
-        <v>929</v>
+        <v>934</v>
       </c>
       <c r="B410" s="1" t="s">
-        <v>930</v>
+        <v>935</v>
       </c>
       <c r="C410" s="1" t="s">
-        <v>930</v>
+        <v>935</v>
       </c>
       <c r="D410" s="1">
         <v>410</v>
@@ -10596,13 +10695,13 @@
     </row>
     <row r="411" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A411" s="1" t="s">
-        <v>931</v>
+        <v>936</v>
       </c>
       <c r="B411" s="1" t="s">
-        <v>932</v>
+        <v>937</v>
       </c>
       <c r="C411" s="1" t="s">
-        <v>932</v>
+        <v>937</v>
       </c>
       <c r="D411" s="1">
         <v>411</v>
@@ -10613,13 +10712,13 @@
     </row>
     <row r="412" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A412" s="1" t="s">
-        <v>933</v>
+        <v>938</v>
       </c>
       <c r="B412" s="1" t="s">
-        <v>934</v>
+        <v>939</v>
       </c>
       <c r="C412" s="1" t="s">
-        <v>934</v>
+        <v>939</v>
       </c>
       <c r="D412" s="1">
         <v>412</v>
@@ -10630,13 +10729,13 @@
     </row>
     <row r="413" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A413" s="1" t="s">
-        <v>935</v>
+        <v>940</v>
       </c>
       <c r="B413" s="1" t="s">
-        <v>936</v>
+        <v>941</v>
       </c>
       <c r="C413" s="1" t="s">
-        <v>936</v>
+        <v>941</v>
       </c>
       <c r="D413" s="1">
         <v>413</v>
@@ -10647,13 +10746,13 @@
     </row>
     <row r="414" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A414" s="1" t="s">
-        <v>937</v>
+        <v>942</v>
       </c>
       <c r="B414" s="1" t="s">
-        <v>938</v>
+        <v>943</v>
       </c>
       <c r="C414" s="1" t="s">
-        <v>938</v>
+        <v>943</v>
       </c>
       <c r="D414" s="1">
         <v>414</v>
@@ -10664,13 +10763,13 @@
     </row>
     <row r="415" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A415" s="1" t="s">
-        <v>939</v>
+        <v>944</v>
       </c>
       <c r="B415" s="1" t="s">
-        <v>940</v>
+        <v>945</v>
       </c>
       <c r="C415" s="1" t="s">
-        <v>940</v>
+        <v>945</v>
       </c>
       <c r="D415" s="1">
         <v>415</v>
@@ -10681,13 +10780,13 @@
     </row>
     <row r="416" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A416" s="1" t="s">
-        <v>941</v>
+        <v>946</v>
       </c>
       <c r="B416" s="1" t="s">
-        <v>942</v>
+        <v>947</v>
       </c>
       <c r="C416" s="1" t="s">
-        <v>942</v>
+        <v>947</v>
       </c>
       <c r="D416" s="1">
         <v>416</v>
@@ -10698,13 +10797,13 @@
     </row>
     <row r="417" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A417" s="1" t="s">
-        <v>943</v>
+        <v>948</v>
       </c>
       <c r="B417" s="1" t="s">
-        <v>944</v>
+        <v>949</v>
       </c>
       <c r="C417" s="1" t="s">
-        <v>944</v>
+        <v>1112</v>
       </c>
       <c r="D417" s="1">
         <v>417</v>
@@ -10715,13 +10814,13 @@
     </row>
     <row r="418" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A418" s="1" t="s">
-        <v>945</v>
+        <v>950</v>
       </c>
       <c r="B418" s="1" t="s">
-        <v>946</v>
+        <v>951</v>
       </c>
       <c r="C418" s="1" t="s">
-        <v>946</v>
+        <v>951</v>
       </c>
       <c r="D418" s="1">
         <v>418</v>
@@ -10732,13 +10831,13 @@
     </row>
     <row r="419" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A419" s="1" t="s">
-        <v>947</v>
+        <v>952</v>
       </c>
       <c r="B419" s="1" t="s">
-        <v>948</v>
+        <v>953</v>
       </c>
       <c r="C419" s="1" t="s">
-        <v>948</v>
+        <v>953</v>
       </c>
       <c r="D419" s="1">
         <v>419</v>
@@ -10749,13 +10848,13 @@
     </row>
     <row r="420" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A420" s="1" t="s">
-        <v>949</v>
+        <v>954</v>
       </c>
       <c r="B420" s="1" t="s">
-        <v>950</v>
+        <v>955</v>
       </c>
       <c r="C420" s="1" t="s">
-        <v>950</v>
+        <v>955</v>
       </c>
       <c r="D420" s="1">
         <v>420</v>
@@ -10766,13 +10865,13 @@
     </row>
     <row r="421" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A421" s="1" t="s">
-        <v>951</v>
+        <v>956</v>
       </c>
       <c r="B421" s="1" t="s">
-        <v>952</v>
+        <v>957</v>
       </c>
       <c r="C421" s="1" t="s">
-        <v>952</v>
+        <v>1113</v>
       </c>
       <c r="D421" s="1">
         <v>421</v>
@@ -10783,13 +10882,13 @@
     </row>
     <row r="422" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A422" s="1" t="s">
-        <v>953</v>
+        <v>958</v>
       </c>
       <c r="B422" s="1" t="s">
-        <v>954</v>
+        <v>959</v>
       </c>
       <c r="C422" s="1" t="s">
-        <v>954</v>
+        <v>959</v>
       </c>
       <c r="D422" s="1">
         <v>422</v>
@@ -10800,13 +10899,13 @@
     </row>
     <row r="423" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A423" s="1" t="s">
-        <v>955</v>
+        <v>960</v>
       </c>
       <c r="B423" s="1" t="s">
-        <v>956</v>
+        <v>961</v>
       </c>
       <c r="C423" s="1" t="s">
-        <v>956</v>
+        <v>961</v>
       </c>
       <c r="D423" s="1">
         <v>423</v>
@@ -10817,13 +10916,13 @@
     </row>
     <row r="424" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A424" s="1" t="s">
-        <v>957</v>
+        <v>962</v>
       </c>
       <c r="B424" s="1" t="s">
-        <v>958</v>
+        <v>963</v>
       </c>
       <c r="C424" s="1" t="s">
-        <v>958</v>
+        <v>963</v>
       </c>
       <c r="D424" s="1">
         <v>424</v>
@@ -10834,13 +10933,13 @@
     </row>
     <row r="425" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A425" s="1" t="s">
-        <v>959</v>
+        <v>964</v>
       </c>
       <c r="B425" s="1" t="s">
-        <v>960</v>
+        <v>965</v>
       </c>
       <c r="C425" s="1" t="s">
-        <v>960</v>
+        <v>965</v>
       </c>
       <c r="D425" s="1">
         <v>425</v>
@@ -10851,13 +10950,13 @@
     </row>
     <row r="426" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A426" s="1" t="s">
-        <v>961</v>
+        <v>966</v>
       </c>
       <c r="B426" s="1" t="s">
-        <v>962</v>
+        <v>967</v>
       </c>
       <c r="C426" s="1" t="s">
-        <v>962</v>
+        <v>967</v>
       </c>
       <c r="D426" s="1">
         <v>426</v>
@@ -10868,13 +10967,13 @@
     </row>
     <row r="427" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A427" s="1" t="s">
-        <v>963</v>
+        <v>968</v>
       </c>
       <c r="B427" s="1" t="s">
-        <v>964</v>
+        <v>969</v>
       </c>
       <c r="C427" s="1" t="s">
-        <v>964</v>
+        <v>969</v>
       </c>
       <c r="D427" s="1">
         <v>427</v>
@@ -10885,13 +10984,13 @@
     </row>
     <row r="428" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A428" s="1" t="s">
-        <v>965</v>
+        <v>970</v>
       </c>
       <c r="B428" s="1" t="s">
-        <v>966</v>
+        <v>971</v>
       </c>
       <c r="C428" s="1" t="s">
-        <v>966</v>
+        <v>971</v>
       </c>
       <c r="D428" s="1">
         <v>428</v>
@@ -10902,13 +11001,13 @@
     </row>
     <row r="429" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A429" s="1" t="s">
-        <v>967</v>
+        <v>972</v>
       </c>
       <c r="B429" s="1" t="s">
-        <v>968</v>
+        <v>973</v>
       </c>
       <c r="C429" s="1" t="s">
-        <v>968</v>
+        <v>973</v>
       </c>
       <c r="D429" s="1">
         <v>429</v>
@@ -10919,13 +11018,13 @@
     </row>
     <row r="430" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A430" s="1" t="s">
-        <v>969</v>
+        <v>974</v>
       </c>
       <c r="B430" s="1" t="s">
-        <v>970</v>
+        <v>975</v>
       </c>
       <c r="C430" s="1" t="s">
-        <v>970</v>
+        <v>975</v>
       </c>
       <c r="D430" s="1">
         <v>430</v>
@@ -10936,13 +11035,13 @@
     </row>
     <row r="431" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A431" s="1" t="s">
-        <v>971</v>
+        <v>976</v>
       </c>
       <c r="B431" s="1" t="s">
-        <v>972</v>
+        <v>977</v>
       </c>
       <c r="C431" s="1" t="s">
-        <v>972</v>
+        <v>977</v>
       </c>
       <c r="D431" s="1">
         <v>431</v>
@@ -10953,13 +11052,13 @@
     </row>
     <row r="432" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A432" s="1" t="s">
-        <v>973</v>
+        <v>978</v>
       </c>
       <c r="B432" s="1" t="s">
-        <v>974</v>
+        <v>979</v>
       </c>
       <c r="C432" s="1" t="s">
-        <v>974</v>
+        <v>979</v>
       </c>
       <c r="D432" s="1">
         <v>432</v>
@@ -10970,13 +11069,13 @@
     </row>
     <row r="433" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A433" s="1" t="s">
-        <v>975</v>
+        <v>980</v>
       </c>
       <c r="B433" s="1" t="s">
-        <v>976</v>
+        <v>981</v>
       </c>
       <c r="C433" s="1" t="s">
-        <v>976</v>
+        <v>981</v>
       </c>
       <c r="D433" s="1">
         <v>433</v>
@@ -10987,13 +11086,13 @@
     </row>
     <row r="434" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A434" s="1" t="s">
-        <v>977</v>
+        <v>982</v>
       </c>
       <c r="B434" s="1" t="s">
-        <v>978</v>
+        <v>983</v>
       </c>
       <c r="C434" s="1" t="s">
-        <v>978</v>
+        <v>983</v>
       </c>
       <c r="D434" s="1">
         <v>434</v>
@@ -11004,13 +11103,13 @@
     </row>
     <row r="435" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A435" s="1" t="s">
-        <v>979</v>
+        <v>984</v>
       </c>
       <c r="B435" s="1" t="s">
-        <v>980</v>
+        <v>985</v>
       </c>
       <c r="C435" s="1" t="s">
-        <v>980</v>
+        <v>985</v>
       </c>
       <c r="D435" s="1">
         <v>435</v>
@@ -11021,13 +11120,13 @@
     </row>
     <row r="436" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A436" s="1" t="s">
-        <v>981</v>
+        <v>986</v>
       </c>
       <c r="B436" s="1" t="s">
-        <v>982</v>
+        <v>987</v>
       </c>
       <c r="C436" s="1" t="s">
-        <v>982</v>
+        <v>987</v>
       </c>
       <c r="D436" s="1">
         <v>436</v>
@@ -11038,13 +11137,13 @@
     </row>
     <row r="437" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A437" s="1" t="s">
-        <v>983</v>
+        <v>988</v>
       </c>
       <c r="B437" s="1" t="s">
-        <v>984</v>
+        <v>989</v>
       </c>
       <c r="C437" s="1" t="s">
-        <v>984</v>
+        <v>989</v>
       </c>
       <c r="D437" s="1">
         <v>437</v>
@@ -11055,13 +11154,13 @@
     </row>
     <row r="438" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A438" s="1" t="s">
-        <v>985</v>
+        <v>990</v>
       </c>
       <c r="B438" s="1" t="s">
-        <v>986</v>
+        <v>991</v>
       </c>
       <c r="C438" s="1" t="s">
-        <v>986</v>
+        <v>991</v>
       </c>
       <c r="D438" s="1">
         <v>438</v>
@@ -11072,13 +11171,13 @@
     </row>
     <row r="439" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A439" s="1" t="s">
-        <v>987</v>
+        <v>992</v>
       </c>
       <c r="B439" s="1" t="s">
-        <v>988</v>
+        <v>993</v>
       </c>
       <c r="C439" s="1" t="s">
-        <v>988</v>
+        <v>993</v>
       </c>
       <c r="D439" s="1">
         <v>439</v>
@@ -11089,13 +11188,13 @@
     </row>
     <row r="440" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A440" s="1" t="s">
-        <v>989</v>
+        <v>994</v>
       </c>
       <c r="B440" s="1" t="s">
-        <v>990</v>
+        <v>995</v>
       </c>
       <c r="C440" s="1" t="s">
-        <v>990</v>
+        <v>995</v>
       </c>
       <c r="D440" s="1">
         <v>440</v>
@@ -11106,13 +11205,13 @@
     </row>
     <row r="441" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A441" s="1" t="s">
-        <v>991</v>
+        <v>996</v>
       </c>
       <c r="B441" s="1" t="s">
-        <v>992</v>
+        <v>997</v>
       </c>
       <c r="C441" s="1" t="s">
-        <v>992</v>
+        <v>997</v>
       </c>
       <c r="D441" s="1">
         <v>441</v>
@@ -11123,13 +11222,13 @@
     </row>
     <row r="442" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A442" s="1" t="s">
-        <v>993</v>
+        <v>998</v>
       </c>
       <c r="B442" s="1" t="s">
-        <v>958</v>
+        <v>963</v>
       </c>
       <c r="C442" s="1" t="s">
-        <v>958</v>
+        <v>963</v>
       </c>
       <c r="D442" s="1">
         <v>442</v>
@@ -11140,13 +11239,13 @@
     </row>
     <row r="443" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A443" s="1" t="s">
-        <v>994</v>
+        <v>999</v>
       </c>
       <c r="B443" s="1" t="s">
-        <v>960</v>
+        <v>965</v>
       </c>
       <c r="C443" s="1" t="s">
-        <v>960</v>
+        <v>965</v>
       </c>
       <c r="D443" s="1">
         <v>443</v>
@@ -11157,13 +11256,13 @@
     </row>
     <row r="444" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A444" s="1" t="s">
-        <v>995</v>
+        <v>1000</v>
       </c>
       <c r="B444" s="1" t="s">
-        <v>962</v>
+        <v>967</v>
       </c>
       <c r="C444" s="1" t="s">
-        <v>962</v>
+        <v>967</v>
       </c>
       <c r="D444" s="1">
         <v>444</v>
@@ -11174,13 +11273,13 @@
     </row>
     <row r="445" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A445" s="1" t="s">
-        <v>996</v>
+        <v>1001</v>
       </c>
       <c r="B445" s="1" t="s">
-        <v>964</v>
+        <v>969</v>
       </c>
       <c r="C445" s="1" t="s">
-        <v>964</v>
+        <v>969</v>
       </c>
       <c r="D445" s="1">
         <v>445</v>
@@ -11191,13 +11290,13 @@
     </row>
     <row r="446" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A446" s="1" t="s">
-        <v>997</v>
+        <v>1002</v>
       </c>
       <c r="B446" s="1" t="s">
-        <v>966</v>
+        <v>971</v>
       </c>
       <c r="C446" s="1" t="s">
-        <v>966</v>
+        <v>971</v>
       </c>
       <c r="D446" s="1">
         <v>446</v>
@@ -11208,13 +11307,13 @@
     </row>
     <row r="447" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A447" s="1" t="s">
-        <v>998</v>
+        <v>1003</v>
       </c>
       <c r="B447" s="1" t="s">
-        <v>968</v>
+        <v>973</v>
       </c>
       <c r="C447" s="1" t="s">
-        <v>968</v>
+        <v>973</v>
       </c>
       <c r="D447" s="1">
         <v>447</v>
@@ -11225,13 +11324,13 @@
     </row>
     <row r="448" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A448" s="1" t="s">
-        <v>999</v>
+        <v>1004</v>
       </c>
       <c r="B448" s="1" t="s">
-        <v>970</v>
+        <v>975</v>
       </c>
       <c r="C448" s="1" t="s">
-        <v>970</v>
+        <v>975</v>
       </c>
       <c r="D448" s="1">
         <v>448</v>
@@ -11242,13 +11341,13 @@
     </row>
     <row r="449" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A449" s="1" t="s">
-        <v>1000</v>
+        <v>1005</v>
       </c>
       <c r="B449" s="1" t="s">
-        <v>1001</v>
+        <v>1006</v>
       </c>
       <c r="C449" s="1" t="s">
-        <v>1001</v>
+        <v>1006</v>
       </c>
       <c r="D449" s="1">
         <v>449</v>
@@ -11259,13 +11358,13 @@
     </row>
     <row r="450" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A450" s="1" t="s">
-        <v>1002</v>
+        <v>1007</v>
       </c>
       <c r="B450" s="1" t="s">
-        <v>1003</v>
+        <v>1008</v>
       </c>
       <c r="C450" s="1" t="s">
-        <v>1003</v>
+        <v>1114</v>
       </c>
       <c r="D450" s="1">
         <v>450</v>
@@ -11276,13 +11375,13 @@
     </row>
     <row r="451" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A451" s="1" t="s">
-        <v>1004</v>
+        <v>1009</v>
       </c>
       <c r="B451" s="1" t="s">
-        <v>1005</v>
+        <v>1010</v>
       </c>
       <c r="C451" s="1" t="s">
-        <v>1005</v>
+        <v>1010</v>
       </c>
       <c r="D451" s="1">
         <v>451</v>
@@ -11293,13 +11392,13 @@
     </row>
     <row r="452" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A452" s="1" t="s">
-        <v>1006</v>
+        <v>1011</v>
       </c>
       <c r="B452" s="1" t="s">
-        <v>1007</v>
+        <v>1012</v>
       </c>
       <c r="C452" s="1" t="s">
-        <v>1007</v>
+        <v>1012</v>
       </c>
       <c r="D452" s="1">
         <v>452</v>
@@ -11310,13 +11409,13 @@
     </row>
     <row r="453" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A453" s="1" t="s">
-        <v>1008</v>
+        <v>1013</v>
       </c>
       <c r="B453" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C453" s="1" t="s">
-        <v>157</v>
+        <v>801</v>
       </c>
       <c r="D453" s="1">
         <v>453</v>
@@ -11327,13 +11426,13 @@
     </row>
     <row r="454" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A454" s="1" t="s">
-        <v>1009</v>
+        <v>1014</v>
       </c>
       <c r="B454" s="1" t="s">
-        <v>1010</v>
+        <v>1015</v>
       </c>
       <c r="C454" s="1" t="s">
-        <v>1010</v>
+        <v>1015</v>
       </c>
       <c r="D454" s="1">
         <v>454</v>
@@ -11344,13 +11443,13 @@
     </row>
     <row r="455" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A455" s="1" t="s">
-        <v>1011</v>
+        <v>1016</v>
       </c>
       <c r="B455" s="1" t="s">
         <v>69</v>
       </c>
       <c r="C455" s="1" t="s">
-        <v>69</v>
+        <v>165</v>
       </c>
       <c r="D455" s="1">
         <v>455</v>
@@ -11361,13 +11460,13 @@
     </row>
     <row r="456" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A456" s="1" t="s">
-        <v>1012</v>
+        <v>1017</v>
       </c>
       <c r="B456" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C456" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D456" s="1">
         <v>456</v>
@@ -11378,13 +11477,13 @@
     </row>
     <row r="457" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A457" s="1" t="s">
-        <v>1013</v>
+        <v>1018</v>
       </c>
       <c r="B457" s="1" t="s">
-        <v>803</v>
+        <v>807</v>
       </c>
       <c r="C457" s="1" t="s">
-        <v>803</v>
+        <v>1089</v>
       </c>
       <c r="D457" s="1">
         <v>457</v>
@@ -11395,13 +11494,13 @@
     </row>
     <row r="458" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A458" s="1" t="s">
-        <v>1014</v>
+        <v>1019</v>
       </c>
       <c r="B458" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C458" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D458" s="1">
         <v>458</v>
@@ -11412,13 +11511,13 @@
     </row>
     <row r="459" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A459" s="1" t="s">
-        <v>1015</v>
+        <v>1020</v>
       </c>
       <c r="B459" s="1" t="s">
-        <v>1016</v>
+        <v>1021</v>
       </c>
       <c r="C459" s="1" t="s">
-        <v>1016</v>
+        <v>1021</v>
       </c>
       <c r="D459" s="1">
         <v>459</v>
@@ -11429,13 +11528,13 @@
     </row>
     <row r="460" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A460" s="1" t="s">
-        <v>1017</v>
+        <v>1022</v>
       </c>
       <c r="B460" s="1" t="s">
         <v>66</v>
       </c>
       <c r="C460" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D460" s="1">
         <v>460</v>
@@ -11446,13 +11545,13 @@
     </row>
     <row r="461" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A461" s="1" t="s">
-        <v>1018</v>
+        <v>1023</v>
       </c>
       <c r="B461" s="1" t="s">
-        <v>1019</v>
+        <v>1024</v>
       </c>
       <c r="C461" s="1" t="s">
-        <v>1019</v>
+        <v>1024</v>
       </c>
       <c r="D461" s="1">
         <v>461</v>
@@ -11463,13 +11562,13 @@
     </row>
     <row r="462" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A462" s="1" t="s">
-        <v>1020</v>
+        <v>1025</v>
       </c>
       <c r="B462" s="1" t="s">
-        <v>810</v>
+        <v>814</v>
       </c>
       <c r="C462" s="1" t="s">
-        <v>810</v>
+        <v>814</v>
       </c>
       <c r="D462" s="1">
         <v>462</v>
@@ -11480,13 +11579,13 @@
     </row>
     <row r="463" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A463" s="1" t="s">
-        <v>1021</v>
+        <v>1026</v>
       </c>
       <c r="B463" s="1" t="s">
-        <v>1022</v>
+        <v>1027</v>
       </c>
       <c r="C463" s="1" t="s">
-        <v>1022</v>
+        <v>1027</v>
       </c>
       <c r="D463" s="1">
         <v>463</v>
@@ -11497,13 +11596,13 @@
     </row>
     <row r="464" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A464" s="1" t="s">
-        <v>1023</v>
+        <v>1028</v>
       </c>
       <c r="B464" s="1" t="s">
-        <v>1024</v>
+        <v>1029</v>
       </c>
       <c r="C464" s="1" t="s">
-        <v>1024</v>
+        <v>1029</v>
       </c>
       <c r="D464" s="1">
         <v>464</v>
@@ -11514,13 +11613,13 @@
     </row>
     <row r="465" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A465" s="1" t="s">
-        <v>1025</v>
+        <v>1030</v>
       </c>
       <c r="B465" s="1" t="s">
-        <v>1026</v>
+        <v>1031</v>
       </c>
       <c r="C465" s="1" t="s">
-        <v>1026</v>
+        <v>1031</v>
       </c>
       <c r="D465" s="1">
         <v>465</v>
@@ -11531,13 +11630,13 @@
     </row>
     <row r="466" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A466" s="1" t="s">
-        <v>1027</v>
+        <v>1032</v>
       </c>
       <c r="B466" s="1" t="s">
-        <v>1028</v>
+        <v>1033</v>
       </c>
       <c r="C466" s="1" t="s">
-        <v>1028</v>
+        <v>1033</v>
       </c>
       <c r="D466" s="1">
         <v>466</v>
@@ -11548,13 +11647,13 @@
     </row>
     <row r="467" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A467" s="1" t="s">
-        <v>1029</v>
+        <v>1034</v>
       </c>
       <c r="B467" s="1" t="s">
-        <v>1030</v>
+        <v>1035</v>
       </c>
       <c r="C467" s="1" t="s">
-        <v>1030</v>
+        <v>1035</v>
       </c>
       <c r="D467" s="1">
         <v>467</v>
@@ -11565,13 +11664,13 @@
     </row>
     <row r="468" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A468" s="1" t="s">
-        <v>1031</v>
+        <v>1036</v>
       </c>
       <c r="B468" s="1" t="s">
-        <v>1032</v>
+        <v>1037</v>
       </c>
       <c r="C468" s="1" t="s">
-        <v>1032</v>
+        <v>1037</v>
       </c>
       <c r="D468" s="1">
         <v>468</v>
@@ -11582,13 +11681,13 @@
     </row>
     <row r="469" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A469" s="1" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B469" s="1" t="s">
         <v>1033</v>
       </c>
-      <c r="B469" s="1" t="s">
-        <v>1028</v>
-      </c>
       <c r="C469" s="1" t="s">
-        <v>1028</v>
+        <v>1033</v>
       </c>
       <c r="D469" s="1">
         <v>469</v>
@@ -11599,13 +11698,13 @@
     </row>
     <row r="470" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A470" s="1" t="s">
-        <v>1034</v>
+        <v>1039</v>
       </c>
       <c r="B470" s="1" t="s">
-        <v>1035</v>
+        <v>1040</v>
       </c>
       <c r="C470" s="1" t="s">
-        <v>1035</v>
+        <v>1040</v>
       </c>
       <c r="D470" s="1">
         <v>470</v>
@@ -11616,13 +11715,13 @@
     </row>
     <row r="471" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A471" s="1" t="s">
-        <v>1036</v>
+        <v>1041</v>
       </c>
       <c r="B471" s="1" t="s">
-        <v>1037</v>
+        <v>1042</v>
       </c>
       <c r="C471" s="1" t="s">
-        <v>1037</v>
+        <v>1042</v>
       </c>
       <c r="D471" s="1">
         <v>471</v>
@@ -11633,13 +11732,13 @@
     </row>
     <row r="472" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A472" s="1" t="s">
-        <v>1038</v>
+        <v>1043</v>
       </c>
       <c r="B472" s="1" t="s">
-        <v>1039</v>
+        <v>1044</v>
       </c>
       <c r="C472" s="1" t="s">
-        <v>1039</v>
+        <v>1045</v>
       </c>
       <c r="D472" s="1">
         <v>472</v>
@@ -11650,13 +11749,13 @@
     </row>
     <row r="473" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A473" s="1" t="s">
-        <v>1040</v>
+        <v>1046</v>
       </c>
       <c r="B473" s="1" t="s">
-        <v>1041</v>
+        <v>1047</v>
       </c>
       <c r="C473" s="1" t="s">
-        <v>1041</v>
+        <v>1047</v>
       </c>
       <c r="D473" s="1">
         <v>473</v>
@@ -11667,13 +11766,13 @@
     </row>
     <row r="474" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A474" s="1" t="s">
-        <v>1042</v>
+        <v>1048</v>
       </c>
       <c r="B474" s="1" t="s">
-        <v>1028</v>
+        <v>1033</v>
       </c>
       <c r="C474" s="1" t="s">
-        <v>1028</v>
+        <v>1033</v>
       </c>
       <c r="D474" s="1">
         <v>474</v>
@@ -11684,13 +11783,13 @@
     </row>
     <row r="475" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A475" s="1" t="s">
-        <v>1043</v>
+        <v>1049</v>
       </c>
       <c r="B475" s="1" t="s">
-        <v>1044</v>
+        <v>1050</v>
       </c>
       <c r="C475" s="1" t="s">
-        <v>1044</v>
+        <v>1050</v>
       </c>
       <c r="D475" s="1">
         <v>475</v>
@@ -11701,13 +11800,13 @@
     </row>
     <row r="476" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A476" s="1" t="s">
-        <v>1045</v>
+        <v>1051</v>
       </c>
       <c r="B476" s="1" t="s">
-        <v>1046</v>
+        <v>1052</v>
       </c>
       <c r="C476" s="1" t="s">
-        <v>1046</v>
+        <v>1052</v>
       </c>
       <c r="D476" s="1">
         <v>476</v>
@@ -11718,13 +11817,13 @@
     </row>
     <row r="477" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A477" s="1" t="s">
-        <v>1047</v>
+        <v>1053</v>
       </c>
       <c r="B477" s="1" t="s">
-        <v>1048</v>
+        <v>1054</v>
       </c>
       <c r="C477" s="1" t="s">
-        <v>1048</v>
+        <v>1054</v>
       </c>
       <c r="D477" s="1">
         <v>477</v>
@@ -11735,13 +11834,13 @@
     </row>
     <row r="478" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A478" s="1" t="s">
-        <v>1049</v>
+        <v>1055</v>
       </c>
       <c r="B478" s="1" t="s">
-        <v>1050</v>
+        <v>1056</v>
       </c>
       <c r="C478" s="1" t="s">
-        <v>1050</v>
+        <v>1056</v>
       </c>
       <c r="D478" s="1">
         <v>478</v>
@@ -11752,13 +11851,13 @@
     </row>
     <row r="479" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A479" s="1" t="s">
-        <v>1051</v>
+        <v>1057</v>
       </c>
       <c r="B479" s="1" t="s">
-        <v>1052</v>
+        <v>1058</v>
       </c>
       <c r="C479" s="1" t="s">
-        <v>1052</v>
+        <v>1058</v>
       </c>
       <c r="D479" s="1">
         <v>479</v>
@@ -11769,13 +11868,13 @@
     </row>
     <row r="480" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A480" s="1" t="s">
-        <v>1053</v>
+        <v>1059</v>
       </c>
       <c r="B480" s="1" t="s">
-        <v>1054</v>
+        <v>1060</v>
       </c>
       <c r="C480" s="1" t="s">
-        <v>1054</v>
+        <v>1060</v>
       </c>
       <c r="D480" s="1">
         <v>480</v>
@@ -11786,13 +11885,13 @@
     </row>
     <row r="481" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A481" s="1" t="s">
-        <v>1055</v>
+        <v>1061</v>
       </c>
       <c r="B481" s="1" t="s">
-        <v>1056</v>
+        <v>1062</v>
       </c>
       <c r="C481" s="1" t="s">
-        <v>1056</v>
+        <v>1062</v>
       </c>
       <c r="D481" s="1">
         <v>481</v>
@@ -11803,13 +11902,13 @@
     </row>
     <row r="482" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A482" s="1" t="s">
-        <v>1057</v>
+        <v>1063</v>
       </c>
       <c r="B482" s="1" t="s">
-        <v>1058</v>
+        <v>1064</v>
       </c>
       <c r="C482" s="1" t="s">
-        <v>1058</v>
+        <v>1064</v>
       </c>
       <c r="D482" s="1">
         <v>482</v>
@@ -11820,13 +11919,13 @@
     </row>
     <row r="483" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A483" s="1" t="s">
-        <v>1059</v>
+        <v>1065</v>
       </c>
       <c r="B483" s="1" t="s">
-        <v>1060</v>
+        <v>1066</v>
       </c>
       <c r="C483" s="1" t="s">
-        <v>1060</v>
+        <v>1066</v>
       </c>
       <c r="D483" s="1">
         <v>483</v>
@@ -11837,13 +11936,13 @@
     </row>
     <row r="484" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A484" s="1" t="s">
-        <v>1061</v>
+        <v>1067</v>
       </c>
       <c r="B484" s="1" t="s">
-        <v>1062</v>
+        <v>1068</v>
       </c>
       <c r="C484" s="1" t="s">
-        <v>1062</v>
+        <v>1068</v>
       </c>
       <c r="D484" s="1">
         <v>484</v>
@@ -11854,13 +11953,13 @@
     </row>
     <row r="485" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A485" s="1" t="s">
-        <v>1063</v>
+        <v>1069</v>
       </c>
       <c r="B485" s="1" t="s">
-        <v>1064</v>
+        <v>1070</v>
       </c>
       <c r="C485" s="1" t="s">
-        <v>1064</v>
+        <v>1071</v>
       </c>
       <c r="D485" s="1">
         <v>485</v>
@@ -11871,13 +11970,13 @@
     </row>
     <row r="486" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A486" s="1" t="s">
-        <v>1065</v>
+        <v>1072</v>
       </c>
       <c r="B486" s="1" t="s">
-        <v>1066</v>
+        <v>1073</v>
       </c>
       <c r="C486" s="1" t="s">
-        <v>1066</v>
+        <v>1073</v>
       </c>
       <c r="D486" s="1">
         <v>486</v>
@@ -11888,13 +11987,13 @@
     </row>
     <row r="487" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A487" s="1" t="s">
-        <v>1067</v>
+        <v>1074</v>
       </c>
       <c r="B487" s="1" t="s">
-        <v>1068</v>
+        <v>1075</v>
       </c>
       <c r="C487" s="1" t="s">
-        <v>1068</v>
+        <v>1075</v>
       </c>
       <c r="D487" s="1">
         <v>487</v>
@@ -11905,13 +12004,13 @@
     </row>
     <row r="488" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A488" s="1" t="s">
-        <v>1069</v>
+        <v>1076</v>
       </c>
       <c r="B488" s="1" t="s">
-        <v>1066</v>
+        <v>1073</v>
       </c>
       <c r="C488" s="1" t="s">
-        <v>1066</v>
+        <v>1073</v>
       </c>
       <c r="D488" s="1">
         <v>488</v>
@@ -11922,13 +12021,13 @@
     </row>
     <row r="489" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A489" s="1" t="s">
-        <v>1070</v>
+        <v>1077</v>
       </c>
       <c r="B489" s="1" t="s">
-        <v>1071</v>
+        <v>1078</v>
       </c>
       <c r="C489" s="1" t="s">
-        <v>1071</v>
+        <v>1078</v>
       </c>
       <c r="D489" s="1">
         <v>489</v>
@@ -11939,13 +12038,13 @@
     </row>
     <row r="490" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A490" s="1" t="s">
-        <v>1072</v>
+        <v>1079</v>
       </c>
       <c r="B490" s="1" t="s">
-        <v>1073</v>
+        <v>1080</v>
       </c>
       <c r="C490" s="1" t="s">
-        <v>1073</v>
+        <v>1080</v>
       </c>
       <c r="D490" s="1">
         <v>490</v>
@@ -11956,13 +12055,13 @@
     </row>
     <row r="491" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A491" s="1" t="s">
-        <v>1074</v>
+        <v>1081</v>
       </c>
       <c r="B491" s="1" t="s">
-        <v>1075</v>
+        <v>1082</v>
       </c>
       <c r="C491" s="1" t="s">
-        <v>1075</v>
+        <v>1082</v>
       </c>
       <c r="D491" s="1">
         <v>491</v>
@@ -11973,13 +12072,13 @@
     </row>
     <row r="492" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A492" s="1" t="s">
-        <v>1076</v>
+        <v>1083</v>
       </c>
       <c r="B492" s="1" t="s">
-        <v>1077</v>
+        <v>1084</v>
       </c>
       <c r="C492" s="1" t="s">
-        <v>1077</v>
+        <v>1084</v>
       </c>
       <c r="D492" s="1">
         <v>492</v>
@@ -11990,13 +12089,13 @@
     </row>
     <row r="493" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A493" s="1" t="s">
-        <v>1078</v>
+        <v>1085</v>
       </c>
       <c r="B493" s="1" t="s">
-        <v>1079</v>
+        <v>1086</v>
       </c>
       <c r="C493" s="1" t="s">
-        <v>1079</v>
+        <v>1086</v>
       </c>
       <c r="D493" s="1">
         <v>493</v>
@@ -12007,13 +12106,13 @@
     </row>
     <row r="494" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A494" s="1" t="s">
-        <v>1080</v>
+        <v>1087</v>
       </c>
       <c r="B494" s="1" t="s">
-        <v>1081</v>
+        <v>1088</v>
       </c>
       <c r="C494" s="1" t="s">
-        <v>1081</v>
+        <v>1088</v>
       </c>
       <c r="D494" s="1">
         <v>494</v>

--- a/InstallOptions/Localization/CustomLocalization-RU/Localization/RogueTech/RU/MissionControl/LocalizationDef.xlsx
+++ b/InstallOptions/Localization/CustomLocalization-RU/Localization/RogueTech/RU/MissionControl/LocalizationDef.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1976" uniqueCount="1115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1976" uniqueCount="1121">
   <si>
     <t>Blackout_DugInDeep.contractName</t>
   </si>
@@ -903,9 +903,6 @@
     <t>"It's unfortunate how this has turned out but we can't back down now. Sort these {TEAM_TAR.FactionDef.Demonym} guards out then let's get out of here."</t>
   </si>
   <si>
-    <t>"К сожалению, все таким образом, но мы не можем отступить сейчас. Разберите этих стражников из {TEAM_TAR.FactionDef.Name}, и убираемся отсюда."</t>
-  </si>
-  <si>
     <t>DuoDuel_DoubleTrouble.dialogueList1.dialogueContent0.words</t>
   </si>
   <si>
@@ -930,9 +927,6 @@
     <t>"Commander, looks like those two guys that the {TEAM_EMP.FactionDef.Demonym} crew ticked off last night were actually {TEAM_TAR.FactionDef.Demonym} guards. Looks like we've got ourselves a duel."</t>
   </si>
   <si>
-    <t>"Командир, похоже, что те двое парней, которых команда {TEAM_EMP.FactionDef.Name} встретила прошлой ночью, на самом деле были стражниками {TEAM_TAR.FactionDef.Name}. Кажеться, дуэль все таки состоиться."</t>
-  </si>
-  <si>
     <t>DuoDuel_DoubleTrouble.objectiveList0.title</t>
   </si>
   <si>
@@ -1185,9 +1179,6 @@
     <t>"You did it! Time to organise the party. We can't let all this go to waste!"</t>
   </si>
   <si>
-    <t>"Вы сделали это! Пора организовать вечеринку. Мы не можем позволить всему этому пропасть зря!"</t>
-  </si>
-  <si>
     <t>DuoDuel_YearlyTussle.dialogueList2.dialogueContent0.words</t>
   </si>
   <si>
@@ -1230,9 +1221,6 @@
     <t>"Every year we {TEAM_EMP.FactionDef.Demonym}s in {TGT_SYSTEM.name} continue a historic procedure with the local {TEAM_TAR.FactionDef.Demonym}s. We both field mercenaries and whoever wins claims a years worth of good food and fine wines. Our usual mercenaries who help us were recently and unexpectedly wiped out by a failed jumpship jump, so we've come to you for help."</t>
   </si>
   <si>
-    <t>"Каждый год мы {TEAM_EMP.FactionDef.Name} в {TGT_SYSTEM.name} продолжаем традицию с местными {TEAM_TAR.FactionDef.Name}. Мы оба наемники, и тот, кто победит, целый год пробует хорошую еду и прекрасное вино. Наемники, к которым мы обычно обращались, недавно были неожиданно уничтожены неудачным прыжком с трамплина, поэтому мы обратились к вам за помощью."</t>
-  </si>
-  <si>
     <t>SoloDuel_AllEyesOn.contractName</t>
   </si>
   <si>
@@ -1458,9 +1446,6 @@
     <t>"Last time we saw Killbox she was stuck on that moon, Commander. Not sure how they got off it. Guess it doesn't matter now. Good luck!"</t>
   </si>
   <si>
-    <t>"В последний мы видели Киллбокс застрявшей на той луне, командир. Не знаю, как они выбрались. Думаю, теперь это не имеет значения. Удачи!"</t>
-  </si>
-  <si>
     <t>SoloDuel_CorneredRevenge.dialogueList1.dialogueContent0.words</t>
   </si>
   <si>
@@ -1512,9 +1497,6 @@
     <t>"We have a BattleMech causing us trouble in {TGT_SYSTEM.name} who refuses to back down until you, Commander, show up and fight them in a duel. They call themselves Killbox. I don't know what their problem is with you but we'll pay you to get here and just deal with them. It's causing us a headache."</t>
   </si>
   <si>
-    <t>"У нас есть проблемы с мехом в {TGT_SYSTEM.name}, который отказывается отступать, пока вы, командир, не появитесь и не сразитесь с ним на дуэли. Называет себя Киллбокс. Я не знаю, в чем дело, но мы заплатим вам, чтобы вы пришли сюда и разобрались. У нас голова болит из-за этого."</t>
-  </si>
-  <si>
     <t>SoloDuel_LifeLesson.contractName</t>
   </si>
   <si>
@@ -1746,6 +1728,9 @@
     <t>"Our bases in {TGT_SYSTEM.name} have been plagued by {TEAM_TAR.FactionDef.ShortName}. We have challenged them to a Trial of Refusal, hopefully driving them for the system once and for all."</t>
   </si>
   <si>
+    <t>"Наши базы на {TGT_SYSTEM.name} подверглись нападению со стороны {TEAM_TAR.FactionDef.ShortName}. Мы вызвали их на испытание отказа и надеемся изгнать их из системы раз и навсегда."</t>
+  </si>
+  <si>
     <t>DuoDuel_AtHighNoonC.longDescription</t>
   </si>
   <si>
@@ -1791,12 +1776,18 @@
     <t>"Last night a few of your crew members took some Liberties at the local {TEAM_TAR.FactionDef.Demonym} bar. Words were said and now you are to duel with the offended warriors of{TEAM_TAR.FactionDef.Demonym}."</t>
   </si>
   <si>
+    <t>"Вчера вечером несколько членов вашей команды позволили себе некоторые вольности в местном баре {TEAM_TAR.FactionDef.Name}. Были сказаны некоторые слова, и теперь вам предстоит дуэль с оскорбленными воинами из {TEAM_TAR.FactionDef.Name}."</t>
+  </si>
+  <si>
     <t>DuoDuel_DoubleTroubleC.longDescription</t>
   </si>
   <si>
     <t>"Commander, Those guys we ran into from {TEAM_EMP.FactionDef.Demonym} are pretty hot headed {TEAM_TAR.FactionDef.Demonym} Warriors. Looks like we've got ourselves a duel."</t>
   </si>
   <si>
+    <t>"Commander, Those guys we ran into from {TEAM_EMP.FactionDef.Name} are pretty hot headed {TEAM_TAR.FactionDef.Name} Warriors. Looks like we've got ourselves a duel."</t>
+  </si>
+  <si>
     <t>DuoDuel_DoubleTroubleC.objectiveList0.title</t>
   </si>
   <si>
@@ -1809,6 +1800,9 @@
     <t>"It's unfortunate how this has turned out but we can't back down now. Sort these {TEAM_TAR.FactionDef.Demonym} Warriors out then let's get out of here."</t>
   </si>
   <si>
+    <t>"It's unfortunate how this has turned out but we can't back down now. Sort these {TEAM_TAR.FactionDef.Name} Warriors out then let's get out of here."</t>
+  </si>
+  <si>
     <t>DuoDuel_DoubleTroubleC.dialogueList1.dialogueContent0.words</t>
   </si>
   <si>
@@ -1827,6 +1821,9 @@
     <t>"Every year around this time on {TGT_SYSTEM.name}, we host an Trial of Position for the Sibkos. This year, we would like you to be the opening match. Your duo duel is against {TEAM_TAR.FactionDef.ShortName}. Don't let our young warriors defeat you to badly."</t>
   </si>
   <si>
+    <t>"Каждый год примерно в это время на {TGT_SYSTEM.name} мы проводим испытание положения для сибко. В этом году мы хотели бы, чтобы вы участвовали на открытии. Дуэльный дуэт будет против {TEAM_TAR.FactionDef.ShortName}. Не дайте нашим молодым воинам избить вас слишком сильно."</t>
+  </si>
+  <si>
     <t>DuoDuel_FestiveCoupleC.longDescription</t>
   </si>
   <si>
@@ -1836,6 +1833,9 @@
     <t>DuoDuel_FestiveCoupleC.objectiveList0.title</t>
   </si>
   <si>
+    <t>"Defeat the {TEAM_TAR.FactionDef.Name} team"</t>
+  </si>
+  <si>
     <t>DuoDuel_FestiveCoupleC.dialogueList0.dialogueContent0.words</t>
   </si>
   <si>
@@ -1872,6 +1872,9 @@
     <t>"Two of our sibko warriors have challenged two long-standing {TEAM_TAR.FactionDef.Demonym} warriors to a fight. As they haven't had their Trial of Position, we can not allow them to fight this match. We would like you to particpate as their proxies instead, saving {TEAM_EMP.FactionDef.Demonym}'s honor, while also showing our sibko what it means to be a Warrior."</t>
   </si>
   <si>
+    <t>"Два наших воина-сиба вызвали на поединок двух многолетних воинов {TEAM_TAR.FactionDef.Name}. Поскольку они ещё не прошли испытание положения, мы не можем позволить им сразиться в этом поединке. Мы хотели бы, чтобы вы приняли участие в поединке в качестве их защитников, сберегая честь {TEAM_EMP.FactionDef.Name} и одновременно показывая нашим сибко, что значит быть воином."</t>
+  </si>
+  <si>
     <t>DuoDuel_LastMinuteReplacementsC.longDescription</t>
   </si>
   <si>
@@ -1911,12 +1914,18 @@
     <t>"A {TEAM_TAR.FactionDef.Demonym} Trinary Leader has taken issue with a recently released report on military inefficencies. She has demanded a duel to fight those allegations. We would like to hire you to represent our allegations, Commander."</t>
   </si>
   <si>
+    <t>"Лидер тринария {TEAM_TAR.FactionDef.Name} выразила несогласие с недавно опубликованным отчетом о неэффективности военных. Она потребовала дуэли, оспаривая обвинения. Мы хотели бы нанять вас для защиты наших доводов, командир."</t>
+  </si>
+  <si>
     <t>DuoDuel_WordsHurtC.longDescription</t>
   </si>
   <si>
     <t>"I just don't know, Commander. When people say they want to 'fight' allegations, it's not meant to be a real fight. These {TEAM_TAR.FactionDef.Demonym} Clanners are crazy. Everything is a fight for them."</t>
   </si>
   <si>
+    <t>"I just don't know, Commander. When people say they want to 'fight' allegations, it's not meant to be a real fight. These {TEAM_TAR.FactionDef.Name} Clanners are crazy. Everything is a fight for them."</t>
+  </si>
+  <si>
     <t>DuoDuel_WordsHurtC.objectiveList0.title</t>
   </si>
   <si>
@@ -1944,6 +1953,9 @@
     <t>"Every year {TEAM_EMP.FactionDef.Demonym} in {TGT_SYSTEM.name} continues a historic tradition with {TEAM_TAR.FactionDef.Demonym}. We both field mercenaries in a Trial of Possession, and whoever wins claims a year's worth of good food and fine wines. Our usual mercenaries who help us were recently and unexpectedly wiped out by a misjump, so we have come to you for help."</t>
   </si>
   <si>
+    <t>"Каждый год {TEAM_EMP.FactionDef.Name} на {TGT_SYSTEM.name} продолжает историческую традицию с {TEAM_TAR.FactionDef.Name}. Мы оба выставляем наемников на испытание владения, и тот, кто побеждает, получает на год хорошую еду и хорошие вина. Наши обычные наемники, которые нам помогали, недавно неожиданно скончались из-за кривого прыжка, поэтому мы обратились к вам за помощью."</t>
+  </si>
+  <si>
     <t>DuoDuel_YearlyTussleC.longDescription</t>
   </si>
   <si>
@@ -1974,6 +1986,9 @@
     <t>"Commander, {TEAM_TAR.FactionDef.Demonym} forces have always been a bother, always claiming to be superior to ours. So we arranged for a Trial of Grievance against {TEAM_TAR.FactionDef.Demonym}, and bargined for you to fight on our behalf as a slight to them. They're enraged at the implications of this, and we're more than happy to exploit it for ourselves. For the Glory of the Clan, show {TEAM_TAR.FactionDef.Demonym} that even our hired mercenaries are stronger than they are."</t>
   </si>
   <si>
+    <t>"Командир, {TEAM_TAR.FactionDef.Name} всегда досаждали нам, постоянно заявляя о своем превосходстве над нами. Поэтому мы устроили испытание обиды против {TEAM_TAR.FactionDef.Name} и сторговались, чтобы вы сражались от нашего имени, чтобы уязвить их. Они в ярости от подтекста этого, а мы с радостью воспользуемся этим в своих интересах. Во славу нашего клана, покажите {TEAM_TAR.FactionDef.Name}, что даже наши наемники сильнее их."</t>
+  </si>
+  <si>
     <t>SoloDuel_AllEyesOnC.longDescription</t>
   </si>
   <si>
@@ -2022,6 +2037,9 @@
     <t>"A {TEAM_TAR.FactionDef.Demonym} Warrior has issued you a Trial of Grievance through us, Commander. It's a good opportunity to show our Sibkos how mercenaries fight, so we'll pay you if you win. Now, will {COMPANY.CompanyName} be remembered for their glorious fight, or forgotten?"</t>
   </si>
   <si>
+    <t>"Воин {TEAM_TAR.FactionDef.Name} через нас объявляет вам испытание обиды, командир. Это хорошая возможность показать нашим сибко, как сражаются наемники. Мы заплатим вам, если вы победите. Итак, запомнят ли {COMPANY.CompanyName} за славный бой или же предадут забвению?"</t>
+  </si>
+  <si>
     <t>SoloDuel_ATasteForWarC.longDescription</t>
   </si>
   <si>
@@ -2043,6 +2061,9 @@
     <t>"The {TEAM_TAR.FactionDef.Demonym} Warrior awaits yor advance."</t>
   </si>
   <si>
+    <t>"The {TEAM_TAR.FactionDef.Name} Warrior awaits yor advance."</t>
+  </si>
+  <si>
     <t>SoloDuel_ATasteForWarC.dialogueList1.dialogueContent0.words</t>
   </si>
   <si>
@@ -2061,6 +2082,9 @@
     <t>"Our battles with {TEAM_TAR.FactionDef.ShortName} in and around {TGT_SYSTEM.name} have been a waste of resources. {TEAM_TAR.FactionDef.Demonym} has issued us a Trial of Possession for this small area of the conflict. It will be a one-on-one battle in a Circle of Equals with you taking our place, ostensibly to save our own resources."</t>
   </si>
   <si>
+    <t>"Наши сражения с {TEAM_TAR.FactionDef.ShortName} в окрестностях {TGT_SYSTEM.name} были пустой растратой ресурсов. {TEAM_TAR.FactionDef.Name} объявили нам испытание владения за небольшой участок земли. Это будет битва один на один в круге равных, где вы займете наше место, как говорится, для экономии ресурсов."</t>
+  </si>
+  <si>
     <t>SoloDuel_ChallengeAcceptedC.longDescription</t>
   </si>
   <si>
@@ -2103,6 +2127,9 @@
     <t>"There is a Warrior in {TGT_SYSTEM.name} who refuses to back down until you, Commander, show up and fight them in a Circle of Equals. As they are Bloodnamed, we feel that you cannot brush them off as easily as some drunk in a bar. It would bring great honor to our Clan if you would arrive and show them your might."</t>
   </si>
   <si>
+    <t>"На {TGT_SYSTEM.name} есть воин, который отказывается отступить, пока вы, командир, не явитесь и не сразитесь с ним в круге равных. Поскольку он носит кровное имя, мы считаем, что вы не можете отмахнуться от него, как от какого-нибудь пьяницы в баре. Для нашего клана будет большой честью, если вы явитесь и продемонстрируете всем свою силу."</t>
+  </si>
+  <si>
     <t>SoloDuel_CorneredRevengeC.longDescription</t>
   </si>
   <si>
@@ -2148,6 +2175,9 @@
     <t>"{TEAM_EMP.FactionDef.Demonym} has requested we field test a new pilot from their Alpha Sibko. {COMPANY.CompanyName} has been a valuable ally and we would like our new generation to pick up some skills. Don't hold back, the pilot is going to be putting everything they learned into this fight. The Clan wants to teach some real life lessons to them, and their Sibko."</t>
   </si>
   <si>
+    <t>"{TEAM_EMP.FactionDef.Name} обратились к нам с просьбой провести полевые испытания нового пилота из их сибгруппы Альфа. {COMPANY.CompanyName} были ценным союзником, и мы хотели бы, чтобы наше новое поколение подчерпнуло от вас ряд навыков. Не сдерживайте сил, пилот выложится на полную и покажет всё, чему его учили. Клан хочет преподать ему и его сибко пару уроков из реальной жизни."</t>
+  </si>
+  <si>
     <t>SoloDuel_LifeLessonC.longDescription</t>
   </si>
   <si>
@@ -2196,6 +2226,9 @@
     <t>"{TGT_SYSTEM.name} has been challenged to a Trial of Possession by {TEAM_TAR.FactionDef.Demonym}. We would like you to represent us in this Trial, as all our troops are involved elsewhere. If you lose, we will just deny it was ever agreed to, or that you weren't representing us."</t>
   </si>
   <si>
+    <t>"{TGT_SYSTEM.name} была вызвана на испытание владения {TEAM_TAR.FactionDef.Name}. Мы хотели бы, чтобы вы представляли нас в этом испытании, так как все наши войска задействованы в других местах. Если вы проиграете, мы будем отрицать, что подобное соглашение когда-либо существовало или скажем, что вы представляли не нас."</t>
+  </si>
+  <si>
     <t>SoloDuel_ProxyWarC.longDescription</t>
   </si>
   <si>
@@ -2208,6 +2241,9 @@
     <t>"Defeat the {TEAM_TAR.FactionDef.Demonym} Warrior"</t>
   </si>
   <si>
+    <t>"Defeat the {TEAM_TAR.FactionDef.Name} Warrior"</t>
+  </si>
+  <si>
     <t>SoloDuel_ProxyWarC.dialogueList0.dialogueContent0.words</t>
   </si>
   <si>
@@ -2412,6 +2448,9 @@
     <t>"I'm not at liberty to give you many details on this sensitive matter. What I can tell you is as of last night we lost contact with a site housing a very valuable witness-in-protection in the {TGT_SYSTEM.name} system. If this has anything to do with the reason for protection I'd expect {TEAM_TAR.FactionDef.Demonym} groups to be involved. Get there and figure out what's going on."</t>
   </si>
   <si>
+    <t>"Я не имею права сообщать вам всех подробностей по этому деликатному вопросу. Но что я могу сказать, так это то, что вчера вечером мы потеряли связь с объектом в системе {TGT_SYSTEM.name}, где находился очень ценный свидетель, которого охраняли. Если это как-то связано с тем, почему его изначально защищали, то я ожидаю, что в дело будут вовлечены группы из {TEAM_TAR.FactionDef.Name}. Отправляйтесь туда и выясните, что происходит."</t>
+  </si>
+  <si>
     <t>Blackout_AbsentWitness.longDescription</t>
   </si>
   <si>
@@ -2445,6 +2484,9 @@
     <t>"Destroy the occupied base turrets"</t>
   </si>
   <si>
+    <t>"Уничтожьте турели захваченной базы"</t>
+  </si>
+  <si>
     <t>Blackout_AbsentWitness.objectiveList1.description</t>
   </si>
   <si>
@@ -2556,6 +2598,9 @@
     <t>"{TEAM_TAR.FactionDef.Demonym} force, you're out gunned and out matched. Release your captive and surrender or we'll be forced to fire on your position."</t>
   </si>
   <si>
+    <t>"{TEAM_TAR.FactionDef.Name} force, you're out gunned and out matched. Release your captive and surrender or we'll be forced to fire on your position."</t>
+  </si>
+  <si>
     <t>Blackout_AbsentWitness.dialogueList8.dialogueContent3.words</t>
   </si>
   <si>
@@ -2586,6 +2631,9 @@
     <t>"{TGT_SYSTEM.name} settlement. We're a {TEAM_EMP.FactionDef.Demonym} aligned force attempting to offer aid and support. What's the current situation here?"</t>
   </si>
   <si>
+    <t>"{TGT_SYSTEM.name} settlement. We're a {TEAM_EMP.FactionDef.Name} aligned force attempting to offer aid and support. What's the current situation here?"</t>
+  </si>
+  <si>
     <t>Blackout_AbsentWitness.dialogueList11.dialogueContent1.words</t>
   </si>
   <si>
@@ -2619,6 +2667,9 @@
     <t>"Commander, we need you in the {TGT_SYSTEM.name} system immediately. We lost contact with one of the minor royals of the region - Henriette Bosh. They frequently bombard us with a constant stream of requests yet, since some time, we haven't heard from them.\n\nPlease check on them and report back to us."</t>
   </si>
   <si>
+    <t>"Командир, вы срочно нужны нам в системе {TGT_SYSTEM.name}. Мы потеряли связь с одной из влиятельных королевских особ этого региона - Генриеттой Бош. Она часто закидывала нас постоянным потоком просьб, но с некоторых пор мы ничего не слышим о ней.\r\n\r\nПожалуйста, проведайте её и доложите нам."</t>
+  </si>
+  <si>
     <t>Blackout_AMinorRoyalPain.longDescription</t>
   </si>
   <si>
@@ -2871,6 +2922,9 @@
     <t>"{MC.If.Encounter.HasNoTag.mc_met_bosh_in_phase1}[MC.Format.ToUpperFirst.{TEAM_EMP.FactionDef.Demonym}] settlement, Commander {MC.Commander.DisplayName} here. We've been sent to check-in on Henriette Bosh."</t>
   </si>
   <si>
+    <t>"{MC.If.Encounter.HasNoTag.mc_met_bosh_in_phase1}[MC.Format.ToUpperFirst.{TEAM_EMP.FactionDef.Name}] settlement, Commander {MC.Commander.DisplayName} here. We've been sent to check-in on Henriette Bosh."</t>
+  </si>
+  <si>
     <t>Blackout_AMinorRoyalPain.dialogueList8.dialogueContent1.words</t>
   </si>
   <si>
@@ -2895,6 +2949,9 @@
     <t>"{MC.If.Encounter.HasTag.mc_met_bosh_in_phase1}{TEAM_EMP.FactionDef.Demonym} settlement, we're here to pick up Henriette Bosh's dog."</t>
   </si>
   <si>
+    <t>"{MC.If.Encounter.HasTag.mc_met_bosh_in_phase1}{TEAM_EMP.FactionDef.Name} settlement, we're here to pick up Henriette Bosh's dog."</t>
+  </si>
+  <si>
     <t>Blackout_AMinorRoyalPain.dialogueList8.dialogueContent5.words</t>
   </si>
   <si>
@@ -3048,6 +3105,9 @@
     <t>"Commander, we need you to confirm the status of a supply cache in the {TGT_SYSTEM.name} system that we established in case we need to execute local operations. Your company will run a patrol through the region, passing by the dumps and establishing communications by tightbeam only.\n\nDo not attempt to contact the cache by radio and maintain a low profile, discretion is paramount on this operation."</t>
   </si>
   <si>
+    <t>"Командир, нам нужно, чтобы вы проверили состояние тайника со снабжением в системе {TGT_SYSTEM.name}, который мы создали на случай проведения местных операций. Ваша группа будет патрулировать регион, проходя вдоль свалок. Поддерживайте связь только по узконаправленному лучу.\r\n\r\nНе пытайтесь связаться с тайником по радио и не высвечивайте, осторожность в этой операции имеет первостепенное значение."</t>
+  </si>
+  <si>
     <t>Blackout_PreparedGrounds.longDescription</t>
   </si>
   <si>
@@ -3288,82 +3348,40 @@
     <t>"Time to earn your paycheques people. Light 'em up."</t>
   </si>
   <si>
-    <t>"Уничтожьте турели захваченной базы"</t>
-  </si>
-  <si>
-    <t>"Наши базы на {TGT_SYSTEM.name} подверглись нападению со стороны {TEAM_TAR.FactionDef.ShortName}. Мы вызвали их на испытание отказа и надеемся изгнать их из системы раз и навсегда."</t>
-  </si>
-  <si>
-    <t>"Вчера вечером несколько членов вашей команды позволили себе некоторые вольности в местном баре {TEAM_TAR.FactionDef.Name}. Были сказаны некоторые слова, и теперь вам предстоит дуэль с оскорбленными воинами из {TEAM_TAR.FactionDef.Name}."</t>
-  </si>
-  <si>
-    <t>"Commander, Those guys we ran into from {TEAM_EMP.FactionDef.Name} are pretty hot headed {TEAM_TAR.FactionDef.Name} Warriors. Looks like we've got ourselves a duel."</t>
-  </si>
-  <si>
-    <t>"It's unfortunate how this has turned out but we can't back down now. Sort these {TEAM_TAR.FactionDef.Name} Warriors out then let's get out of here."</t>
-  </si>
-  <si>
-    <t>"Каждый год примерно в это время на {TGT_SYSTEM.name} мы проводим испытание положения для сибко. В этом году мы хотели бы, чтобы вы участвовали на открытии. Дуэльный дуэт будет против {TEAM_TAR.FactionDef.ShortName}. Не дайте нашим молодым воинам избить вас слишком сильно."</t>
-  </si>
-  <si>
-    <t>"Defeat the {TEAM_TAR.FactionDef.Name} team"</t>
-  </si>
-  <si>
-    <t>"Два наших воина-сиба вызвали на поединок двух многолетних воинов {TEAM_TAR.FactionDef.Name}. Поскольку они ещё не прошли испытание положения, мы не можем позволить им сразиться в этом поединке. Мы хотели бы, чтобы вы приняли участие в поединке в качестве их защитников, сберегая честь {TEAM_EMP.FactionDef.Name} и одновременно показывая нашим сибко, что значит быть воином."</t>
-  </si>
-  <si>
-    <t>"Лидер тринария {TEAM_TAR.FactionDef.Name} выразила несогласие с недавно опубликованным отчетом о неэффективности военных. Она потребовала дуэли, оспаривая обвинения. Мы хотели бы нанять вас для защиты наших доводов, командир."</t>
-  </si>
-  <si>
-    <t>"I just don't know, Commander. When people say they want to 'fight' allegations, it's not meant to be a real fight. These {TEAM_TAR.FactionDef.Name} Clanners are crazy. Everything is a fight for them."</t>
-  </si>
-  <si>
-    <t>"Каждый год {TEAM_EMP.FactionDef.Name} на {TGT_SYSTEM.name} продолжает историческую традицию с {TEAM_TAR.FactionDef.Name}. Мы оба выставляем наемников на испытание владения, и тот, кто побеждает, получает на год хорошую еду и хорошие вина. Наши обычные наемники, которые нам помогали, недавно неожиданно скончались из-за кривого прыжка, поэтому мы обратились к вам за помощью."</t>
-  </si>
-  <si>
-    <t>"Командир, {TEAM_TAR.FactionDef.Name} всегда досаждали нам, постоянно заявляя о своем превосходстве над нами. Поэтому мы устроили испытание обиды против {TEAM_TAR.FactionDef.Name} и сторговались, чтобы вы сражались от нашего имени, чтобы уязвить их. Они в ярости от подтекста этого, а мы с радостью воспользуемся этим в своих интересах. Во славу нашего клана, покажите {TEAM_TAR.FactionDef.Name}, что даже наши наемники сильнее их."</t>
-  </si>
-  <si>
-    <t>"Воин {TEAM_TAR.FactionDef.Name} через нас объявляет вам испытание обиды, командир. Это хорошая возможность показать нашим сибко, как сражаются наемники. Мы заплатим вам, если вы победите. Итак, запомнят ли {COMPANY.CompanyName} за славный бой или же предадут забвению?"</t>
-  </si>
-  <si>
-    <t>"The {TEAM_TAR.FactionDef.Name} Warrior awaits yor advance."</t>
-  </si>
-  <si>
-    <t>"Наши сражения с {TEAM_TAR.FactionDef.ShortName} в окрестностях {TGT_SYSTEM.name} были пустой растратой ресурсов. {TEAM_TAR.FactionDef.Name} объявили нам испытание владения за небольшой участок земли. Это будет битва один на один в круге равных, где вы займете наше место, как говорится, для экономии ресурсов."</t>
-  </si>
-  <si>
-    <t>"На {TGT_SYSTEM.name} есть воин, который отказывается отступить, пока вы, командир, не явитесь и не сразитесь с ним в круге равных. Поскольку он носит кровное имя, мы считаем, что вы не можете отмахнуться от него, как от какого-нибудь пьяницы в баре. Для нашего клана будет большой честью, если вы явитесь и продемонстрируете всем свою силу."</t>
-  </si>
-  <si>
-    <t>"{TEAM_EMP.FactionDef.Name} обратились к нам с просьбой провести полевые испытания нового пилота из их сибгруппы Альфа. {COMPANY.CompanyName} были ценным союзником, и мы хотели бы, чтобы наше новое поколение подчерпнуло от вас ряд навыков. Не сдерживайте сил, пилот выложится на полную и покажет всё, чему его учили. Клан хочет преподать ему и его сибко пару уроков из реальной жизни."</t>
-  </si>
-  <si>
-    <t>"{TGT_SYSTEM.name} была вызвана на испытание владения {TEAM_TAR.FactionDef.Name}. Мы хотели бы, чтобы вы представляли нас в этом испытании, так как все наши войска задействованы в других местах. Если вы проиграете, мы будем отрицать, что подобное соглашение когда-либо существовало или скажем, что вы представляли не нас."</t>
-  </si>
-  <si>
-    <t>"Defeat the {TEAM_TAR.FactionDef.Name} Warrior"</t>
-  </si>
-  <si>
-    <t>"Я не имею права сообщать вам всех подробностей по этому деликатному вопросу. Но что я могу сказать, так это то, что вчера вечером мы потеряли связь с объектом в системе {TGT_SYSTEM.name}, где находился очень ценный свидетель, которого охраняли. Если это как-то связано с тем, почему его изначально защищали, то я ожидаю, что в дело будут вовлечены группы из {TEAM_TAR.FactionDef.Name}. Отправляйтесь туда и выясните, что происходит."</t>
-  </si>
-  <si>
-    <t>"{TEAM_TAR.FactionDef.Name} force, you're out gunned and out matched. Release your captive and surrender or we'll be forced to fire on your position."</t>
-  </si>
-  <si>
-    <t>"{TGT_SYSTEM.name} settlement. We're a {TEAM_EMP.FactionDef.Name} aligned force attempting to offer aid and support. What's the current situation here?"</t>
-  </si>
-  <si>
-    <t>"Командир, вы срочно нужны нам в системе {TGT_SYSTEM.name}. Мы потеряли связь с одной из влиятельных королевских особ этого региона - Генриеттой Бош. Она часто закидывала нас постоянным потоком просьб, но с некоторых пор мы ничего не слышим о ней.\r\n\r\nПожалуйста, проведайте её и доложите нам."</t>
-  </si>
-  <si>
-    <t>"{MC.If.Encounter.HasNoTag.mc_met_bosh_in_phase1}[MC.Format.ToUpperFirst.{TEAM_EMP.FactionDef.Name}] settlement, Commander {MC.Commander.DisplayName} here. We've been sent to check-in on Henriette Bosh."</t>
-  </si>
-  <si>
-    <t>"{MC.If.Encounter.HasTag.mc_met_bosh_in_phase1}{TEAM_EMP.FactionDef.Name} settlement, we're here to pick up Henriette Bosh's dog."</t>
-  </si>
-  <si>
-    <t>"Командир, нам нужно, чтобы вы проверили состояние тайника со снабжением в системе {TGT_SYSTEM.name}, который мы создали на случай проведения местных операций. Ваша группа будет патрулировать регион, проходя вдоль свалок. Поддерживайте связь только по узконаправленному лучу.\r\n\r\nНе пытайтесь связаться с тайником по радио и не высвечивайте, осторожность в этой операции имеет первостепенное значение."</t>
+    <t>"Командир, готовьтесь."</t>
+  </si>
+  <si>
+    <t>"Жаль, что дошло до этого, но уже нельзя отступать. Разберитесь с этими охранниками из {TEAM_TAR.FactionDef.Name}, и давайте убираться отсюда."</t>
+  </si>
+  <si>
+    <t>"Командир, похоже, что те двое парней, которых команда {TEAM_EMP.FactionDef.Name} встретила прошлой ночью, на самом деле были стражниками {TEAM_TAR.FactionDef.Name}. Кажется, дуэль всё таки состоится."</t>
+  </si>
+  <si>
+    <t>"Вы сделали это! Пора организовывать вечеринку. Нельзя позволить всей этой еде пропасть зря!"</t>
+  </si>
+  <si>
+    <t>"Каждый год мы {TEAM_EMP.FactionDef.Name} в {TGT_SYSTEM.name} продолжаем традицию с местными {TEAM_TAR.FactionDef.Name}. Мы оба наемники, и тот, кто победит, целый год пробует хорошую еду и прекрасное вино. Наемники, к которым мы обычно обращались, недавно неожиданно скончались после неудачного прыжка с трамплина, поэтому мы обратились к вам за помощью."</t>
+  </si>
+  <si>
+    <t>"В последний мы видели Киллбокс застрявшей на той луне, командир. Не знаю, как она выбралась. Думаю, теперь это и не важно. Удачи!"</t>
+  </si>
+  <si>
+    <t>"У нас проблемы с мехом в системе {TGT_SYSTEM.name}, он отказывается отступать, пока конкретно вы, командир, не явитесь и не сразитесь с ним в дуэли. Зовёт себя Киллбокс. Я не знаю, в чем там дело, но мы заплатим вам, чтобы вы пришли и разобрались. От этой ситуации у нас уже мигрень."</t>
+  </si>
+  <si>
+    <t>"Свидетель под охраной? Потеряли связь? Думаю, мы все знаем, чем это может обернуться. Давайте держать ухо востро, командир."</t>
+  </si>
+  <si>
+    <t>"В этом районе два основных поселения. Давайте проведем разведку и получим больше информации, командир. Будем надеяться, что это просто сбой связи... в противном случае... ничего хорошего."</t>
+  </si>
+  <si>
+    <t>"Спасибо, командир. Я лично прослежу, чтобы этот свидетель произвел впечатление на суде."</t>
+  </si>
+  <si>
+    <t>"Приятно производить впечатление. Особенно когда нам за это платят."</t>
+  </si>
+  <si>
+    <t>"Алло, командир! Я - тот, кого они ищут. Эти ублюдки убили всех в посёлке, и мою семью. Теперь пускай пострадают они. Я только что закончил ставить ловушку. Я помогу вам помочь мне."</t>
   </si>
 </sst>
 </file>
@@ -3711,7 +3729,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E494"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A477" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A478" workbookViewId="0">
       <selection activeCell="C499" sqref="C499"/>
     </sheetView>
   </sheetViews>
@@ -3719,8 +3737,8 @@
   <cols>
     <col min="1" max="3" width="78.85546875" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.28515625" style="1" customWidth="1"/>
-    <col min="5" max="19" width="9.140625" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="5" max="20" width="9.140625" style="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -5516,7 +5534,7 @@
         <v>291</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>291</v>
+        <v>1109</v>
       </c>
       <c r="D106" s="1">
         <v>106</v>
@@ -5533,7 +5551,7 @@
         <v>293</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>294</v>
+        <v>1110</v>
       </c>
       <c r="D107" s="1">
         <v>107</v>
@@ -5544,13 +5562,13 @@
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="B108" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="B108" s="1" t="s">
+      <c r="C108" s="1" t="s">
         <v>296</v>
-      </c>
-      <c r="C108" s="1" t="s">
-        <v>297</v>
       </c>
       <c r="D108" s="1">
         <v>108</v>
@@ -5561,13 +5579,13 @@
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B109" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="B109" s="1" t="s">
+      <c r="C109" s="1" t="s">
         <v>299</v>
-      </c>
-      <c r="C109" s="1" t="s">
-        <v>300</v>
       </c>
       <c r="D109" s="1">
         <v>109</v>
@@ -5578,13 +5596,13 @@
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="B110" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="B110" s="1" t="s">
-        <v>302</v>
-      </c>
       <c r="C110" s="1" t="s">
-        <v>303</v>
+        <v>1111</v>
       </c>
       <c r="D110" s="1">
         <v>110</v>
@@ -5595,13 +5613,13 @@
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="C111" s="1" t="s">
         <v>304</v>
-      </c>
-      <c r="B111" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="C111" s="1" t="s">
-        <v>306</v>
       </c>
       <c r="D111" s="1">
         <v>111</v>
@@ -5612,13 +5630,13 @@
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="C112" s="1" t="s">
         <v>307</v>
-      </c>
-      <c r="B112" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="C112" s="1" t="s">
-        <v>309</v>
       </c>
       <c r="D112" s="1">
         <v>112</v>
@@ -5629,13 +5647,13 @@
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="C113" s="1" t="s">
         <v>310</v>
-      </c>
-      <c r="B113" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="C113" s="1" t="s">
-        <v>312</v>
       </c>
       <c r="D113" s="1">
         <v>113</v>
@@ -5646,13 +5664,13 @@
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="C114" s="1" t="s">
         <v>313</v>
-      </c>
-      <c r="B114" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="C114" s="1" t="s">
-        <v>315</v>
       </c>
       <c r="D114" s="1">
         <v>114</v>
@@ -5663,13 +5681,13 @@
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="C115" s="1" t="s">
         <v>316</v>
-      </c>
-      <c r="B115" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="C115" s="1" t="s">
-        <v>318</v>
       </c>
       <c r="D115" s="1">
         <v>115</v>
@@ -5680,13 +5698,13 @@
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="C116" s="1" t="s">
         <v>319</v>
-      </c>
-      <c r="B116" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="C116" s="1" t="s">
-        <v>321</v>
       </c>
       <c r="D116" s="1">
         <v>116</v>
@@ -5697,13 +5715,13 @@
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="C117" s="1" t="s">
         <v>322</v>
-      </c>
-      <c r="B117" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="C117" s="1" t="s">
-        <v>324</v>
       </c>
       <c r="D117" s="1">
         <v>117</v>
@@ -5714,13 +5732,13 @@
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="C118" s="1" t="s">
         <v>325</v>
-      </c>
-      <c r="B118" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="C118" s="1" t="s">
-        <v>327</v>
       </c>
       <c r="D118" s="1">
         <v>118</v>
@@ -5731,13 +5749,13 @@
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="C119" s="1" t="s">
         <v>328</v>
-      </c>
-      <c r="B119" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="C119" s="1" t="s">
-        <v>330</v>
       </c>
       <c r="D119" s="1">
         <v>119</v>
@@ -5748,13 +5766,13 @@
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="C120" s="1" t="s">
         <v>331</v>
-      </c>
-      <c r="B120" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="C120" s="1" t="s">
-        <v>333</v>
       </c>
       <c r="D120" s="1">
         <v>120</v>
@@ -5765,13 +5783,13 @@
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="C121" s="1" t="s">
         <v>334</v>
-      </c>
-      <c r="B121" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="C121" s="1" t="s">
-        <v>336</v>
       </c>
       <c r="D121" s="1">
         <v>121</v>
@@ -5782,13 +5800,13 @@
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="C122" s="1" t="s">
         <v>337</v>
-      </c>
-      <c r="B122" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="C122" s="1" t="s">
-        <v>339</v>
       </c>
       <c r="D122" s="1">
         <v>122</v>
@@ -5799,13 +5817,13 @@
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="C123" s="1" t="s">
         <v>340</v>
-      </c>
-      <c r="B123" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="C123" s="1" t="s">
-        <v>342</v>
       </c>
       <c r="D123" s="1">
         <v>123</v>
@@ -5816,13 +5834,13 @@
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="C124" s="1" t="s">
         <v>343</v>
-      </c>
-      <c r="B124" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="C124" s="1" t="s">
-        <v>345</v>
       </c>
       <c r="D124" s="1">
         <v>124</v>
@@ -5833,13 +5851,13 @@
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="C125" s="1" t="s">
         <v>346</v>
-      </c>
-      <c r="B125" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="C125" s="1" t="s">
-        <v>348</v>
       </c>
       <c r="D125" s="1">
         <v>125</v>
@@ -5850,13 +5868,13 @@
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="C126" s="1" t="s">
         <v>349</v>
-      </c>
-      <c r="B126" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="C126" s="1" t="s">
-        <v>351</v>
       </c>
       <c r="D126" s="1">
         <v>126</v>
@@ -5867,13 +5885,13 @@
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="C127" s="1" t="s">
         <v>352</v>
-      </c>
-      <c r="B127" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="C127" s="1" t="s">
-        <v>354</v>
       </c>
       <c r="D127" s="1">
         <v>127</v>
@@ -5884,13 +5902,13 @@
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="C128" s="1" t="s">
         <v>355</v>
-      </c>
-      <c r="B128" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="C128" s="1" t="s">
-        <v>357</v>
       </c>
       <c r="D128" s="1">
         <v>128</v>
@@ -5901,13 +5919,13 @@
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C129" s="1" t="s">
         <v>358</v>
-      </c>
-      <c r="B129" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="C129" s="1" t="s">
-        <v>360</v>
       </c>
       <c r="D129" s="1">
         <v>129</v>
@@ -5918,13 +5936,13 @@
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="C130" s="1" t="s">
         <v>361</v>
-      </c>
-      <c r="B130" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="C130" s="1" t="s">
-        <v>363</v>
       </c>
       <c r="D130" s="1">
         <v>130</v>
@@ -5935,13 +5953,13 @@
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="C131" s="1" t="s">
         <v>364</v>
-      </c>
-      <c r="B131" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="C131" s="1" t="s">
-        <v>366</v>
       </c>
       <c r="D131" s="1">
         <v>131</v>
@@ -5952,13 +5970,13 @@
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="C132" s="1" t="s">
         <v>367</v>
-      </c>
-      <c r="B132" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="C132" s="1" t="s">
-        <v>369</v>
       </c>
       <c r="D132" s="1">
         <v>132</v>
@@ -5969,13 +5987,13 @@
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="C133" s="1" t="s">
         <v>370</v>
-      </c>
-      <c r="B133" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="C133" s="1" t="s">
-        <v>372</v>
       </c>
       <c r="D133" s="1">
         <v>133</v>
@@ -5986,13 +6004,13 @@
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="C134" s="1" t="s">
         <v>373</v>
-      </c>
-      <c r="B134" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="C134" s="1" t="s">
-        <v>375</v>
       </c>
       <c r="D134" s="1">
         <v>134</v>
@@ -6003,13 +6021,13 @@
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D135" s="1">
         <v>135</v>
@@ -6020,13 +6038,13 @@
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="C136" s="1" t="s">
         <v>377</v>
-      </c>
-      <c r="B136" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="C136" s="1" t="s">
-        <v>379</v>
       </c>
       <c r="D136" s="1">
         <v>136</v>
@@ -6037,13 +6055,13 @@
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="C137" s="1" t="s">
         <v>380</v>
-      </c>
-      <c r="B137" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="C137" s="1" t="s">
-        <v>382</v>
       </c>
       <c r="D137" s="1">
         <v>137</v>
@@ -6054,13 +6072,13 @@
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="C138" s="1" t="s">
         <v>383</v>
-      </c>
-      <c r="B138" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="C138" s="1" t="s">
-        <v>385</v>
       </c>
       <c r="D138" s="1">
         <v>138</v>
@@ -6071,13 +6089,13 @@
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>388</v>
+        <v>1112</v>
       </c>
       <c r="D139" s="1">
         <v>139</v>
@@ -6088,13 +6106,13 @@
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="D140" s="1">
         <v>140</v>
@@ -6105,13 +6123,13 @@
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="D141" s="1">
         <v>141</v>
@@ -6122,13 +6140,13 @@
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="D142" s="1">
         <v>142</v>
@@ -6139,13 +6157,13 @@
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="D143" s="1">
         <v>143</v>
@@ -6156,13 +6174,13 @@
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>403</v>
+        <v>1113</v>
       </c>
       <c r="D144" s="1">
         <v>144</v>
@@ -6173,13 +6191,13 @@
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="D145" s="1">
         <v>145</v>
@@ -6190,13 +6208,13 @@
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="D146" s="1">
         <v>146</v>
@@ -6207,13 +6225,13 @@
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="D147" s="1">
         <v>147</v>
@@ -6224,13 +6242,13 @@
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="D148" s="1">
         <v>148</v>
@@ -6241,13 +6259,13 @@
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="D149" s="1">
         <v>149</v>
@@ -6258,13 +6276,13 @@
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="D150" s="1">
         <v>150</v>
@@ -6275,13 +6293,13 @@
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="D151" s="1">
         <v>151</v>
@@ -6292,13 +6310,13 @@
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="D152" s="1">
         <v>152</v>
@@ -6309,13 +6327,13 @@
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="D153" s="1">
         <v>153</v>
@@ -6326,13 +6344,13 @@
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="D154" s="1">
         <v>154</v>
@@ -6343,13 +6361,13 @@
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="D155" s="1">
         <v>155</v>
@@ -6360,13 +6378,13 @@
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="D156" s="1">
         <v>156</v>
@@ -6377,13 +6395,13 @@
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="D157" s="1">
         <v>157</v>
@@ -6394,13 +6412,13 @@
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="D158" s="1">
         <v>158</v>
@@ -6411,13 +6429,13 @@
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="D159" s="1">
         <v>159</v>
@@ -6428,13 +6446,13 @@
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="D160" s="1">
         <v>160</v>
@@ -6445,13 +6463,13 @@
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="D161" s="1">
         <v>161</v>
@@ -6462,13 +6480,13 @@
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="D162" s="1">
         <v>162</v>
@@ -6479,13 +6497,13 @@
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="D163" s="1">
         <v>163</v>
@@ -6496,13 +6514,13 @@
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="D164" s="1">
         <v>164</v>
@@ -6513,13 +6531,13 @@
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="D165" s="1">
         <v>165</v>
@@ -6530,13 +6548,13 @@
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="D166" s="1">
         <v>166</v>
@@ -6547,13 +6565,13 @@
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="D167" s="1">
         <v>167</v>
@@ -6564,13 +6582,13 @@
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="D168" s="1">
         <v>168</v>
@@ -6581,13 +6599,13 @@
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="D169" s="1">
         <v>169</v>
@@ -6598,13 +6616,13 @@
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>479</v>
+        <v>1114</v>
       </c>
       <c r="D170" s="1">
         <v>170</v>
@@ -6615,13 +6633,13 @@
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="D171" s="1">
         <v>171</v>
@@ -6632,13 +6650,13 @@
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="D172" s="1">
         <v>172</v>
@@ -6649,13 +6667,13 @@
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="D173" s="1">
         <v>173</v>
@@ -6666,13 +6684,13 @@
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="D174" s="1">
         <v>174</v>
@@ -6683,13 +6701,13 @@
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="D175" s="1">
         <v>175</v>
@@ -6700,13 +6718,13 @@
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>497</v>
+        <v>1115</v>
       </c>
       <c r="D176" s="1">
         <v>176</v>
@@ -6717,13 +6735,13 @@
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="D177" s="1">
         <v>177</v>
@@ -6734,13 +6752,13 @@
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="D178" s="1">
         <v>178</v>
@@ -6751,13 +6769,13 @@
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="D179" s="1">
         <v>179</v>
@@ -6768,13 +6786,13 @@
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="D180" s="1">
         <v>180</v>
@@ -6785,13 +6803,13 @@
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="D181" s="1">
         <v>181</v>
@@ -6802,13 +6820,13 @@
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="D182" s="1">
         <v>182</v>
@@ -6819,13 +6837,13 @@
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="D183" s="1">
         <v>183</v>
@@ -6836,13 +6854,13 @@
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="D184" s="1">
         <v>184</v>
@@ -6853,13 +6871,13 @@
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="D185" s="1">
         <v>185</v>
@@ -6870,13 +6888,13 @@
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="D186" s="1">
         <v>186</v>
@@ -6887,13 +6905,13 @@
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="D187" s="1">
         <v>187</v>
@@ -6904,13 +6922,13 @@
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="D188" s="1">
         <v>188</v>
@@ -6921,13 +6939,13 @@
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="D189" s="1">
         <v>189</v>
@@ -6938,13 +6956,13 @@
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="D190" s="1">
         <v>190</v>
@@ -6955,13 +6973,13 @@
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="D191" s="1">
         <v>191</v>
@@ -6972,13 +6990,13 @@
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="D192" s="1">
         <v>192</v>
@@ -6989,13 +7007,13 @@
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="D193" s="1">
         <v>193</v>
@@ -7006,13 +7024,13 @@
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="D194" s="1">
         <v>194</v>
@@ -7023,13 +7041,13 @@
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="D195" s="1">
         <v>195</v>
@@ -7040,13 +7058,13 @@
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="D196" s="1">
         <v>196</v>
@@ -7057,13 +7075,13 @@
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="D197" s="1">
         <v>197</v>
@@ -7074,13 +7092,13 @@
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="D198" s="1">
         <v>198</v>
@@ -7091,13 +7109,13 @@
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="D199" s="1">
         <v>199</v>
@@ -7108,13 +7126,13 @@
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="D200" s="1">
         <v>200</v>
@@ -7125,13 +7143,13 @@
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="D201" s="1">
         <v>201</v>
@@ -7142,13 +7160,13 @@
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="D202" s="1">
         <v>202</v>
@@ -7159,13 +7177,13 @@
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="D203" s="1">
         <v>203</v>
@@ -7176,13 +7194,13 @@
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
       <c r="D204" s="1">
         <v>204</v>
@@ -7193,13 +7211,13 @@
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="D205" s="1">
         <v>205</v>
@@ -7210,7 +7228,7 @@
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
       <c r="B206" s="1" t="s">
         <v>264</v>
@@ -7227,13 +7245,13 @@
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>1090</v>
+        <v>569</v>
       </c>
       <c r="D207" s="1">
         <v>207</v>
@@ -7244,13 +7262,13 @@
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="D208" s="1">
         <v>208</v>
@@ -7261,13 +7279,13 @@
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="D209" s="1">
         <v>209</v>
@@ -7278,13 +7296,13 @@
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="D210" s="1">
         <v>210</v>
@@ -7295,13 +7313,13 @@
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="D211" s="1">
         <v>211</v>
@@ -7312,13 +7330,13 @@
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="D212" s="1">
         <v>212</v>
@@ -7329,13 +7347,13 @@
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="D213" s="1">
         <v>213</v>
@@ -7346,7 +7364,7 @@
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="B214" s="1" t="s">
         <v>288</v>
@@ -7363,13 +7381,13 @@
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>1091</v>
+        <v>585</v>
       </c>
       <c r="D215" s="1">
         <v>215</v>
@@ -7380,13 +7398,13 @@
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>1092</v>
+        <v>588</v>
       </c>
       <c r="D216" s="1">
         <v>216</v>
@@ -7397,13 +7415,13 @@
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D217" s="1">
         <v>217</v>
@@ -7414,13 +7432,13 @@
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="B218" s="1" t="s">
         <v>291</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>291</v>
+        <v>1109</v>
       </c>
       <c r="D218" s="1">
         <v>218</v>
@@ -7431,13 +7449,13 @@
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>1093</v>
+        <v>593</v>
       </c>
       <c r="D219" s="1">
         <v>219</v>
@@ -7448,13 +7466,13 @@
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="D220" s="1">
         <v>220</v>
@@ -7465,13 +7483,13 @@
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D221" s="1">
         <v>221</v>
@@ -7482,13 +7500,13 @@
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D222" s="1">
         <v>222</v>
@@ -7499,13 +7517,13 @@
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="B223" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="C223" s="1" t="s">
         <v>600</v>
-      </c>
-      <c r="B223" s="1" t="s">
-        <v>601</v>
-      </c>
-      <c r="C223" s="1" t="s">
-        <v>1094</v>
       </c>
       <c r="D223" s="1">
         <v>223</v>
@@ -7516,13 +7534,13 @@
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="B224" s="1" t="s">
         <v>602</v>
       </c>
-      <c r="B224" s="1" t="s">
-        <v>603</v>
-      </c>
       <c r="C224" s="1" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="D224" s="1">
         <v>224</v>
@@ -7533,13 +7551,13 @@
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="B225" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="C225" s="1" t="s">
         <v>604</v>
-      </c>
-      <c r="B225" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="C225" s="1" t="s">
-        <v>1095</v>
       </c>
       <c r="D225" s="1">
         <v>225</v>
@@ -7621,10 +7639,10 @@
         <v>614</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D230" s="1">
         <v>230</v>
@@ -7641,7 +7659,7 @@
         <v>616</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>1096</v>
+        <v>617</v>
       </c>
       <c r="D231" s="1">
         <v>231</v>
@@ -7652,13 +7670,13 @@
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="D232" s="1">
         <v>232</v>
@@ -7669,13 +7687,13 @@
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D233" s="1">
         <v>233</v>
@@ -7686,13 +7704,13 @@
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="D234" s="1">
         <v>234</v>
@@ -7703,13 +7721,13 @@
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="D235" s="1">
         <v>235</v>
@@ -7720,13 +7738,13 @@
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="D236" s="1">
         <v>236</v>
@@ -7737,13 +7755,13 @@
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D237" s="1">
         <v>237</v>
@@ -7754,13 +7772,13 @@
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D238" s="1">
         <v>238</v>
@@ -7771,13 +7789,13 @@
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>1097</v>
+        <v>631</v>
       </c>
       <c r="D239" s="1">
         <v>239</v>
@@ -7788,13 +7806,13 @@
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>1098</v>
+        <v>634</v>
       </c>
       <c r="D240" s="1">
         <v>240</v>
@@ -7805,13 +7823,13 @@
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
-        <v>632</v>
+        <v>635</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D241" s="1">
         <v>241</v>
@@ -7822,13 +7840,13 @@
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
-        <v>633</v>
+        <v>636</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="D242" s="1">
         <v>242</v>
@@ -7839,13 +7857,13 @@
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
-        <v>634</v>
+        <v>637</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="D243" s="1">
         <v>243</v>
@@ -7856,13 +7874,13 @@
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
-        <v>635</v>
+        <v>638</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="D244" s="1">
         <v>244</v>
@@ -7873,13 +7891,13 @@
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
-        <v>636</v>
+        <v>639</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>637</v>
+        <v>640</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>637</v>
+        <v>640</v>
       </c>
       <c r="D245" s="1">
         <v>245</v>
@@ -7890,13 +7908,13 @@
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
-        <v>638</v>
+        <v>641</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="D246" s="1">
         <v>246</v>
@@ -7907,13 +7925,13 @@
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
-        <v>639</v>
+        <v>642</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>640</v>
+        <v>643</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>1099</v>
+        <v>644</v>
       </c>
       <c r="D247" s="1">
         <v>247</v>
@@ -7924,13 +7942,13 @@
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
-        <v>641</v>
+        <v>645</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="D248" s="1">
         <v>248</v>
@@ -7941,13 +7959,13 @@
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249" s="1" t="s">
-        <v>642</v>
+        <v>646</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="D249" s="1">
         <v>249</v>
@@ -7958,13 +7976,13 @@
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
-        <v>643</v>
+        <v>647</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="D250" s="1">
         <v>250</v>
@@ -7975,13 +7993,13 @@
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
-        <v>644</v>
+        <v>648</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="D251" s="1">
         <v>251</v>
@@ -7992,13 +8010,13 @@
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252" s="1" t="s">
-        <v>645</v>
+        <v>649</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="D252" s="1">
         <v>252</v>
@@ -8009,13 +8027,13 @@
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A253" s="1" t="s">
-        <v>646</v>
+        <v>650</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>647</v>
+        <v>651</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>647</v>
+        <v>651</v>
       </c>
       <c r="D253" s="1">
         <v>253</v>
@@ -8026,13 +8044,13 @@
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254" s="1" t="s">
-        <v>648</v>
+        <v>652</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="D254" s="1">
         <v>254</v>
@@ -8043,13 +8061,13 @@
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A255" s="1" t="s">
-        <v>649</v>
+        <v>653</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>650</v>
+        <v>654</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>1100</v>
+        <v>655</v>
       </c>
       <c r="D255" s="1">
         <v>255</v>
@@ -8060,13 +8078,13 @@
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
-        <v>651</v>
+        <v>656</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>652</v>
+        <v>657</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>652</v>
+        <v>657</v>
       </c>
       <c r="D256" s="1">
         <v>256</v>
@@ -8077,13 +8095,13 @@
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A257" s="1" t="s">
-        <v>653</v>
+        <v>658</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>654</v>
+        <v>659</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>655</v>
+        <v>660</v>
       </c>
       <c r="D257" s="1">
         <v>257</v>
@@ -8094,13 +8112,13 @@
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A258" s="1" t="s">
-        <v>656</v>
+        <v>661</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="C258" s="1" t="s">
-        <v>657</v>
+        <v>662</v>
       </c>
       <c r="D258" s="1">
         <v>258</v>
@@ -8111,13 +8129,13 @@
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
-        <v>658</v>
+        <v>663</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>659</v>
+        <v>664</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>659</v>
+        <v>664</v>
       </c>
       <c r="D259" s="1">
         <v>259</v>
@@ -8128,13 +8146,13 @@
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260" s="1" t="s">
-        <v>660</v>
+        <v>665</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>661</v>
+        <v>666</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>661</v>
+        <v>666</v>
       </c>
       <c r="D260" s="1">
         <v>260</v>
@@ -8145,13 +8163,13 @@
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A261" s="1" t="s">
-        <v>662</v>
+        <v>667</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>663</v>
+        <v>668</v>
       </c>
       <c r="C261" s="1" t="s">
-        <v>663</v>
+        <v>668</v>
       </c>
       <c r="D261" s="1">
         <v>261</v>
@@ -8162,13 +8180,13 @@
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
-        <v>664</v>
+        <v>669</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="C262" s="1" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="D262" s="1">
         <v>262</v>
@@ -8179,13 +8197,13 @@
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
-        <v>665</v>
+        <v>670</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>666</v>
+        <v>671</v>
       </c>
       <c r="C263" s="1" t="s">
-        <v>1101</v>
+        <v>672</v>
       </c>
       <c r="D263" s="1">
         <v>263</v>
@@ -8196,13 +8214,13 @@
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264" s="1" t="s">
-        <v>667</v>
+        <v>673</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>668</v>
+        <v>674</v>
       </c>
       <c r="C264" s="1" t="s">
-        <v>668</v>
+        <v>674</v>
       </c>
       <c r="D264" s="1">
         <v>264</v>
@@ -8213,13 +8231,13 @@
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A265" s="1" t="s">
-        <v>669</v>
+        <v>675</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>670</v>
+        <v>676</v>
       </c>
       <c r="C265" s="1" t="s">
-        <v>670</v>
+        <v>676</v>
       </c>
       <c r="D265" s="1">
         <v>265</v>
@@ -8230,13 +8248,13 @@
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
-        <v>671</v>
+        <v>677</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="C266" s="1" t="s">
-        <v>657</v>
+        <v>662</v>
       </c>
       <c r="D266" s="1">
         <v>266</v>
@@ -8247,13 +8265,13 @@
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A267" s="1" t="s">
-        <v>672</v>
+        <v>678</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>673</v>
+        <v>679</v>
       </c>
       <c r="C267" s="1" t="s">
-        <v>1102</v>
+        <v>680</v>
       </c>
       <c r="D267" s="1">
         <v>267</v>
@@ -8264,13 +8282,13 @@
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A268" s="1" t="s">
-        <v>674</v>
+        <v>681</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="C268" s="1" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="D268" s="1">
         <v>268</v>
@@ -8281,13 +8299,13 @@
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A269" s="1" t="s">
-        <v>675</v>
+        <v>682</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>676</v>
+        <v>683</v>
       </c>
       <c r="C269" s="1" t="s">
-        <v>676</v>
+        <v>683</v>
       </c>
       <c r="D269" s="1">
         <v>269</v>
@@ -8298,13 +8316,13 @@
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A270" s="1" t="s">
-        <v>677</v>
+        <v>684</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="C270" s="1" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="D270" s="1">
         <v>270</v>
@@ -8315,13 +8333,13 @@
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A271" s="1" t="s">
-        <v>678</v>
+        <v>685</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>679</v>
+        <v>686</v>
       </c>
       <c r="C271" s="1" t="s">
-        <v>1103</v>
+        <v>687</v>
       </c>
       <c r="D271" s="1">
         <v>271</v>
@@ -8332,13 +8350,13 @@
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A272" s="1" t="s">
-        <v>680</v>
+        <v>688</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>681</v>
+        <v>689</v>
       </c>
       <c r="C272" s="1" t="s">
-        <v>681</v>
+        <v>689</v>
       </c>
       <c r="D272" s="1">
         <v>272</v>
@@ -8349,13 +8367,13 @@
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A273" s="1" t="s">
-        <v>682</v>
+        <v>690</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>683</v>
+        <v>691</v>
       </c>
       <c r="C273" s="1" t="s">
-        <v>683</v>
+        <v>691</v>
       </c>
       <c r="D273" s="1">
         <v>273</v>
@@ -8366,13 +8384,13 @@
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A274" s="1" t="s">
-        <v>684</v>
+        <v>692</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>685</v>
+        <v>693</v>
       </c>
       <c r="C274" s="1" t="s">
-        <v>685</v>
+        <v>693</v>
       </c>
       <c r="D274" s="1">
         <v>274</v>
@@ -8383,13 +8401,13 @@
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A275" s="1" t="s">
-        <v>686</v>
+        <v>694</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="C275" s="1" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="D275" s="1">
         <v>275</v>
@@ -8400,13 +8418,13 @@
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A276" s="1" t="s">
-        <v>687</v>
+        <v>695</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>688</v>
+        <v>696</v>
       </c>
       <c r="C276" s="1" t="s">
-        <v>688</v>
+        <v>696</v>
       </c>
       <c r="D276" s="1">
         <v>276</v>
@@ -8417,13 +8435,13 @@
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A277" s="1" t="s">
-        <v>689</v>
+        <v>697</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>690</v>
+        <v>698</v>
       </c>
       <c r="C277" s="1" t="s">
-        <v>690</v>
+        <v>698</v>
       </c>
       <c r="D277" s="1">
         <v>277</v>
@@ -8434,13 +8452,13 @@
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A278" s="1" t="s">
-        <v>691</v>
+        <v>699</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="C278" s="1" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="D278" s="1">
         <v>278</v>
@@ -8451,13 +8469,13 @@
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A279" s="1" t="s">
-        <v>692</v>
+        <v>700</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>693</v>
+        <v>701</v>
       </c>
       <c r="C279" s="1" t="s">
-        <v>1104</v>
+        <v>702</v>
       </c>
       <c r="D279" s="1">
         <v>279</v>
@@ -8468,13 +8486,13 @@
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A280" s="1" t="s">
-        <v>694</v>
+        <v>703</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>695</v>
+        <v>704</v>
       </c>
       <c r="C280" s="1" t="s">
-        <v>695</v>
+        <v>704</v>
       </c>
       <c r="D280" s="1">
         <v>280</v>
@@ -8485,13 +8503,13 @@
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A281" s="1" t="s">
-        <v>696</v>
+        <v>705</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>697</v>
+        <v>706</v>
       </c>
       <c r="C281" s="1" t="s">
-        <v>697</v>
+        <v>706</v>
       </c>
       <c r="D281" s="1">
         <v>281</v>
@@ -8502,13 +8520,13 @@
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A282" s="1" t="s">
-        <v>698</v>
+        <v>707</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>699</v>
+        <v>708</v>
       </c>
       <c r="C282" s="1" t="s">
-        <v>699</v>
+        <v>708</v>
       </c>
       <c r="D282" s="1">
         <v>282</v>
@@ -8519,13 +8537,13 @@
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A283" s="1" t="s">
-        <v>700</v>
+        <v>709</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>701</v>
+        <v>710</v>
       </c>
       <c r="C283" s="1" t="s">
-        <v>701</v>
+        <v>710</v>
       </c>
       <c r="D283" s="1">
         <v>283</v>
@@ -8536,13 +8554,13 @@
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A284" s="1" t="s">
-        <v>702</v>
+        <v>711</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>703</v>
+        <v>712</v>
       </c>
       <c r="C284" s="1" t="s">
-        <v>703</v>
+        <v>712</v>
       </c>
       <c r="D284" s="1">
         <v>284</v>
@@ -8553,13 +8571,13 @@
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A285" s="1" t="s">
-        <v>704</v>
+        <v>713</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>705</v>
+        <v>714</v>
       </c>
       <c r="C285" s="1" t="s">
-        <v>705</v>
+        <v>714</v>
       </c>
       <c r="D285" s="1">
         <v>285</v>
@@ -8570,13 +8588,13 @@
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A286" s="1" t="s">
-        <v>706</v>
+        <v>715</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="C286" s="1" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="D286" s="1">
         <v>286</v>
@@ -8587,13 +8605,13 @@
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A287" s="1" t="s">
-        <v>707</v>
+        <v>716</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>708</v>
+        <v>717</v>
       </c>
       <c r="C287" s="1" t="s">
-        <v>1105</v>
+        <v>718</v>
       </c>
       <c r="D287" s="1">
         <v>287</v>
@@ -8604,13 +8622,13 @@
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A288" s="1" t="s">
-        <v>709</v>
+        <v>719</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>710</v>
+        <v>720</v>
       </c>
       <c r="C288" s="1" t="s">
-        <v>710</v>
+        <v>720</v>
       </c>
       <c r="D288" s="1">
         <v>288</v>
@@ -8621,13 +8639,13 @@
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A289" s="1" t="s">
-        <v>711</v>
+        <v>721</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>712</v>
+        <v>722</v>
       </c>
       <c r="C289" s="1" t="s">
-        <v>712</v>
+        <v>722</v>
       </c>
       <c r="D289" s="1">
         <v>289</v>
@@ -8638,13 +8656,13 @@
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A290" s="1" t="s">
-        <v>713</v>
+        <v>723</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="C290" s="1" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="D290" s="1">
         <v>290</v>
@@ -8655,13 +8673,13 @@
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A291" s="1" t="s">
-        <v>714</v>
+        <v>724</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>715</v>
+        <v>725</v>
       </c>
       <c r="C291" s="1" t="s">
-        <v>715</v>
+        <v>725</v>
       </c>
       <c r="D291" s="1">
         <v>291</v>
@@ -8672,13 +8690,13 @@
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A292" s="1" t="s">
-        <v>716</v>
+        <v>726</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>717</v>
+        <v>727</v>
       </c>
       <c r="C292" s="1" t="s">
-        <v>717</v>
+        <v>727</v>
       </c>
       <c r="D292" s="1">
         <v>292</v>
@@ -8689,13 +8707,13 @@
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A293" s="1" t="s">
-        <v>718</v>
+        <v>728</v>
       </c>
       <c r="B293" s="1" t="s">
-        <v>719</v>
+        <v>729</v>
       </c>
       <c r="C293" s="1" t="s">
-        <v>719</v>
+        <v>729</v>
       </c>
       <c r="D293" s="1">
         <v>293</v>
@@ -8706,13 +8724,13 @@
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A294" s="1" t="s">
-        <v>720</v>
+        <v>730</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>721</v>
+        <v>731</v>
       </c>
       <c r="C294" s="1" t="s">
-        <v>721</v>
+        <v>731</v>
       </c>
       <c r="D294" s="1">
         <v>294</v>
@@ -8723,13 +8741,13 @@
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A295" s="1" t="s">
-        <v>722</v>
+        <v>732</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="C295" s="1" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="D295" s="1">
         <v>295</v>
@@ -8740,13 +8758,13 @@
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A296" s="1" t="s">
-        <v>723</v>
+        <v>733</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>724</v>
+        <v>734</v>
       </c>
       <c r="C296" s="1" t="s">
-        <v>1106</v>
+        <v>735</v>
       </c>
       <c r="D296" s="1">
         <v>296</v>
@@ -8757,13 +8775,13 @@
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A297" s="1" t="s">
-        <v>725</v>
+        <v>736</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>726</v>
+        <v>737</v>
       </c>
       <c r="C297" s="1" t="s">
-        <v>726</v>
+        <v>737</v>
       </c>
       <c r="D297" s="1">
         <v>297</v>
@@ -8774,13 +8792,13 @@
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A298" s="1" t="s">
-        <v>727</v>
+        <v>738</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>728</v>
+        <v>739</v>
       </c>
       <c r="C298" s="1" t="s">
-        <v>1107</v>
+        <v>740</v>
       </c>
       <c r="D298" s="1">
         <v>298</v>
@@ -8791,13 +8809,13 @@
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A299" s="1" t="s">
-        <v>729</v>
+        <v>741</v>
       </c>
       <c r="B299" s="1" t="s">
-        <v>730</v>
+        <v>742</v>
       </c>
       <c r="C299" s="1" t="s">
-        <v>730</v>
+        <v>742</v>
       </c>
       <c r="D299" s="1">
         <v>299</v>
@@ -8808,13 +8826,13 @@
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A300" s="1" t="s">
-        <v>731</v>
+        <v>743</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>732</v>
+        <v>744</v>
       </c>
       <c r="C300" s="1" t="s">
-        <v>732</v>
+        <v>744</v>
       </c>
       <c r="D300" s="1">
         <v>300</v>
@@ -8825,13 +8843,13 @@
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A301" s="1" t="s">
-        <v>733</v>
+        <v>745</v>
       </c>
       <c r="B301" s="1" t="s">
-        <v>734</v>
+        <v>746</v>
       </c>
       <c r="C301" s="1" t="s">
-        <v>734</v>
+        <v>746</v>
       </c>
       <c r="D301" s="1">
         <v>301</v>
@@ -8842,13 +8860,13 @@
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A302" s="1" t="s">
-        <v>735</v>
+        <v>747</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>736</v>
+        <v>748</v>
       </c>
       <c r="C302" s="1" t="s">
-        <v>736</v>
+        <v>748</v>
       </c>
       <c r="D302" s="1">
         <v>302</v>
@@ -8859,13 +8877,13 @@
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A303" s="1" t="s">
-        <v>737</v>
+        <v>749</v>
       </c>
       <c r="B303" s="1" t="s">
-        <v>738</v>
+        <v>750</v>
       </c>
       <c r="C303" s="1" t="s">
-        <v>738</v>
+        <v>750</v>
       </c>
       <c r="D303" s="1">
         <v>303</v>
@@ -8876,13 +8894,13 @@
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A304" s="1" t="s">
-        <v>739</v>
+        <v>751</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>740</v>
+        <v>752</v>
       </c>
       <c r="C304" s="1" t="s">
-        <v>740</v>
+        <v>752</v>
       </c>
       <c r="D304" s="1">
         <v>304</v>
@@ -8893,13 +8911,13 @@
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A305" s="1" t="s">
-        <v>741</v>
+        <v>753</v>
       </c>
       <c r="B305" s="1" t="s">
-        <v>742</v>
+        <v>754</v>
       </c>
       <c r="C305" s="1" t="s">
-        <v>742</v>
+        <v>754</v>
       </c>
       <c r="D305" s="1">
         <v>305</v>
@@ -8910,13 +8928,13 @@
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A306" s="1" t="s">
-        <v>743</v>
+        <v>755</v>
       </c>
       <c r="B306" s="1" t="s">
-        <v>744</v>
+        <v>756</v>
       </c>
       <c r="C306" s="1" t="s">
-        <v>744</v>
+        <v>756</v>
       </c>
       <c r="D306" s="1">
         <v>306</v>
@@ -8927,13 +8945,13 @@
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A307" s="1" t="s">
-        <v>745</v>
+        <v>757</v>
       </c>
       <c r="B307" s="1" t="s">
-        <v>746</v>
+        <v>758</v>
       </c>
       <c r="C307" s="1" t="s">
-        <v>746</v>
+        <v>758</v>
       </c>
       <c r="D307" s="1">
         <v>307</v>
@@ -8944,13 +8962,13 @@
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A308" s="1" t="s">
-        <v>747</v>
+        <v>759</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>748</v>
+        <v>760</v>
       </c>
       <c r="C308" s="1" t="s">
-        <v>748</v>
+        <v>760</v>
       </c>
       <c r="D308" s="1">
         <v>308</v>
@@ -8961,13 +8979,13 @@
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A309" s="1" t="s">
-        <v>749</v>
+        <v>761</v>
       </c>
       <c r="B309" s="1" t="s">
-        <v>750</v>
+        <v>762</v>
       </c>
       <c r="C309" s="1" t="s">
-        <v>750</v>
+        <v>762</v>
       </c>
       <c r="D309" s="1">
         <v>309</v>
@@ -8978,13 +8996,13 @@
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A310" s="1" t="s">
-        <v>751</v>
+        <v>763</v>
       </c>
       <c r="B310" s="1" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="C310" s="1" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="D310" s="1">
         <v>310</v>
@@ -8995,13 +9013,13 @@
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A311" s="1" t="s">
-        <v>752</v>
+        <v>764</v>
       </c>
       <c r="B311" s="1" t="s">
-        <v>753</v>
+        <v>765</v>
       </c>
       <c r="C311" s="1" t="s">
-        <v>753</v>
+        <v>765</v>
       </c>
       <c r="D311" s="1">
         <v>311</v>
@@ -9012,13 +9030,13 @@
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A312" s="1" t="s">
-        <v>754</v>
+        <v>766</v>
       </c>
       <c r="B312" s="1" t="s">
-        <v>755</v>
+        <v>767</v>
       </c>
       <c r="C312" s="1" t="s">
-        <v>755</v>
+        <v>767</v>
       </c>
       <c r="D312" s="1">
         <v>312</v>
@@ -9029,13 +9047,13 @@
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A313" s="1" t="s">
-        <v>756</v>
+        <v>768</v>
       </c>
       <c r="B313" s="1" t="s">
-        <v>757</v>
+        <v>769</v>
       </c>
       <c r="C313" s="1" t="s">
-        <v>757</v>
+        <v>769</v>
       </c>
       <c r="D313" s="1">
         <v>313</v>
@@ -9046,13 +9064,13 @@
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A314" s="1" t="s">
-        <v>758</v>
+        <v>770</v>
       </c>
       <c r="B314" s="1" t="s">
-        <v>759</v>
+        <v>771</v>
       </c>
       <c r="C314" s="1" t="s">
-        <v>759</v>
+        <v>771</v>
       </c>
       <c r="D314" s="1">
         <v>314</v>
@@ -9063,13 +9081,13 @@
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A315" s="1" t="s">
-        <v>760</v>
+        <v>772</v>
       </c>
       <c r="B315" s="1" t="s">
-        <v>761</v>
+        <v>773</v>
       </c>
       <c r="C315" s="1" t="s">
-        <v>761</v>
+        <v>773</v>
       </c>
       <c r="D315" s="1">
         <v>315</v>
@@ -9080,13 +9098,13 @@
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A316" s="1" t="s">
-        <v>762</v>
+        <v>774</v>
       </c>
       <c r="B316" s="1" t="s">
-        <v>763</v>
+        <v>775</v>
       </c>
       <c r="C316" s="1" t="s">
-        <v>763</v>
+        <v>775</v>
       </c>
       <c r="D316" s="1">
         <v>316</v>
@@ -9097,13 +9115,13 @@
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A317" s="1" t="s">
-        <v>764</v>
+        <v>776</v>
       </c>
       <c r="B317" s="1" t="s">
-        <v>765</v>
+        <v>777</v>
       </c>
       <c r="C317" s="1" t="s">
-        <v>765</v>
+        <v>777</v>
       </c>
       <c r="D317" s="1">
         <v>317</v>
@@ -9114,13 +9132,13 @@
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A318" s="1" t="s">
-        <v>766</v>
+        <v>778</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>767</v>
+        <v>779</v>
       </c>
       <c r="C318" s="1" t="s">
-        <v>767</v>
+        <v>779</v>
       </c>
       <c r="D318" s="1">
         <v>318</v>
@@ -9131,13 +9149,13 @@
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A319" s="1" t="s">
-        <v>768</v>
+        <v>780</v>
       </c>
       <c r="B319" s="1" t="s">
-        <v>769</v>
+        <v>781</v>
       </c>
       <c r="C319" s="1" t="s">
-        <v>769</v>
+        <v>781</v>
       </c>
       <c r="D319" s="1">
         <v>319</v>
@@ -9148,13 +9166,13 @@
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A320" s="1" t="s">
-        <v>770</v>
+        <v>782</v>
       </c>
       <c r="B320" s="1" t="s">
-        <v>771</v>
+        <v>783</v>
       </c>
       <c r="C320" s="1" t="s">
-        <v>771</v>
+        <v>783</v>
       </c>
       <c r="D320" s="1">
         <v>320</v>
@@ -9165,13 +9183,13 @@
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A321" s="1" t="s">
-        <v>772</v>
+        <v>784</v>
       </c>
       <c r="B321" s="1" t="s">
-        <v>773</v>
+        <v>785</v>
       </c>
       <c r="C321" s="1" t="s">
-        <v>773</v>
+        <v>785</v>
       </c>
       <c r="D321" s="1">
         <v>321</v>
@@ -9182,13 +9200,13 @@
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A322" s="1" t="s">
-        <v>774</v>
+        <v>786</v>
       </c>
       <c r="B322" s="1" t="s">
-        <v>775</v>
+        <v>787</v>
       </c>
       <c r="C322" s="1" t="s">
-        <v>775</v>
+        <v>787</v>
       </c>
       <c r="D322" s="1">
         <v>322</v>
@@ -9199,13 +9217,13 @@
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A323" s="1" t="s">
-        <v>776</v>
+        <v>788</v>
       </c>
       <c r="B323" s="1" t="s">
-        <v>777</v>
+        <v>789</v>
       </c>
       <c r="C323" s="1" t="s">
-        <v>777</v>
+        <v>789</v>
       </c>
       <c r="D323" s="1">
         <v>323</v>
@@ -9216,13 +9234,13 @@
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A324" s="1" t="s">
-        <v>778</v>
+        <v>790</v>
       </c>
       <c r="B324" s="1" t="s">
-        <v>779</v>
+        <v>791</v>
       </c>
       <c r="C324" s="1" t="s">
-        <v>779</v>
+        <v>791</v>
       </c>
       <c r="D324" s="1">
         <v>324</v>
@@ -9233,13 +9251,13 @@
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A325" s="1" t="s">
-        <v>780</v>
+        <v>792</v>
       </c>
       <c r="B325" s="1" t="s">
-        <v>781</v>
+        <v>793</v>
       </c>
       <c r="C325" s="1" t="s">
-        <v>781</v>
+        <v>793</v>
       </c>
       <c r="D325" s="1">
         <v>325</v>
@@ -9250,13 +9268,13 @@
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A326" s="1" t="s">
-        <v>782</v>
+        <v>794</v>
       </c>
       <c r="B326" s="1" t="s">
-        <v>783</v>
+        <v>795</v>
       </c>
       <c r="C326" s="1" t="s">
-        <v>783</v>
+        <v>795</v>
       </c>
       <c r="D326" s="1">
         <v>326</v>
@@ -9267,13 +9285,13 @@
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A327" s="1" t="s">
-        <v>784</v>
+        <v>796</v>
       </c>
       <c r="B327" s="1" t="s">
-        <v>785</v>
+        <v>797</v>
       </c>
       <c r="C327" s="1" t="s">
-        <v>785</v>
+        <v>797</v>
       </c>
       <c r="D327" s="1">
         <v>327</v>
@@ -9284,13 +9302,13 @@
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A328" s="1" t="s">
-        <v>786</v>
+        <v>798</v>
       </c>
       <c r="B328" s="1" t="s">
-        <v>787</v>
+        <v>799</v>
       </c>
       <c r="C328" s="1" t="s">
-        <v>787</v>
+        <v>799</v>
       </c>
       <c r="D328" s="1">
         <v>328</v>
@@ -9301,13 +9319,13 @@
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A329" s="1" t="s">
-        <v>788</v>
+        <v>800</v>
       </c>
       <c r="B329" s="1" t="s">
-        <v>789</v>
+        <v>801</v>
       </c>
       <c r="C329" s="1" t="s">
-        <v>789</v>
+        <v>801</v>
       </c>
       <c r="D329" s="1">
         <v>329</v>
@@ -9318,13 +9336,13 @@
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A330" s="1" t="s">
-        <v>790</v>
+        <v>802</v>
       </c>
       <c r="B330" s="1" t="s">
-        <v>791</v>
+        <v>803</v>
       </c>
       <c r="C330" s="1" t="s">
-        <v>791</v>
+        <v>803</v>
       </c>
       <c r="D330" s="1">
         <v>330</v>
@@ -9335,13 +9353,13 @@
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A331" s="1" t="s">
-        <v>792</v>
+        <v>804</v>
       </c>
       <c r="B331" s="1" t="s">
-        <v>793</v>
+        <v>805</v>
       </c>
       <c r="C331" s="1" t="s">
-        <v>794</v>
+        <v>806</v>
       </c>
       <c r="D331" s="1">
         <v>331</v>
@@ -9352,13 +9370,13 @@
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A332" s="1" t="s">
-        <v>795</v>
+        <v>807</v>
       </c>
       <c r="B332" s="1" t="s">
-        <v>796</v>
+        <v>808</v>
       </c>
       <c r="C332" s="1" t="s">
-        <v>1108</v>
+        <v>809</v>
       </c>
       <c r="D332" s="1">
         <v>332</v>
@@ -9369,13 +9387,13 @@
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A333" s="1" t="s">
-        <v>797</v>
+        <v>810</v>
       </c>
       <c r="B333" s="1" t="s">
-        <v>798</v>
+        <v>811</v>
       </c>
       <c r="C333" s="1" t="s">
-        <v>798</v>
+        <v>1116</v>
       </c>
       <c r="D333" s="1">
         <v>333</v>
@@ -9386,7 +9404,7 @@
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A334" s="1" t="s">
-        <v>799</v>
+        <v>812</v>
       </c>
       <c r="B334" s="1" t="s">
         <v>149</v>
@@ -9403,13 +9421,13 @@
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A335" s="1" t="s">
-        <v>800</v>
+        <v>813</v>
       </c>
       <c r="B335" s="1" t="s">
         <v>155</v>
       </c>
       <c r="C335" s="1" t="s">
-        <v>801</v>
+        <v>814</v>
       </c>
       <c r="D335" s="1">
         <v>335</v>
@@ -9420,13 +9438,13 @@
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A336" s="1" t="s">
-        <v>802</v>
+        <v>815</v>
       </c>
       <c r="B336" s="1" t="s">
-        <v>803</v>
+        <v>816</v>
       </c>
       <c r="C336" s="1" t="s">
-        <v>803</v>
+        <v>816</v>
       </c>
       <c r="D336" s="1">
         <v>336</v>
@@ -9437,7 +9455,7 @@
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A337" s="1" t="s">
-        <v>804</v>
+        <v>817</v>
       </c>
       <c r="B337" s="1" t="s">
         <v>69</v>
@@ -9454,7 +9472,7 @@
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A338" s="1" t="s">
-        <v>805</v>
+        <v>818</v>
       </c>
       <c r="B338" s="1" t="s">
         <v>170</v>
@@ -9471,13 +9489,13 @@
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A339" s="1" t="s">
-        <v>806</v>
+        <v>819</v>
       </c>
       <c r="B339" s="1" t="s">
-        <v>807</v>
+        <v>820</v>
       </c>
       <c r="C339" s="1" t="s">
-        <v>1089</v>
+        <v>821</v>
       </c>
       <c r="D339" s="1">
         <v>339</v>
@@ -9488,7 +9506,7 @@
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A340" s="1" t="s">
-        <v>808</v>
+        <v>822</v>
       </c>
       <c r="B340" s="1" t="s">
         <v>152</v>
@@ -9505,13 +9523,13 @@
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A341" s="1" t="s">
-        <v>809</v>
+        <v>823</v>
       </c>
       <c r="B341" s="1" t="s">
-        <v>810</v>
+        <v>824</v>
       </c>
       <c r="C341" s="1" t="s">
-        <v>810</v>
+        <v>824</v>
       </c>
       <c r="D341" s="1">
         <v>341</v>
@@ -9522,7 +9540,7 @@
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A342" s="1" t="s">
-        <v>811</v>
+        <v>825</v>
       </c>
       <c r="B342" s="1" t="s">
         <v>66</v>
@@ -9539,7 +9557,7 @@
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A343" s="1" t="s">
-        <v>812</v>
+        <v>826</v>
       </c>
       <c r="B343" s="1" t="s">
         <v>167</v>
@@ -9556,13 +9574,13 @@
     </row>
     <row r="344" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A344" s="1" t="s">
-        <v>813</v>
+        <v>827</v>
       </c>
       <c r="B344" s="1" t="s">
-        <v>814</v>
+        <v>828</v>
       </c>
       <c r="C344" s="1" t="s">
-        <v>814</v>
+        <v>828</v>
       </c>
       <c r="D344" s="1">
         <v>344</v>
@@ -9573,13 +9591,13 @@
     </row>
     <row r="345" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A345" s="1" t="s">
-        <v>815</v>
+        <v>829</v>
       </c>
       <c r="B345" s="1" t="s">
-        <v>816</v>
+        <v>830</v>
       </c>
       <c r="C345" s="1" t="s">
-        <v>816</v>
+        <v>1117</v>
       </c>
       <c r="D345" s="1">
         <v>345</v>
@@ -9590,13 +9608,13 @@
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A346" s="1" t="s">
-        <v>817</v>
+        <v>831</v>
       </c>
       <c r="B346" s="1" t="s">
-        <v>818</v>
+        <v>832</v>
       </c>
       <c r="C346" s="1" t="s">
-        <v>818</v>
+        <v>1118</v>
       </c>
       <c r="D346" s="1">
         <v>346</v>
@@ -9607,13 +9625,13 @@
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A347" s="1" t="s">
-        <v>819</v>
+        <v>833</v>
       </c>
       <c r="B347" s="1" t="s">
-        <v>820</v>
+        <v>834</v>
       </c>
       <c r="C347" s="1" t="s">
-        <v>820</v>
+        <v>1119</v>
       </c>
       <c r="D347" s="1">
         <v>347</v>
@@ -9624,13 +9642,13 @@
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A348" s="1" t="s">
-        <v>821</v>
+        <v>835</v>
       </c>
       <c r="B348" s="1" t="s">
-        <v>822</v>
+        <v>836</v>
       </c>
       <c r="C348" s="1" t="s">
-        <v>822</v>
+        <v>836</v>
       </c>
       <c r="D348" s="1">
         <v>348</v>
@@ -9641,13 +9659,13 @@
     </row>
     <row r="349" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A349" s="1" t="s">
-        <v>823</v>
+        <v>837</v>
       </c>
       <c r="B349" s="1" t="s">
-        <v>824</v>
+        <v>838</v>
       </c>
       <c r="C349" s="1" t="s">
-        <v>824</v>
+        <v>838</v>
       </c>
       <c r="D349" s="1">
         <v>349</v>
@@ -9658,13 +9676,13 @@
     </row>
     <row r="350" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A350" s="1" t="s">
-        <v>825</v>
+        <v>839</v>
       </c>
       <c r="B350" s="1" t="s">
-        <v>826</v>
+        <v>840</v>
       </c>
       <c r="C350" s="1" t="s">
-        <v>826</v>
+        <v>840</v>
       </c>
       <c r="D350" s="1">
         <v>350</v>
@@ -9675,13 +9693,13 @@
     </row>
     <row r="351" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A351" s="1" t="s">
-        <v>827</v>
+        <v>841</v>
       </c>
       <c r="B351" s="1" t="s">
-        <v>828</v>
+        <v>842</v>
       </c>
       <c r="C351" s="1" t="s">
-        <v>828</v>
+        <v>842</v>
       </c>
       <c r="D351" s="1">
         <v>351</v>
@@ -9692,13 +9710,13 @@
     </row>
     <row r="352" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A352" s="1" t="s">
-        <v>829</v>
+        <v>843</v>
       </c>
       <c r="B352" s="1" t="s">
-        <v>830</v>
+        <v>844</v>
       </c>
       <c r="C352" s="1" t="s">
-        <v>830</v>
+        <v>844</v>
       </c>
       <c r="D352" s="1">
         <v>352</v>
@@ -9709,13 +9727,13 @@
     </row>
     <row r="353" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A353" s="1" t="s">
-        <v>831</v>
+        <v>845</v>
       </c>
       <c r="B353" s="1" t="s">
-        <v>832</v>
+        <v>846</v>
       </c>
       <c r="C353" s="1" t="s">
-        <v>832</v>
+        <v>846</v>
       </c>
       <c r="D353" s="1">
         <v>353</v>
@@ -9726,13 +9744,13 @@
     </row>
     <row r="354" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A354" s="1" t="s">
-        <v>833</v>
+        <v>847</v>
       </c>
       <c r="B354" s="1" t="s">
-        <v>834</v>
+        <v>848</v>
       </c>
       <c r="C354" s="1" t="s">
-        <v>834</v>
+        <v>848</v>
       </c>
       <c r="D354" s="1">
         <v>354</v>
@@ -9743,13 +9761,13 @@
     </row>
     <row r="355" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A355" s="1" t="s">
-        <v>835</v>
+        <v>849</v>
       </c>
       <c r="B355" s="1" t="s">
-        <v>836</v>
+        <v>850</v>
       </c>
       <c r="C355" s="1" t="s">
-        <v>836</v>
+        <v>850</v>
       </c>
       <c r="D355" s="1">
         <v>355</v>
@@ -9760,13 +9778,13 @@
     </row>
     <row r="356" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A356" s="1" t="s">
-        <v>837</v>
+        <v>851</v>
       </c>
       <c r="B356" s="1" t="s">
-        <v>838</v>
+        <v>852</v>
       </c>
       <c r="C356" s="1" t="s">
-        <v>838</v>
+        <v>852</v>
       </c>
       <c r="D356" s="1">
         <v>356</v>
@@ -9777,13 +9795,13 @@
     </row>
     <row r="357" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A357" s="1" t="s">
-        <v>839</v>
+        <v>853</v>
       </c>
       <c r="B357" s="1" t="s">
-        <v>840</v>
+        <v>854</v>
       </c>
       <c r="C357" s="1" t="s">
-        <v>840</v>
+        <v>854</v>
       </c>
       <c r="D357" s="1">
         <v>357</v>
@@ -9794,13 +9812,13 @@
     </row>
     <row r="358" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A358" s="1" t="s">
-        <v>841</v>
+        <v>855</v>
       </c>
       <c r="B358" s="1" t="s">
-        <v>842</v>
+        <v>856</v>
       </c>
       <c r="C358" s="1" t="s">
-        <v>842</v>
+        <v>856</v>
       </c>
       <c r="D358" s="1">
         <v>358</v>
@@ -9811,13 +9829,13 @@
     </row>
     <row r="359" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A359" s="1" t="s">
-        <v>843</v>
+        <v>857</v>
       </c>
       <c r="B359" s="1" t="s">
-        <v>844</v>
+        <v>858</v>
       </c>
       <c r="C359" s="1" t="s">
-        <v>1109</v>
+        <v>859</v>
       </c>
       <c r="D359" s="1">
         <v>359</v>
@@ -9828,13 +9846,13 @@
     </row>
     <row r="360" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A360" s="1" t="s">
-        <v>845</v>
+        <v>860</v>
       </c>
       <c r="B360" s="1" t="s">
-        <v>846</v>
+        <v>861</v>
       </c>
       <c r="C360" s="1" t="s">
-        <v>846</v>
+        <v>861</v>
       </c>
       <c r="D360" s="1">
         <v>360</v>
@@ -9845,13 +9863,13 @@
     </row>
     <row r="361" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A361" s="1" t="s">
-        <v>847</v>
+        <v>862</v>
       </c>
       <c r="B361" s="1" t="s">
-        <v>848</v>
+        <v>863</v>
       </c>
       <c r="C361" s="1" t="s">
-        <v>848</v>
+        <v>863</v>
       </c>
       <c r="D361" s="1">
         <v>361</v>
@@ -9862,13 +9880,13 @@
     </row>
     <row r="362" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A362" s="1" t="s">
-        <v>849</v>
+        <v>864</v>
       </c>
       <c r="B362" s="1" t="s">
-        <v>850</v>
+        <v>865</v>
       </c>
       <c r="C362" s="1" t="s">
-        <v>850</v>
+        <v>1120</v>
       </c>
       <c r="D362" s="1">
         <v>362</v>
@@ -9879,13 +9897,13 @@
     </row>
     <row r="363" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A363" s="1" t="s">
-        <v>851</v>
+        <v>866</v>
       </c>
       <c r="B363" s="1" t="s">
-        <v>852</v>
+        <v>867</v>
       </c>
       <c r="C363" s="1" t="s">
-        <v>852</v>
+        <v>867</v>
       </c>
       <c r="D363" s="1">
         <v>363</v>
@@ -9896,13 +9914,13 @@
     </row>
     <row r="364" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A364" s="1" t="s">
-        <v>853</v>
+        <v>868</v>
       </c>
       <c r="B364" s="1" t="s">
-        <v>854</v>
+        <v>869</v>
       </c>
       <c r="C364" s="1" t="s">
-        <v>1110</v>
+        <v>870</v>
       </c>
       <c r="D364" s="1">
         <v>364</v>
@@ -9913,13 +9931,13 @@
     </row>
     <row r="365" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A365" s="1" t="s">
-        <v>855</v>
+        <v>871</v>
       </c>
       <c r="B365" s="1" t="s">
-        <v>856</v>
+        <v>872</v>
       </c>
       <c r="C365" s="1" t="s">
-        <v>856</v>
+        <v>872</v>
       </c>
       <c r="D365" s="1">
         <v>365</v>
@@ -9930,13 +9948,13 @@
     </row>
     <row r="366" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A366" s="1" t="s">
-        <v>857</v>
+        <v>873</v>
       </c>
       <c r="B366" s="1" t="s">
-        <v>858</v>
+        <v>874</v>
       </c>
       <c r="C366" s="1" t="s">
-        <v>858</v>
+        <v>874</v>
       </c>
       <c r="D366" s="1">
         <v>366</v>
@@ -9947,13 +9965,13 @@
     </row>
     <row r="367" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A367" s="1" t="s">
-        <v>859</v>
+        <v>875</v>
       </c>
       <c r="B367" s="1" t="s">
-        <v>860</v>
+        <v>876</v>
       </c>
       <c r="C367" s="1" t="s">
-        <v>860</v>
+        <v>876</v>
       </c>
       <c r="D367" s="1">
         <v>367</v>
@@ -9964,13 +9982,13 @@
     </row>
     <row r="368" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A368" s="1" t="s">
-        <v>861</v>
+        <v>877</v>
       </c>
       <c r="B368" s="1" t="s">
-        <v>862</v>
+        <v>878</v>
       </c>
       <c r="C368" s="1" t="s">
-        <v>863</v>
+        <v>879</v>
       </c>
       <c r="D368" s="1">
         <v>368</v>
@@ -9981,13 +9999,13 @@
     </row>
     <row r="369" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A369" s="1" t="s">
-        <v>864</v>
+        <v>880</v>
       </c>
       <c r="B369" s="1" t="s">
-        <v>865</v>
+        <v>881</v>
       </c>
       <c r="C369" s="1" t="s">
-        <v>1111</v>
+        <v>882</v>
       </c>
       <c r="D369" s="1">
         <v>369</v>
@@ -9998,13 +10016,13 @@
     </row>
     <row r="370" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A370" s="1" t="s">
-        <v>866</v>
+        <v>883</v>
       </c>
       <c r="B370" s="1" t="s">
-        <v>867</v>
+        <v>884</v>
       </c>
       <c r="C370" s="1" t="s">
-        <v>867</v>
+        <v>884</v>
       </c>
       <c r="D370" s="1">
         <v>370</v>
@@ -10015,13 +10033,13 @@
     </row>
     <row r="371" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A371" s="1" t="s">
-        <v>868</v>
+        <v>885</v>
       </c>
       <c r="B371" s="1" t="s">
-        <v>869</v>
+        <v>886</v>
       </c>
       <c r="C371" s="1" t="s">
-        <v>869</v>
+        <v>886</v>
       </c>
       <c r="D371" s="1">
         <v>371</v>
@@ -10032,13 +10050,13 @@
     </row>
     <row r="372" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A372" s="1" t="s">
-        <v>870</v>
+        <v>887</v>
       </c>
       <c r="B372" s="1" t="s">
         <v>155</v>
       </c>
       <c r="C372" s="1" t="s">
-        <v>801</v>
+        <v>814</v>
       </c>
       <c r="D372" s="1">
         <v>372</v>
@@ -10049,13 +10067,13 @@
     </row>
     <row r="373" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A373" s="1" t="s">
-        <v>871</v>
+        <v>888</v>
       </c>
       <c r="B373" s="1" t="s">
-        <v>803</v>
+        <v>816</v>
       </c>
       <c r="C373" s="1" t="s">
-        <v>803</v>
+        <v>816</v>
       </c>
       <c r="D373" s="1">
         <v>373</v>
@@ -10066,7 +10084,7 @@
     </row>
     <row r="374" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A374" s="1" t="s">
-        <v>872</v>
+        <v>889</v>
       </c>
       <c r="B374" s="1" t="s">
         <v>69</v>
@@ -10083,7 +10101,7 @@
     </row>
     <row r="375" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A375" s="1" t="s">
-        <v>873</v>
+        <v>890</v>
       </c>
       <c r="B375" s="1" t="s">
         <v>170</v>
@@ -10100,13 +10118,13 @@
     </row>
     <row r="376" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A376" s="1" t="s">
-        <v>874</v>
+        <v>891</v>
       </c>
       <c r="B376" s="1" t="s">
-        <v>807</v>
+        <v>820</v>
       </c>
       <c r="C376" s="1" t="s">
-        <v>1089</v>
+        <v>821</v>
       </c>
       <c r="D376" s="1">
         <v>376</v>
@@ -10117,7 +10135,7 @@
     </row>
     <row r="377" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A377" s="1" t="s">
-        <v>875</v>
+        <v>892</v>
       </c>
       <c r="B377" s="1" t="s">
         <v>152</v>
@@ -10134,13 +10152,13 @@
     </row>
     <row r="378" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A378" s="1" t="s">
-        <v>876</v>
+        <v>893</v>
       </c>
       <c r="B378" s="1" t="s">
-        <v>810</v>
+        <v>824</v>
       </c>
       <c r="C378" s="1" t="s">
-        <v>810</v>
+        <v>824</v>
       </c>
       <c r="D378" s="1">
         <v>378</v>
@@ -10151,7 +10169,7 @@
     </row>
     <row r="379" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A379" s="1" t="s">
-        <v>877</v>
+        <v>894</v>
       </c>
       <c r="B379" s="1" t="s">
         <v>66</v>
@@ -10168,7 +10186,7 @@
     </row>
     <row r="380" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A380" s="1" t="s">
-        <v>878</v>
+        <v>895</v>
       </c>
       <c r="B380" s="1" t="s">
         <v>167</v>
@@ -10185,13 +10203,13 @@
     </row>
     <row r="381" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A381" s="1" t="s">
-        <v>879</v>
+        <v>896</v>
       </c>
       <c r="B381" s="1" t="s">
-        <v>814</v>
+        <v>828</v>
       </c>
       <c r="C381" s="1" t="s">
-        <v>814</v>
+        <v>828</v>
       </c>
       <c r="D381" s="1">
         <v>381</v>
@@ -10202,13 +10220,13 @@
     </row>
     <row r="382" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A382" s="1" t="s">
-        <v>880</v>
+        <v>897</v>
       </c>
       <c r="B382" s="1" t="s">
-        <v>881</v>
+        <v>898</v>
       </c>
       <c r="C382" s="1" t="s">
-        <v>881</v>
+        <v>898</v>
       </c>
       <c r="D382" s="1">
         <v>382</v>
@@ -10219,13 +10237,13 @@
     </row>
     <row r="383" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A383" s="1" t="s">
-        <v>882</v>
+        <v>899</v>
       </c>
       <c r="B383" s="1" t="s">
-        <v>883</v>
+        <v>900</v>
       </c>
       <c r="C383" s="1" t="s">
-        <v>883</v>
+        <v>900</v>
       </c>
       <c r="D383" s="1">
         <v>383</v>
@@ -10236,13 +10254,13 @@
     </row>
     <row r="384" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A384" s="1" t="s">
-        <v>884</v>
+        <v>901</v>
       </c>
       <c r="B384" s="1" t="s">
-        <v>885</v>
+        <v>902</v>
       </c>
       <c r="C384" s="1" t="s">
-        <v>885</v>
+        <v>902</v>
       </c>
       <c r="D384" s="1">
         <v>384</v>
@@ -10253,13 +10271,13 @@
     </row>
     <row r="385" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A385" s="1" t="s">
-        <v>886</v>
+        <v>903</v>
       </c>
       <c r="B385" s="1" t="s">
-        <v>887</v>
+        <v>904</v>
       </c>
       <c r="C385" s="1" t="s">
-        <v>887</v>
+        <v>904</v>
       </c>
       <c r="D385" s="1">
         <v>385</v>
@@ -10270,13 +10288,13 @@
     </row>
     <row r="386" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A386" s="1" t="s">
-        <v>888</v>
+        <v>905</v>
       </c>
       <c r="B386" s="1" t="s">
-        <v>889</v>
+        <v>906</v>
       </c>
       <c r="C386" s="1" t="s">
-        <v>889</v>
+        <v>906</v>
       </c>
       <c r="D386" s="1">
         <v>386</v>
@@ -10287,13 +10305,13 @@
     </row>
     <row r="387" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A387" s="1" t="s">
-        <v>890</v>
+        <v>907</v>
       </c>
       <c r="B387" s="1" t="s">
-        <v>891</v>
+        <v>908</v>
       </c>
       <c r="C387" s="1" t="s">
-        <v>891</v>
+        <v>908</v>
       </c>
       <c r="D387" s="1">
         <v>387</v>
@@ -10304,13 +10322,13 @@
     </row>
     <row r="388" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A388" s="1" t="s">
-        <v>892</v>
+        <v>909</v>
       </c>
       <c r="B388" s="1" t="s">
-        <v>893</v>
+        <v>910</v>
       </c>
       <c r="C388" s="1" t="s">
-        <v>893</v>
+        <v>910</v>
       </c>
       <c r="D388" s="1">
         <v>388</v>
@@ -10321,13 +10339,13 @@
     </row>
     <row r="389" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A389" s="1" t="s">
-        <v>894</v>
+        <v>911</v>
       </c>
       <c r="B389" s="1" t="s">
-        <v>895</v>
+        <v>912</v>
       </c>
       <c r="C389" s="1" t="s">
-        <v>895</v>
+        <v>912</v>
       </c>
       <c r="D389" s="1">
         <v>389</v>
@@ -10338,13 +10356,13 @@
     </row>
     <row r="390" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A390" s="1" t="s">
-        <v>896</v>
+        <v>913</v>
       </c>
       <c r="B390" s="1" t="s">
-        <v>897</v>
+        <v>914</v>
       </c>
       <c r="C390" s="1" t="s">
-        <v>897</v>
+        <v>914</v>
       </c>
       <c r="D390" s="1">
         <v>390</v>
@@ -10355,13 +10373,13 @@
     </row>
     <row r="391" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A391" s="1" t="s">
-        <v>898</v>
+        <v>915</v>
       </c>
       <c r="B391" s="1" t="s">
-        <v>899</v>
+        <v>916</v>
       </c>
       <c r="C391" s="1" t="s">
-        <v>899</v>
+        <v>916</v>
       </c>
       <c r="D391" s="1">
         <v>391</v>
@@ -10372,13 +10390,13 @@
     </row>
     <row r="392" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A392" s="1" t="s">
-        <v>900</v>
+        <v>917</v>
       </c>
       <c r="B392" s="1" t="s">
-        <v>901</v>
+        <v>918</v>
       </c>
       <c r="C392" s="1" t="s">
-        <v>901</v>
+        <v>918</v>
       </c>
       <c r="D392" s="1">
         <v>392</v>
@@ -10389,13 +10407,13 @@
     </row>
     <row r="393" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A393" s="1" t="s">
-        <v>902</v>
+        <v>919</v>
       </c>
       <c r="B393" s="1" t="s">
-        <v>903</v>
+        <v>920</v>
       </c>
       <c r="C393" s="1" t="s">
-        <v>903</v>
+        <v>920</v>
       </c>
       <c r="D393" s="1">
         <v>393</v>
@@ -10406,13 +10424,13 @@
     </row>
     <row r="394" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A394" s="1" t="s">
-        <v>904</v>
+        <v>921</v>
       </c>
       <c r="B394" s="1" t="s">
-        <v>895</v>
+        <v>912</v>
       </c>
       <c r="C394" s="1" t="s">
-        <v>895</v>
+        <v>912</v>
       </c>
       <c r="D394" s="1">
         <v>394</v>
@@ -10423,13 +10441,13 @@
     </row>
     <row r="395" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A395" s="1" t="s">
-        <v>905</v>
+        <v>922</v>
       </c>
       <c r="B395" s="1" t="s">
-        <v>906</v>
+        <v>923</v>
       </c>
       <c r="C395" s="1" t="s">
-        <v>906</v>
+        <v>923</v>
       </c>
       <c r="D395" s="1">
         <v>395</v>
@@ -10440,13 +10458,13 @@
     </row>
     <row r="396" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A396" s="1" t="s">
-        <v>907</v>
+        <v>924</v>
       </c>
       <c r="B396" s="1" t="s">
-        <v>908</v>
+        <v>925</v>
       </c>
       <c r="C396" s="1" t="s">
-        <v>908</v>
+        <v>925</v>
       </c>
       <c r="D396" s="1">
         <v>396</v>
@@ -10457,13 +10475,13 @@
     </row>
     <row r="397" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A397" s="1" t="s">
-        <v>909</v>
+        <v>926</v>
       </c>
       <c r="B397" s="1" t="s">
-        <v>895</v>
+        <v>912</v>
       </c>
       <c r="C397" s="1" t="s">
-        <v>895</v>
+        <v>912</v>
       </c>
       <c r="D397" s="1">
         <v>397</v>
@@ -10474,13 +10492,13 @@
     </row>
     <row r="398" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A398" s="1" t="s">
-        <v>910</v>
+        <v>927</v>
       </c>
       <c r="B398" s="1" t="s">
-        <v>911</v>
+        <v>928</v>
       </c>
       <c r="C398" s="1" t="s">
-        <v>911</v>
+        <v>928</v>
       </c>
       <c r="D398" s="1">
         <v>398</v>
@@ -10491,13 +10509,13 @@
     </row>
     <row r="399" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A399" s="1" t="s">
-        <v>912</v>
+        <v>929</v>
       </c>
       <c r="B399" s="1" t="s">
-        <v>913</v>
+        <v>930</v>
       </c>
       <c r="C399" s="1" t="s">
-        <v>913</v>
+        <v>930</v>
       </c>
       <c r="D399" s="1">
         <v>399</v>
@@ -10508,13 +10526,13 @@
     </row>
     <row r="400" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A400" s="1" t="s">
-        <v>914</v>
+        <v>931</v>
       </c>
       <c r="B400" s="1" t="s">
-        <v>915</v>
+        <v>932</v>
       </c>
       <c r="C400" s="1" t="s">
-        <v>915</v>
+        <v>932</v>
       </c>
       <c r="D400" s="1">
         <v>400</v>
@@ -10525,13 +10543,13 @@
     </row>
     <row r="401" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A401" s="1" t="s">
-        <v>916</v>
+        <v>933</v>
       </c>
       <c r="B401" s="1" t="s">
-        <v>917</v>
+        <v>934</v>
       </c>
       <c r="C401" s="1" t="s">
-        <v>917</v>
+        <v>934</v>
       </c>
       <c r="D401" s="1">
         <v>401</v>
@@ -10542,13 +10560,13 @@
     </row>
     <row r="402" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A402" s="1" t="s">
-        <v>918</v>
+        <v>935</v>
       </c>
       <c r="B402" s="1" t="s">
-        <v>919</v>
+        <v>936</v>
       </c>
       <c r="C402" s="1" t="s">
-        <v>919</v>
+        <v>936</v>
       </c>
       <c r="D402" s="1">
         <v>402</v>
@@ -10559,13 +10577,13 @@
     </row>
     <row r="403" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A403" s="1" t="s">
-        <v>920</v>
+        <v>937</v>
       </c>
       <c r="B403" s="1" t="s">
-        <v>921</v>
+        <v>938</v>
       </c>
       <c r="C403" s="1" t="s">
-        <v>921</v>
+        <v>938</v>
       </c>
       <c r="D403" s="1">
         <v>403</v>
@@ -10576,13 +10594,13 @@
     </row>
     <row r="404" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A404" s="1" t="s">
-        <v>922</v>
+        <v>939</v>
       </c>
       <c r="B404" s="1" t="s">
-        <v>923</v>
+        <v>940</v>
       </c>
       <c r="C404" s="1" t="s">
-        <v>923</v>
+        <v>940</v>
       </c>
       <c r="D404" s="1">
         <v>404</v>
@@ -10593,13 +10611,13 @@
     </row>
     <row r="405" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A405" s="1" t="s">
-        <v>924</v>
+        <v>941</v>
       </c>
       <c r="B405" s="1" t="s">
-        <v>925</v>
+        <v>942</v>
       </c>
       <c r="C405" s="1" t="s">
-        <v>925</v>
+        <v>942</v>
       </c>
       <c r="D405" s="1">
         <v>405</v>
@@ -10610,13 +10628,13 @@
     </row>
     <row r="406" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A406" s="1" t="s">
-        <v>926</v>
+        <v>943</v>
       </c>
       <c r="B406" s="1" t="s">
-        <v>927</v>
+        <v>944</v>
       </c>
       <c r="C406" s="1" t="s">
-        <v>927</v>
+        <v>944</v>
       </c>
       <c r="D406" s="1">
         <v>406</v>
@@ -10627,13 +10645,13 @@
     </row>
     <row r="407" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A407" s="1" t="s">
-        <v>928</v>
+        <v>945</v>
       </c>
       <c r="B407" s="1" t="s">
-        <v>929</v>
+        <v>946</v>
       </c>
       <c r="C407" s="1" t="s">
-        <v>929</v>
+        <v>946</v>
       </c>
       <c r="D407" s="1">
         <v>407</v>
@@ -10644,13 +10662,13 @@
     </row>
     <row r="408" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A408" s="1" t="s">
-        <v>930</v>
+        <v>947</v>
       </c>
       <c r="B408" s="1" t="s">
-        <v>931</v>
+        <v>948</v>
       </c>
       <c r="C408" s="1" t="s">
-        <v>931</v>
+        <v>948</v>
       </c>
       <c r="D408" s="1">
         <v>408</v>
@@ -10661,13 +10679,13 @@
     </row>
     <row r="409" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A409" s="1" t="s">
-        <v>932</v>
+        <v>949</v>
       </c>
       <c r="B409" s="1" t="s">
-        <v>933</v>
+        <v>950</v>
       </c>
       <c r="C409" s="1" t="s">
-        <v>933</v>
+        <v>950</v>
       </c>
       <c r="D409" s="1">
         <v>409</v>
@@ -10678,13 +10696,13 @@
     </row>
     <row r="410" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A410" s="1" t="s">
-        <v>934</v>
+        <v>951</v>
       </c>
       <c r="B410" s="1" t="s">
-        <v>935</v>
+        <v>952</v>
       </c>
       <c r="C410" s="1" t="s">
-        <v>935</v>
+        <v>952</v>
       </c>
       <c r="D410" s="1">
         <v>410</v>
@@ -10695,13 +10713,13 @@
     </row>
     <row r="411" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A411" s="1" t="s">
-        <v>936</v>
+        <v>953</v>
       </c>
       <c r="B411" s="1" t="s">
-        <v>937</v>
+        <v>954</v>
       </c>
       <c r="C411" s="1" t="s">
-        <v>937</v>
+        <v>954</v>
       </c>
       <c r="D411" s="1">
         <v>411</v>
@@ -10712,13 +10730,13 @@
     </row>
     <row r="412" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A412" s="1" t="s">
-        <v>938</v>
+        <v>955</v>
       </c>
       <c r="B412" s="1" t="s">
-        <v>939</v>
+        <v>956</v>
       </c>
       <c r="C412" s="1" t="s">
-        <v>939</v>
+        <v>956</v>
       </c>
       <c r="D412" s="1">
         <v>412</v>
@@ -10729,13 +10747,13 @@
     </row>
     <row r="413" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A413" s="1" t="s">
-        <v>940</v>
+        <v>957</v>
       </c>
       <c r="B413" s="1" t="s">
-        <v>941</v>
+        <v>958</v>
       </c>
       <c r="C413" s="1" t="s">
-        <v>941</v>
+        <v>958</v>
       </c>
       <c r="D413" s="1">
         <v>413</v>
@@ -10746,13 +10764,13 @@
     </row>
     <row r="414" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A414" s="1" t="s">
-        <v>942</v>
+        <v>959</v>
       </c>
       <c r="B414" s="1" t="s">
-        <v>943</v>
+        <v>960</v>
       </c>
       <c r="C414" s="1" t="s">
-        <v>943</v>
+        <v>960</v>
       </c>
       <c r="D414" s="1">
         <v>414</v>
@@ -10763,13 +10781,13 @@
     </row>
     <row r="415" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A415" s="1" t="s">
-        <v>944</v>
+        <v>961</v>
       </c>
       <c r="B415" s="1" t="s">
-        <v>945</v>
+        <v>962</v>
       </c>
       <c r="C415" s="1" t="s">
-        <v>945</v>
+        <v>962</v>
       </c>
       <c r="D415" s="1">
         <v>415</v>
@@ -10780,13 +10798,13 @@
     </row>
     <row r="416" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A416" s="1" t="s">
-        <v>946</v>
+        <v>963</v>
       </c>
       <c r="B416" s="1" t="s">
-        <v>947</v>
+        <v>964</v>
       </c>
       <c r="C416" s="1" t="s">
-        <v>947</v>
+        <v>964</v>
       </c>
       <c r="D416" s="1">
         <v>416</v>
@@ -10797,13 +10815,13 @@
     </row>
     <row r="417" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A417" s="1" t="s">
-        <v>948</v>
+        <v>965</v>
       </c>
       <c r="B417" s="1" t="s">
-        <v>949</v>
+        <v>966</v>
       </c>
       <c r="C417" s="1" t="s">
-        <v>1112</v>
+        <v>967</v>
       </c>
       <c r="D417" s="1">
         <v>417</v>
@@ -10814,13 +10832,13 @@
     </row>
     <row r="418" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A418" s="1" t="s">
-        <v>950</v>
+        <v>968</v>
       </c>
       <c r="B418" s="1" t="s">
-        <v>951</v>
+        <v>969</v>
       </c>
       <c r="C418" s="1" t="s">
-        <v>951</v>
+        <v>969</v>
       </c>
       <c r="D418" s="1">
         <v>418</v>
@@ -10831,13 +10849,13 @@
     </row>
     <row r="419" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A419" s="1" t="s">
-        <v>952</v>
+        <v>970</v>
       </c>
       <c r="B419" s="1" t="s">
-        <v>953</v>
+        <v>971</v>
       </c>
       <c r="C419" s="1" t="s">
-        <v>953</v>
+        <v>971</v>
       </c>
       <c r="D419" s="1">
         <v>419</v>
@@ -10848,13 +10866,13 @@
     </row>
     <row r="420" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A420" s="1" t="s">
-        <v>954</v>
+        <v>972</v>
       </c>
       <c r="B420" s="1" t="s">
-        <v>955</v>
+        <v>973</v>
       </c>
       <c r="C420" s="1" t="s">
-        <v>955</v>
+        <v>973</v>
       </c>
       <c r="D420" s="1">
         <v>420</v>
@@ -10865,13 +10883,13 @@
     </row>
     <row r="421" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A421" s="1" t="s">
-        <v>956</v>
+        <v>974</v>
       </c>
       <c r="B421" s="1" t="s">
-        <v>957</v>
+        <v>975</v>
       </c>
       <c r="C421" s="1" t="s">
-        <v>1113</v>
+        <v>976</v>
       </c>
       <c r="D421" s="1">
         <v>421</v>
@@ -10882,13 +10900,13 @@
     </row>
     <row r="422" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A422" s="1" t="s">
-        <v>958</v>
+        <v>977</v>
       </c>
       <c r="B422" s="1" t="s">
-        <v>959</v>
+        <v>978</v>
       </c>
       <c r="C422" s="1" t="s">
-        <v>959</v>
+        <v>978</v>
       </c>
       <c r="D422" s="1">
         <v>422</v>
@@ -10899,13 +10917,13 @@
     </row>
     <row r="423" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A423" s="1" t="s">
-        <v>960</v>
+        <v>979</v>
       </c>
       <c r="B423" s="1" t="s">
-        <v>961</v>
+        <v>980</v>
       </c>
       <c r="C423" s="1" t="s">
-        <v>961</v>
+        <v>980</v>
       </c>
       <c r="D423" s="1">
         <v>423</v>
@@ -10916,13 +10934,13 @@
     </row>
     <row r="424" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A424" s="1" t="s">
-        <v>962</v>
+        <v>981</v>
       </c>
       <c r="B424" s="1" t="s">
-        <v>963</v>
+        <v>982</v>
       </c>
       <c r="C424" s="1" t="s">
-        <v>963</v>
+        <v>982</v>
       </c>
       <c r="D424" s="1">
         <v>424</v>
@@ -10933,13 +10951,13 @@
     </row>
     <row r="425" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A425" s="1" t="s">
-        <v>964</v>
+        <v>983</v>
       </c>
       <c r="B425" s="1" t="s">
-        <v>965</v>
+        <v>984</v>
       </c>
       <c r="C425" s="1" t="s">
-        <v>965</v>
+        <v>984</v>
       </c>
       <c r="D425" s="1">
         <v>425</v>
@@ -10950,13 +10968,13 @@
     </row>
     <row r="426" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A426" s="1" t="s">
-        <v>966</v>
+        <v>985</v>
       </c>
       <c r="B426" s="1" t="s">
-        <v>967</v>
+        <v>986</v>
       </c>
       <c r="C426" s="1" t="s">
-        <v>967</v>
+        <v>986</v>
       </c>
       <c r="D426" s="1">
         <v>426</v>
@@ -10967,13 +10985,13 @@
     </row>
     <row r="427" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A427" s="1" t="s">
-        <v>968</v>
+        <v>987</v>
       </c>
       <c r="B427" s="1" t="s">
-        <v>969</v>
+        <v>988</v>
       </c>
       <c r="C427" s="1" t="s">
-        <v>969</v>
+        <v>988</v>
       </c>
       <c r="D427" s="1">
         <v>427</v>
@@ -10984,13 +11002,13 @@
     </row>
     <row r="428" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A428" s="1" t="s">
-        <v>970</v>
+        <v>989</v>
       </c>
       <c r="B428" s="1" t="s">
-        <v>971</v>
+        <v>990</v>
       </c>
       <c r="C428" s="1" t="s">
-        <v>971</v>
+        <v>990</v>
       </c>
       <c r="D428" s="1">
         <v>428</v>
@@ -11001,13 +11019,13 @@
     </row>
     <row r="429" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A429" s="1" t="s">
-        <v>972</v>
+        <v>991</v>
       </c>
       <c r="B429" s="1" t="s">
-        <v>973</v>
+        <v>992</v>
       </c>
       <c r="C429" s="1" t="s">
-        <v>973</v>
+        <v>992</v>
       </c>
       <c r="D429" s="1">
         <v>429</v>
@@ -11018,13 +11036,13 @@
     </row>
     <row r="430" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A430" s="1" t="s">
-        <v>974</v>
+        <v>993</v>
       </c>
       <c r="B430" s="1" t="s">
-        <v>975</v>
+        <v>994</v>
       </c>
       <c r="C430" s="1" t="s">
-        <v>975</v>
+        <v>994</v>
       </c>
       <c r="D430" s="1">
         <v>430</v>
@@ -11035,13 +11053,13 @@
     </row>
     <row r="431" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A431" s="1" t="s">
-        <v>976</v>
+        <v>995</v>
       </c>
       <c r="B431" s="1" t="s">
-        <v>977</v>
+        <v>996</v>
       </c>
       <c r="C431" s="1" t="s">
-        <v>977</v>
+        <v>996</v>
       </c>
       <c r="D431" s="1">
         <v>431</v>
@@ -11052,13 +11070,13 @@
     </row>
     <row r="432" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A432" s="1" t="s">
-        <v>978</v>
+        <v>997</v>
       </c>
       <c r="B432" s="1" t="s">
-        <v>979</v>
+        <v>998</v>
       </c>
       <c r="C432" s="1" t="s">
-        <v>979</v>
+        <v>998</v>
       </c>
       <c r="D432" s="1">
         <v>432</v>
@@ -11069,13 +11087,13 @@
     </row>
     <row r="433" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A433" s="1" t="s">
-        <v>980</v>
+        <v>999</v>
       </c>
       <c r="B433" s="1" t="s">
-        <v>981</v>
+        <v>1000</v>
       </c>
       <c r="C433" s="1" t="s">
-        <v>981</v>
+        <v>1000</v>
       </c>
       <c r="D433" s="1">
         <v>433</v>
@@ -11086,13 +11104,13 @@
     </row>
     <row r="434" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A434" s="1" t="s">
-        <v>982</v>
+        <v>1001</v>
       </c>
       <c r="B434" s="1" t="s">
-        <v>983</v>
+        <v>1002</v>
       </c>
       <c r="C434" s="1" t="s">
-        <v>983</v>
+        <v>1002</v>
       </c>
       <c r="D434" s="1">
         <v>434</v>
@@ -11103,13 +11121,13 @@
     </row>
     <row r="435" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A435" s="1" t="s">
-        <v>984</v>
+        <v>1003</v>
       </c>
       <c r="B435" s="1" t="s">
-        <v>985</v>
+        <v>1004</v>
       </c>
       <c r="C435" s="1" t="s">
-        <v>985</v>
+        <v>1004</v>
       </c>
       <c r="D435" s="1">
         <v>435</v>
@@ -11120,13 +11138,13 @@
     </row>
     <row r="436" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A436" s="1" t="s">
-        <v>986</v>
+        <v>1005</v>
       </c>
       <c r="B436" s="1" t="s">
-        <v>987</v>
+        <v>1006</v>
       </c>
       <c r="C436" s="1" t="s">
-        <v>987</v>
+        <v>1006</v>
       </c>
       <c r="D436" s="1">
         <v>436</v>
@@ -11137,13 +11155,13 @@
     </row>
     <row r="437" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A437" s="1" t="s">
-        <v>988</v>
+        <v>1007</v>
       </c>
       <c r="B437" s="1" t="s">
-        <v>989</v>
+        <v>1008</v>
       </c>
       <c r="C437" s="1" t="s">
-        <v>989</v>
+        <v>1008</v>
       </c>
       <c r="D437" s="1">
         <v>437</v>
@@ -11154,13 +11172,13 @@
     </row>
     <row r="438" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A438" s="1" t="s">
-        <v>990</v>
+        <v>1009</v>
       </c>
       <c r="B438" s="1" t="s">
-        <v>991</v>
+        <v>1010</v>
       </c>
       <c r="C438" s="1" t="s">
-        <v>991</v>
+        <v>1010</v>
       </c>
       <c r="D438" s="1">
         <v>438</v>
@@ -11171,13 +11189,13 @@
     </row>
     <row r="439" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A439" s="1" t="s">
-        <v>992</v>
+        <v>1011</v>
       </c>
       <c r="B439" s="1" t="s">
-        <v>993</v>
+        <v>1012</v>
       </c>
       <c r="C439" s="1" t="s">
-        <v>993</v>
+        <v>1012</v>
       </c>
       <c r="D439" s="1">
         <v>439</v>
@@ -11188,13 +11206,13 @@
     </row>
     <row r="440" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A440" s="1" t="s">
-        <v>994</v>
+        <v>1013</v>
       </c>
       <c r="B440" s="1" t="s">
-        <v>995</v>
+        <v>1014</v>
       </c>
       <c r="C440" s="1" t="s">
-        <v>995</v>
+        <v>1014</v>
       </c>
       <c r="D440" s="1">
         <v>440</v>
@@ -11205,13 +11223,13 @@
     </row>
     <row r="441" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A441" s="1" t="s">
-        <v>996</v>
+        <v>1015</v>
       </c>
       <c r="B441" s="1" t="s">
-        <v>997</v>
+        <v>1016</v>
       </c>
       <c r="C441" s="1" t="s">
-        <v>997</v>
+        <v>1016</v>
       </c>
       <c r="D441" s="1">
         <v>441</v>
@@ -11222,13 +11240,13 @@
     </row>
     <row r="442" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A442" s="1" t="s">
-        <v>998</v>
+        <v>1017</v>
       </c>
       <c r="B442" s="1" t="s">
-        <v>963</v>
+        <v>982</v>
       </c>
       <c r="C442" s="1" t="s">
-        <v>963</v>
+        <v>982</v>
       </c>
       <c r="D442" s="1">
         <v>442</v>
@@ -11239,13 +11257,13 @@
     </row>
     <row r="443" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A443" s="1" t="s">
-        <v>999</v>
+        <v>1018</v>
       </c>
       <c r="B443" s="1" t="s">
-        <v>965</v>
+        <v>984</v>
       </c>
       <c r="C443" s="1" t="s">
-        <v>965</v>
+        <v>984</v>
       </c>
       <c r="D443" s="1">
         <v>443</v>
@@ -11256,13 +11274,13 @@
     </row>
     <row r="444" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A444" s="1" t="s">
-        <v>1000</v>
+        <v>1019</v>
       </c>
       <c r="B444" s="1" t="s">
-        <v>967</v>
+        <v>986</v>
       </c>
       <c r="C444" s="1" t="s">
-        <v>967</v>
+        <v>986</v>
       </c>
       <c r="D444" s="1">
         <v>444</v>
@@ -11273,13 +11291,13 @@
     </row>
     <row r="445" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A445" s="1" t="s">
-        <v>1001</v>
+        <v>1020</v>
       </c>
       <c r="B445" s="1" t="s">
-        <v>969</v>
+        <v>988</v>
       </c>
       <c r="C445" s="1" t="s">
-        <v>969</v>
+        <v>988</v>
       </c>
       <c r="D445" s="1">
         <v>445</v>
@@ -11290,13 +11308,13 @@
     </row>
     <row r="446" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A446" s="1" t="s">
-        <v>1002</v>
+        <v>1021</v>
       </c>
       <c r="B446" s="1" t="s">
-        <v>971</v>
+        <v>990</v>
       </c>
       <c r="C446" s="1" t="s">
-        <v>971</v>
+        <v>990</v>
       </c>
       <c r="D446" s="1">
         <v>446</v>
@@ -11307,13 +11325,13 @@
     </row>
     <row r="447" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A447" s="1" t="s">
-        <v>1003</v>
+        <v>1022</v>
       </c>
       <c r="B447" s="1" t="s">
-        <v>973</v>
+        <v>992</v>
       </c>
       <c r="C447" s="1" t="s">
-        <v>973</v>
+        <v>992</v>
       </c>
       <c r="D447" s="1">
         <v>447</v>
@@ -11324,13 +11342,13 @@
     </row>
     <row r="448" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A448" s="1" t="s">
-        <v>1004</v>
+        <v>1023</v>
       </c>
       <c r="B448" s="1" t="s">
-        <v>975</v>
+        <v>994</v>
       </c>
       <c r="C448" s="1" t="s">
-        <v>975</v>
+        <v>994</v>
       </c>
       <c r="D448" s="1">
         <v>448</v>
@@ -11341,13 +11359,13 @@
     </row>
     <row r="449" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A449" s="1" t="s">
-        <v>1005</v>
+        <v>1024</v>
       </c>
       <c r="B449" s="1" t="s">
-        <v>1006</v>
+        <v>1025</v>
       </c>
       <c r="C449" s="1" t="s">
-        <v>1006</v>
+        <v>1025</v>
       </c>
       <c r="D449" s="1">
         <v>449</v>
@@ -11358,13 +11376,13 @@
     </row>
     <row r="450" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A450" s="1" t="s">
-        <v>1007</v>
+        <v>1026</v>
       </c>
       <c r="B450" s="1" t="s">
-        <v>1008</v>
+        <v>1027</v>
       </c>
       <c r="C450" s="1" t="s">
-        <v>1114</v>
+        <v>1028</v>
       </c>
       <c r="D450" s="1">
         <v>450</v>
@@ -11375,13 +11393,13 @@
     </row>
     <row r="451" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A451" s="1" t="s">
-        <v>1009</v>
+        <v>1029</v>
       </c>
       <c r="B451" s="1" t="s">
-        <v>1010</v>
+        <v>1030</v>
       </c>
       <c r="C451" s="1" t="s">
-        <v>1010</v>
+        <v>1030</v>
       </c>
       <c r="D451" s="1">
         <v>451</v>
@@ -11392,13 +11410,13 @@
     </row>
     <row r="452" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A452" s="1" t="s">
-        <v>1011</v>
+        <v>1031</v>
       </c>
       <c r="B452" s="1" t="s">
-        <v>1012</v>
+        <v>1032</v>
       </c>
       <c r="C452" s="1" t="s">
-        <v>1012</v>
+        <v>1032</v>
       </c>
       <c r="D452" s="1">
         <v>452</v>
@@ -11409,13 +11427,13 @@
     </row>
     <row r="453" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A453" s="1" t="s">
-        <v>1013</v>
+        <v>1033</v>
       </c>
       <c r="B453" s="1" t="s">
         <v>155</v>
       </c>
       <c r="C453" s="1" t="s">
-        <v>801</v>
+        <v>814</v>
       </c>
       <c r="D453" s="1">
         <v>453</v>
@@ -11426,13 +11444,13 @@
     </row>
     <row r="454" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A454" s="1" t="s">
-        <v>1014</v>
+        <v>1034</v>
       </c>
       <c r="B454" s="1" t="s">
-        <v>1015</v>
+        <v>1035</v>
       </c>
       <c r="C454" s="1" t="s">
-        <v>1015</v>
+        <v>1035</v>
       </c>
       <c r="D454" s="1">
         <v>454</v>
@@ -11443,7 +11461,7 @@
     </row>
     <row r="455" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A455" s="1" t="s">
-        <v>1016</v>
+        <v>1036</v>
       </c>
       <c r="B455" s="1" t="s">
         <v>69</v>
@@ -11460,7 +11478,7 @@
     </row>
     <row r="456" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A456" s="1" t="s">
-        <v>1017</v>
+        <v>1037</v>
       </c>
       <c r="B456" s="1" t="s">
         <v>170</v>
@@ -11477,13 +11495,13 @@
     </row>
     <row r="457" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A457" s="1" t="s">
-        <v>1018</v>
+        <v>1038</v>
       </c>
       <c r="B457" s="1" t="s">
-        <v>807</v>
+        <v>820</v>
       </c>
       <c r="C457" s="1" t="s">
-        <v>1089</v>
+        <v>821</v>
       </c>
       <c r="D457" s="1">
         <v>457</v>
@@ -11494,7 +11512,7 @@
     </row>
     <row r="458" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A458" s="1" t="s">
-        <v>1019</v>
+        <v>1039</v>
       </c>
       <c r="B458" s="1" t="s">
         <v>152</v>
@@ -11511,13 +11529,13 @@
     </row>
     <row r="459" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A459" s="1" t="s">
-        <v>1020</v>
+        <v>1040</v>
       </c>
       <c r="B459" s="1" t="s">
-        <v>1021</v>
+        <v>1041</v>
       </c>
       <c r="C459" s="1" t="s">
-        <v>1021</v>
+        <v>1041</v>
       </c>
       <c r="D459" s="1">
         <v>459</v>
@@ -11528,7 +11546,7 @@
     </row>
     <row r="460" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A460" s="1" t="s">
-        <v>1022</v>
+        <v>1042</v>
       </c>
       <c r="B460" s="1" t="s">
         <v>66</v>
@@ -11545,13 +11563,13 @@
     </row>
     <row r="461" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A461" s="1" t="s">
-        <v>1023</v>
+        <v>1043</v>
       </c>
       <c r="B461" s="1" t="s">
-        <v>1024</v>
+        <v>1044</v>
       </c>
       <c r="C461" s="1" t="s">
-        <v>1024</v>
+        <v>1044</v>
       </c>
       <c r="D461" s="1">
         <v>461</v>
@@ -11562,13 +11580,13 @@
     </row>
     <row r="462" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A462" s="1" t="s">
-        <v>1025</v>
+        <v>1045</v>
       </c>
       <c r="B462" s="1" t="s">
-        <v>814</v>
+        <v>828</v>
       </c>
       <c r="C462" s="1" t="s">
-        <v>814</v>
+        <v>828</v>
       </c>
       <c r="D462" s="1">
         <v>462</v>
@@ -11579,13 +11597,13 @@
     </row>
     <row r="463" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A463" s="1" t="s">
-        <v>1026</v>
+        <v>1046</v>
       </c>
       <c r="B463" s="1" t="s">
-        <v>1027</v>
+        <v>1047</v>
       </c>
       <c r="C463" s="1" t="s">
-        <v>1027</v>
+        <v>1047</v>
       </c>
       <c r="D463" s="1">
         <v>463</v>
@@ -11596,13 +11614,13 @@
     </row>
     <row r="464" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A464" s="1" t="s">
-        <v>1028</v>
+        <v>1048</v>
       </c>
       <c r="B464" s="1" t="s">
-        <v>1029</v>
+        <v>1049</v>
       </c>
       <c r="C464" s="1" t="s">
-        <v>1029</v>
+        <v>1049</v>
       </c>
       <c r="D464" s="1">
         <v>464</v>
@@ -11613,13 +11631,13 @@
     </row>
     <row r="465" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A465" s="1" t="s">
-        <v>1030</v>
+        <v>1050</v>
       </c>
       <c r="B465" s="1" t="s">
-        <v>1031</v>
+        <v>1051</v>
       </c>
       <c r="C465" s="1" t="s">
-        <v>1031</v>
+        <v>1051</v>
       </c>
       <c r="D465" s="1">
         <v>465</v>
@@ -11630,13 +11648,13 @@
     </row>
     <row r="466" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A466" s="1" t="s">
-        <v>1032</v>
+        <v>1052</v>
       </c>
       <c r="B466" s="1" t="s">
-        <v>1033</v>
+        <v>1053</v>
       </c>
       <c r="C466" s="1" t="s">
-        <v>1033</v>
+        <v>1053</v>
       </c>
       <c r="D466" s="1">
         <v>466</v>
@@ -11647,13 +11665,13 @@
     </row>
     <row r="467" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A467" s="1" t="s">
-        <v>1034</v>
+        <v>1054</v>
       </c>
       <c r="B467" s="1" t="s">
-        <v>1035</v>
+        <v>1055</v>
       </c>
       <c r="C467" s="1" t="s">
-        <v>1035</v>
+        <v>1055</v>
       </c>
       <c r="D467" s="1">
         <v>467</v>
@@ -11664,13 +11682,13 @@
     </row>
     <row r="468" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A468" s="1" t="s">
-        <v>1036</v>
+        <v>1056</v>
       </c>
       <c r="B468" s="1" t="s">
-        <v>1037</v>
+        <v>1057</v>
       </c>
       <c r="C468" s="1" t="s">
-        <v>1037</v>
+        <v>1057</v>
       </c>
       <c r="D468" s="1">
         <v>468</v>
@@ -11681,13 +11699,13 @@
     </row>
     <row r="469" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A469" s="1" t="s">
-        <v>1038</v>
+        <v>1058</v>
       </c>
       <c r="B469" s="1" t="s">
-        <v>1033</v>
+        <v>1053</v>
       </c>
       <c r="C469" s="1" t="s">
-        <v>1033</v>
+        <v>1053</v>
       </c>
       <c r="D469" s="1">
         <v>469</v>
@@ -11698,13 +11716,13 @@
     </row>
     <row r="470" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A470" s="1" t="s">
-        <v>1039</v>
+        <v>1059</v>
       </c>
       <c r="B470" s="1" t="s">
-        <v>1040</v>
+        <v>1060</v>
       </c>
       <c r="C470" s="1" t="s">
-        <v>1040</v>
+        <v>1060</v>
       </c>
       <c r="D470" s="1">
         <v>470</v>
@@ -11715,13 +11733,13 @@
     </row>
     <row r="471" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A471" s="1" t="s">
-        <v>1041</v>
+        <v>1061</v>
       </c>
       <c r="B471" s="1" t="s">
-        <v>1042</v>
+        <v>1062</v>
       </c>
       <c r="C471" s="1" t="s">
-        <v>1042</v>
+        <v>1062</v>
       </c>
       <c r="D471" s="1">
         <v>471</v>
@@ -11732,13 +11750,13 @@
     </row>
     <row r="472" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A472" s="1" t="s">
-        <v>1043</v>
+        <v>1063</v>
       </c>
       <c r="B472" s="1" t="s">
-        <v>1044</v>
+        <v>1064</v>
       </c>
       <c r="C472" s="1" t="s">
-        <v>1045</v>
+        <v>1065</v>
       </c>
       <c r="D472" s="1">
         <v>472</v>
@@ -11749,13 +11767,13 @@
     </row>
     <row r="473" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A473" s="1" t="s">
-        <v>1046</v>
+        <v>1066</v>
       </c>
       <c r="B473" s="1" t="s">
-        <v>1047</v>
+        <v>1067</v>
       </c>
       <c r="C473" s="1" t="s">
-        <v>1047</v>
+        <v>1067</v>
       </c>
       <c r="D473" s="1">
         <v>473</v>
@@ -11766,13 +11784,13 @@
     </row>
     <row r="474" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A474" s="1" t="s">
-        <v>1048</v>
+        <v>1068</v>
       </c>
       <c r="B474" s="1" t="s">
-        <v>1033</v>
+        <v>1053</v>
       </c>
       <c r="C474" s="1" t="s">
-        <v>1033</v>
+        <v>1053</v>
       </c>
       <c r="D474" s="1">
         <v>474</v>
@@ -11783,13 +11801,13 @@
     </row>
     <row r="475" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A475" s="1" t="s">
-        <v>1049</v>
+        <v>1069</v>
       </c>
       <c r="B475" s="1" t="s">
-        <v>1050</v>
+        <v>1070</v>
       </c>
       <c r="C475" s="1" t="s">
-        <v>1050</v>
+        <v>1070</v>
       </c>
       <c r="D475" s="1">
         <v>475</v>
@@ -11800,13 +11818,13 @@
     </row>
     <row r="476" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A476" s="1" t="s">
-        <v>1051</v>
+        <v>1071</v>
       </c>
       <c r="B476" s="1" t="s">
-        <v>1052</v>
+        <v>1072</v>
       </c>
       <c r="C476" s="1" t="s">
-        <v>1052</v>
+        <v>1072</v>
       </c>
       <c r="D476" s="1">
         <v>476</v>
@@ -11817,13 +11835,13 @@
     </row>
     <row r="477" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A477" s="1" t="s">
-        <v>1053</v>
+        <v>1073</v>
       </c>
       <c r="B477" s="1" t="s">
-        <v>1054</v>
+        <v>1074</v>
       </c>
       <c r="C477" s="1" t="s">
-        <v>1054</v>
+        <v>1074</v>
       </c>
       <c r="D477" s="1">
         <v>477</v>
@@ -11834,13 +11852,13 @@
     </row>
     <row r="478" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A478" s="1" t="s">
-        <v>1055</v>
+        <v>1075</v>
       </c>
       <c r="B478" s="1" t="s">
-        <v>1056</v>
+        <v>1076</v>
       </c>
       <c r="C478" s="1" t="s">
-        <v>1056</v>
+        <v>1076</v>
       </c>
       <c r="D478" s="1">
         <v>478</v>
@@ -11851,13 +11869,13 @@
     </row>
     <row r="479" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A479" s="1" t="s">
-        <v>1057</v>
+        <v>1077</v>
       </c>
       <c r="B479" s="1" t="s">
-        <v>1058</v>
+        <v>1078</v>
       </c>
       <c r="C479" s="1" t="s">
-        <v>1058</v>
+        <v>1078</v>
       </c>
       <c r="D479" s="1">
         <v>479</v>
@@ -11868,13 +11886,13 @@
     </row>
     <row r="480" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A480" s="1" t="s">
-        <v>1059</v>
+        <v>1079</v>
       </c>
       <c r="B480" s="1" t="s">
-        <v>1060</v>
+        <v>1080</v>
       </c>
       <c r="C480" s="1" t="s">
-        <v>1060</v>
+        <v>1080</v>
       </c>
       <c r="D480" s="1">
         <v>480</v>
@@ -11885,13 +11903,13 @@
     </row>
     <row r="481" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A481" s="1" t="s">
-        <v>1061</v>
+        <v>1081</v>
       </c>
       <c r="B481" s="1" t="s">
-        <v>1062</v>
+        <v>1082</v>
       </c>
       <c r="C481" s="1" t="s">
-        <v>1062</v>
+        <v>1082</v>
       </c>
       <c r="D481" s="1">
         <v>481</v>
@@ -11902,13 +11920,13 @@
     </row>
     <row r="482" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A482" s="1" t="s">
-        <v>1063</v>
+        <v>1083</v>
       </c>
       <c r="B482" s="1" t="s">
-        <v>1064</v>
+        <v>1084</v>
       </c>
       <c r="C482" s="1" t="s">
-        <v>1064</v>
+        <v>1084</v>
       </c>
       <c r="D482" s="1">
         <v>482</v>
@@ -11919,13 +11937,13 @@
     </row>
     <row r="483" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A483" s="1" t="s">
-        <v>1065</v>
+        <v>1085</v>
       </c>
       <c r="B483" s="1" t="s">
-        <v>1066</v>
+        <v>1086</v>
       </c>
       <c r="C483" s="1" t="s">
-        <v>1066</v>
+        <v>1086</v>
       </c>
       <c r="D483" s="1">
         <v>483</v>
@@ -11936,13 +11954,13 @@
     </row>
     <row r="484" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A484" s="1" t="s">
-        <v>1067</v>
+        <v>1087</v>
       </c>
       <c r="B484" s="1" t="s">
-        <v>1068</v>
+        <v>1088</v>
       </c>
       <c r="C484" s="1" t="s">
-        <v>1068</v>
+        <v>1088</v>
       </c>
       <c r="D484" s="1">
         <v>484</v>
@@ -11953,13 +11971,13 @@
     </row>
     <row r="485" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A485" s="1" t="s">
-        <v>1069</v>
+        <v>1089</v>
       </c>
       <c r="B485" s="1" t="s">
-        <v>1070</v>
+        <v>1090</v>
       </c>
       <c r="C485" s="1" t="s">
-        <v>1071</v>
+        <v>1091</v>
       </c>
       <c r="D485" s="1">
         <v>485</v>
@@ -11970,13 +11988,13 @@
     </row>
     <row r="486" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A486" s="1" t="s">
-        <v>1072</v>
+        <v>1092</v>
       </c>
       <c r="B486" s="1" t="s">
-        <v>1073</v>
+        <v>1093</v>
       </c>
       <c r="C486" s="1" t="s">
-        <v>1073</v>
+        <v>1093</v>
       </c>
       <c r="D486" s="1">
         <v>486</v>
@@ -11987,13 +12005,13 @@
     </row>
     <row r="487" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A487" s="1" t="s">
-        <v>1074</v>
+        <v>1094</v>
       </c>
       <c r="B487" s="1" t="s">
-        <v>1075</v>
+        <v>1095</v>
       </c>
       <c r="C487" s="1" t="s">
-        <v>1075</v>
+        <v>1095</v>
       </c>
       <c r="D487" s="1">
         <v>487</v>
@@ -12004,13 +12022,13 @@
     </row>
     <row r="488" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A488" s="1" t="s">
-        <v>1076</v>
+        <v>1096</v>
       </c>
       <c r="B488" s="1" t="s">
-        <v>1073</v>
+        <v>1093</v>
       </c>
       <c r="C488" s="1" t="s">
-        <v>1073</v>
+        <v>1093</v>
       </c>
       <c r="D488" s="1">
         <v>488</v>
@@ -12021,13 +12039,13 @@
     </row>
     <row r="489" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A489" s="1" t="s">
-        <v>1077</v>
+        <v>1097</v>
       </c>
       <c r="B489" s="1" t="s">
-        <v>1078</v>
+        <v>1098</v>
       </c>
       <c r="C489" s="1" t="s">
-        <v>1078</v>
+        <v>1098</v>
       </c>
       <c r="D489" s="1">
         <v>489</v>
@@ -12038,13 +12056,13 @@
     </row>
     <row r="490" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A490" s="1" t="s">
-        <v>1079</v>
+        <v>1099</v>
       </c>
       <c r="B490" s="1" t="s">
-        <v>1080</v>
+        <v>1100</v>
       </c>
       <c r="C490" s="1" t="s">
-        <v>1080</v>
+        <v>1100</v>
       </c>
       <c r="D490" s="1">
         <v>490</v>
@@ -12055,13 +12073,13 @@
     </row>
     <row r="491" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A491" s="1" t="s">
-        <v>1081</v>
+        <v>1101</v>
       </c>
       <c r="B491" s="1" t="s">
-        <v>1082</v>
+        <v>1102</v>
       </c>
       <c r="C491" s="1" t="s">
-        <v>1082</v>
+        <v>1102</v>
       </c>
       <c r="D491" s="1">
         <v>491</v>
@@ -12072,13 +12090,13 @@
     </row>
     <row r="492" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A492" s="1" t="s">
-        <v>1083</v>
+        <v>1103</v>
       </c>
       <c r="B492" s="1" t="s">
-        <v>1084</v>
+        <v>1104</v>
       </c>
       <c r="C492" s="1" t="s">
-        <v>1084</v>
+        <v>1104</v>
       </c>
       <c r="D492" s="1">
         <v>492</v>
@@ -12089,13 +12107,13 @@
     </row>
     <row r="493" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A493" s="1" t="s">
-        <v>1085</v>
+        <v>1105</v>
       </c>
       <c r="B493" s="1" t="s">
-        <v>1086</v>
+        <v>1106</v>
       </c>
       <c r="C493" s="1" t="s">
-        <v>1086</v>
+        <v>1106</v>
       </c>
       <c r="D493" s="1">
         <v>493</v>
@@ -12106,13 +12124,13 @@
     </row>
     <row r="494" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A494" s="1" t="s">
-        <v>1087</v>
+        <v>1107</v>
       </c>
       <c r="B494" s="1" t="s">
-        <v>1088</v>
+        <v>1108</v>
       </c>
       <c r="C494" s="1" t="s">
-        <v>1088</v>
+        <v>1108</v>
       </c>
       <c r="D494" s="1">
         <v>494</v>
